--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="7"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
     <sheet name="伊萝莲" sheetId="1" r:id="rId2"/>
-    <sheet name="梅" sheetId="3" r:id="rId3"/>
-    <sheet name="白处尊" sheetId="4" r:id="rId4"/>
-    <sheet name="格纳罗尔" sheetId="15" r:id="rId5"/>
-    <sheet name="洛" sheetId="11" r:id="rId6"/>
+    <sheet name="洛" sheetId="11" r:id="rId3"/>
+    <sheet name="梅" sheetId="3" r:id="rId4"/>
+    <sheet name="白处尊" sheetId="4" r:id="rId5"/>
+    <sheet name="格纳罗尔" sheetId="15" r:id="rId6"/>
     <sheet name="隐秘" sheetId="6" r:id="rId7"/>
     <sheet name="帝国" sheetId="5" r:id="rId8"/>
     <sheet name="禅意" sheetId="7" r:id="rId9"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="302">
   <si>
     <t>名称</t>
   </si>
@@ -80,9 +80,6 @@
     <t>增援战线</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
     <t>惩戒天使</t>
   </si>
   <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
     <t>紫色卡等：</t>
   </si>
   <si>
@@ -173,298 +173,274 @@
     <t>长耳庄巧姑</t>
   </si>
   <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
     <t>执剑道人</t>
   </si>
   <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>卜命道长</t>
-  </si>
-  <si>
-    <t>苦行武僧</t>
-  </si>
-  <si>
-    <t>沉默否定</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>深山采药人</t>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
+  </si>
+  <si>
+    <t>学仆-猛禽型</t>
+  </si>
+  <si>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
+  </si>
+  <si>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
   </si>
   <si>
     <t>风铃道人</t>
   </si>
   <si>
-    <t>扫叶僧</t>
+    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
   </si>
   <si>
     <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>流岚刃·琳</t>
-  </si>
-  <si>
-    <t>火蛇巫女</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>学仆-猛禽型</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
-  </si>
-  <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
-  </si>
-  <si>
-    <t>明月曲</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
   </si>
   <si>
     <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
@@ -1970,8 +1946,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2128,25 +2104,17 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
@@ -2155,30 +2123,38 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>18.7272727272727</v>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2192,13 +2168,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2206,27 +2182,27 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2234,13 +2210,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2248,41 +2224,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2290,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2304,10 +2280,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>16</v>
@@ -2318,13 +2294,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2332,13 +2308,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2346,13 +2322,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="3">
         <v>6</v>
       </c>
       <c r="D30" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2360,13 +2336,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2383,15 +2359,15 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <f>AVERAGE(D18:D31)</f>
-        <v>15.9285714285714</v>
+        <f>AVERAGE(D17:D31)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2478,7 +2454,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -2494,8 +2470,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>16.9</v>
+        <f>AVERAGE(D2:D11,D17:D31,D37:D41)</f>
+        <v>16.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2537,12 +2513,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2554,15 +2530,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -2571,12 +2547,12 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2588,15 +2564,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -2605,12 +2581,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2622,15 +2598,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -2639,15 +2615,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2656,15 +2632,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -2673,131 +2649,131 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -2809,12 +2785,12 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -2826,12 +2802,12 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -2843,12 +2819,12 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -2860,12 +2836,12 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -2877,12 +2853,12 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2894,12 +2870,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -2911,15 +2887,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -2928,15 +2904,15 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -2945,182 +2921,182 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -3132,15 +3108,15 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -3149,12 +3125,12 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -3166,12 +3142,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -3183,15 +3159,15 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -3200,12 +3176,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -3217,15 +3193,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -3234,15 +3210,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
@@ -3251,97 +3227,97 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
         <v>131</v>
       </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -3353,15 +3329,15 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -3370,15 +3346,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
@@ -3387,15 +3363,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -3404,32 +3380,32 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -3438,15 +3414,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -3455,15 +3431,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -3472,117 +3448,117 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>31</v>
@@ -3591,15 +3567,15 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -3608,15 +3584,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -3625,15 +3601,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
@@ -3642,15 +3618,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -3659,49 +3635,49 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -3710,15 +3686,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -3727,15 +3703,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
@@ -3744,32 +3720,32 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
         <v>190</v>
-      </c>
-      <c r="B83" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -3778,15 +3754,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -3795,15 +3771,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -3812,15 +3788,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>5</v>
@@ -3829,15 +3805,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -3846,15 +3822,15 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -3863,15 +3839,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -3880,15 +3856,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
@@ -3897,15 +3873,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -3914,66 +3890,66 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -3982,15 +3958,15 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -3999,15 +3975,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -4016,15 +3992,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
@@ -4033,58 +4009,58 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4118,33 +4094,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
@@ -4157,15 +4133,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -4178,10 +4154,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4189,7 +4165,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <v>17</v>
@@ -4204,10 +4180,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>18</v>
@@ -4222,10 +4198,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
@@ -4240,10 +4216,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -4256,7 +4232,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4264,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
@@ -4279,10 +4255,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2">
         <v>16</v>
@@ -4297,10 +4273,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -4315,10 +4291,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -4333,10 +4309,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3">
         <v>18</v>
@@ -4349,15 +4325,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -4372,10 +4348,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3">
         <v>17</v>
@@ -4390,10 +4366,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3">
         <v>15</v>
@@ -4408,10 +4384,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>14</v>
@@ -4424,15 +4400,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -4447,10 +4423,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -4465,10 +4441,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -4483,10 +4459,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -4501,10 +4477,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -4519,10 +4495,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3">
         <v>7</v>
@@ -4537,10 +4513,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -4555,10 +4531,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1">
         <v>13</v>
@@ -4571,15 +4547,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C25" s="1">
         <v>16</v>
@@ -4592,15 +4568,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1">
         <v>13</v>
@@ -4613,15 +4589,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>15</v>
@@ -4634,15 +4610,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
         <v>14</v>
@@ -4655,15 +4631,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -4678,10 +4654,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
@@ -4694,15 +4670,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2">
         <v>16</v>
@@ -4720,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
@@ -4733,15 +4709,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2">
         <v>13</v>
@@ -4754,15 +4730,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2">
         <v>13</v>
@@ -4775,7 +4751,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4783,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2">
         <v>18</v>
@@ -4796,15 +4772,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -4819,10 +4795,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -4837,10 +4813,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3">
         <v>14</v>
@@ -4853,15 +4829,15 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -4874,15 +4850,15 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C44" s="3">
         <v>14</v>
@@ -4895,15 +4871,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3">
         <v>17</v>
@@ -4916,18 +4892,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -4940,15 +4916,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -4963,10 +4939,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C48" s="3">
         <v>15</v>
@@ -4981,10 +4957,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3">
         <v>13</v>
@@ -4999,10 +4975,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C50" s="3">
         <v>17</v>
@@ -5015,15 +4991,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
@@ -5036,15 +5012,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -5059,10 +5035,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -5077,10 +5053,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1">
         <v>12</v>
@@ -5093,15 +5069,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
@@ -5116,10 +5092,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -5157,16 +5133,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5473,15 +5449,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1">
         <v>0.0067</v>
@@ -5489,7 +5465,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2">
         <v>0.2667</v>
@@ -5497,7 +5473,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B4" s="3">
         <v>0.62</v>
@@ -5505,7 +5481,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1">
         <v>2.345</v>
@@ -5513,7 +5489,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2">
         <v>0.9529</v>
@@ -5521,7 +5497,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" s="3">
         <v>1.76</v>
@@ -5529,7 +5505,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1">
         <v>4.41</v>
@@ -5537,7 +5513,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B9" s="4">
         <v>0.13</v>
@@ -5545,7 +5521,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B10" s="1">
         <v>0.0565</v>
@@ -5553,7 +5529,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B11" s="4">
         <v>0.022</v>
@@ -5561,7 +5537,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B12" s="1">
         <v>0.0049</v>
@@ -5569,7 +5545,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B13" s="3">
         <v>0.0011</v>
@@ -5577,7 +5553,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B14" s="5">
         <v>0.076</v>
@@ -5585,7 +5561,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1">
         <v>0.66</v>
@@ -5593,7 +5569,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B16" s="1">
         <v>0.6</v>
@@ -5601,7 +5577,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B17" s="1">
         <v>0.0081</v>
@@ -5609,7 +5585,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1">
         <v>0.142</v>
@@ -5617,7 +5593,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B19" s="4">
         <v>0.176</v>
@@ -5625,7 +5601,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B20" s="2">
         <v>0.27</v>
@@ -5633,7 +5609,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B21" s="3">
         <v>0.28</v>
@@ -5641,7 +5617,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B22" s="2">
         <v>0.0036</v>
@@ -5649,7 +5625,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B23" s="1">
         <v>0.0038</v>
@@ -5657,7 +5633,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B24">
         <v>0.27</v>
@@ -5665,7 +5641,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B25" s="1">
         <v>4.04</v>
@@ -5673,7 +5649,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B26" s="1">
         <v>121.11</v>
@@ -5681,7 +5657,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B27" s="3">
         <v>64.61</v>
@@ -5689,7 +5665,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2">
         <v>30.28</v>
@@ -5697,7 +5673,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B29">
         <v>11.31</v>
@@ -5714,8 +5690,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5852,7 +5828,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5878,10 +5854,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -5891,10 +5867,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -5905,10 +5881,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -5919,10 +5895,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -5933,10 +5909,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -5950,13 +5926,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5964,41 +5940,41 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6006,13 +5982,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6020,10 +5996,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -6034,13 +6010,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6048,41 +6024,42 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -6100,7 +6077,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -6108,7 +6085,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3">
         <f>AVERAGE(D16:D29)</f>
-        <v>15.9285714285714</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6223,7 +6200,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -6242,7 +6219,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>16.8666666666667</v>
+        <v>17.0333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6255,9 +6232,552 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>16.5714285714286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <f>AVERAGE(D21:D33)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <f>AVERAGE(D39:D41)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>AVERAGE(D2:D15,D21:D33,D39:D41)</f>
+        <v>15.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -6367,7 +6887,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -6381,7 +6901,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -6395,7 +6915,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -6451,7 +6971,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -6477,10 +6997,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -6490,10 +7010,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -6504,10 +7024,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -6518,10 +7038,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -6535,7 +7055,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -6546,10 +7066,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -6563,7 +7083,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -6577,7 +7097,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -6591,7 +7111,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -6602,10 +7122,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -6628,7 +7148,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
@@ -6765,7 +7285,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -6792,13 +7312,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6846,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6935,7 +7455,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -6949,7 +7469,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -6963,7 +7483,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -6991,7 +7511,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -7017,23 +7537,23 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.2307692307692</v>
+        <v>17.3076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -7044,10 +7564,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -7058,10 +7578,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -7075,7 +7595,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
@@ -7086,10 +7606,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -7103,7 +7623,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -7117,7 +7637,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -7128,10 +7648,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -7142,10 +7662,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -7168,7 +7688,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
@@ -7305,7 +7825,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -7322,7 +7842,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.2</v>
+        <v>16.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -7331,7 +7851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -7347,555 +7867,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f>AVERAGE(D2:D15)</f>
-        <v>14.8571428571429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="3">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3">
-        <v>16</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <f>AVERAGE(D21:D31)</f>
-        <v>14.9090909090909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <f>AVERAGE(D37:D41)</f>
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <f>AVERAGE(D2:D15,D21:D31,D37:D41)</f>
-        <v>14.5333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7972,15 +7950,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
@@ -7988,42 +7960,48 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <f>AVERAGE(C2:C7)</f>
-        <v>18</v>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8034,7 +8012,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8042,54 +8020,54 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8104,19 +8082,19 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3">
-        <f>AVERAGE(C13:C20)</f>
-        <v>15.5</v>
+        <f>AVERAGE(C12:C20)</f>
+        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -8137,10 +8115,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C29" s="1">
         <f>AVERAGE(C26:C26)</f>
@@ -8152,11 +8130,11 @@
         <v>37</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C32" s="7">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>16.5333333333333</v>
+        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8170,8 +8148,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8211,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8249,7 +8227,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
@@ -8270,20 +8248,20 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>18.5</v>
+        <v>18.6666666666667</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -8294,7 +8272,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -8305,7 +8283,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -8316,7 +8294,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>4</v>
@@ -8327,7 +8305,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
@@ -8338,7 +8316,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3">
         <v>6</v>
@@ -8359,7 +8337,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -8371,7 +8349,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -8382,7 +8360,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -8393,7 +8371,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -8404,7 +8382,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
@@ -8415,7 +8393,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1">
         <v>6</v>
@@ -8426,7 +8404,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
         <v>8</v>
@@ -8447,7 +8425,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -8462,11 +8440,11 @@
         <v>37</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C35" s="7">
         <f>AVERAGE(C2:C7,C13:C18,C24:C29)</f>
-        <v>16.8333333333333</v>
+        <v>16.8888888888889</v>
       </c>
     </row>
   </sheetData>
@@ -8537,7 +8515,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -8548,7 +8526,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -8559,7 +8537,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -8613,10 +8591,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(C2:C10)</f>
@@ -8679,7 +8657,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -8691,7 +8669,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -8702,7 +8680,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -8723,7 +8701,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -8738,7 +8716,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="303">
   <si>
     <t>名称</t>
   </si>
@@ -74,12 +74,12 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>全数否定</t>
   </si>
   <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -95,358 +95,361 @@
     <t>紫色</t>
   </si>
   <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
+    <t>学仆-猛禽型</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>学仆观测型</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>箭竹守卫</t>
+  </si>
+  <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>执剑道人</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
+  </si>
+  <si>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
   </si>
   <si>
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>学仆观测型</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>飓风术</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
+  </si>
+  <si>
+    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
   </si>
   <si>
     <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>执剑道人</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>学仆-猛禽型</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
-  </si>
-  <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
-  </si>
-  <si>
-    <t>明月曲</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
-  </si>
-  <si>
-    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
   </si>
   <si>
     <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
@@ -1947,7 +1950,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1986,16 +1989,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2009,12 +2012,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -2023,12 +2026,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -2037,12 +2040,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -2051,26 +2054,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -2098,102 +2101,102 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>14</v>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>18.4166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -2202,12 +2205,12 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -2216,26 +2219,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -2244,12 +2247,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -2258,12 +2261,12 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -2277,49 +2280,49 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -2328,21 +2331,21 @@
         <v>6</v>
       </c>
       <c r="D30" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2362,20 +2365,20 @@
         <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
-        <f>AVERAGE(D17:D31)</f>
-        <v>16</v>
+        <f>AVERAGE(D19:D31)</f>
+        <v>16.3076923076923</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -2386,38 +2389,38 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -2428,10 +2431,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -2457,21 +2460,21 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D11,D17:D31,D37:D41)</f>
-        <v>16.9666666666667</v>
+        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2592,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -2657,7 +2660,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
@@ -2691,7 +2694,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -2776,10 +2779,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2793,10 +2796,10 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2810,10 +2813,10 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2827,10 +2830,10 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -2878,7 +2881,7 @@
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -2946,7 +2949,7 @@
         <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -2963,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -2980,7 +2983,7 @@
         <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -2989,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2997,7 +3000,7 @@
         <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
@@ -3006,7 +3009,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3014,7 +3017,7 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>17</v>
@@ -3023,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3031,7 +3034,7 @@
         <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -3040,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3048,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -3057,7 +3060,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3074,7 +3077,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3082,7 +3085,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -3099,10 +3102,10 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3119,7 +3122,7 @@
         <v>119</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -3133,7 +3136,7 @@
         <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -3150,7 +3153,7 @@
         <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -3184,7 +3187,7 @@
         <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -3269,7 +3272,7 @@
         <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>17</v>
@@ -3286,7 +3289,7 @@
         <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>17</v>
@@ -3295,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3303,7 +3306,7 @@
         <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>17</v>
@@ -3312,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3323,21 +3326,21 @@
         <v>53</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -3346,15 +3349,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
@@ -3363,15 +3366,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -3380,15 +3383,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -3397,15 +3400,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -3414,15 +3417,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -3431,15 +3434,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -3448,15 +3451,15 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>17</v>
@@ -3465,15 +3468,15 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>17</v>
@@ -3482,15 +3485,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>17</v>
@@ -3499,15 +3502,15 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>17</v>
@@ -3516,15 +3519,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>17</v>
@@ -3533,15 +3536,15 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>17</v>
@@ -3550,32 +3553,32 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -3584,15 +3587,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -3601,15 +3604,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
@@ -3618,15 +3621,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -3635,15 +3638,15 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>17</v>
@@ -3652,15 +3655,15 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>17</v>
@@ -3669,15 +3672,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -3686,15 +3689,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -3703,15 +3706,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
@@ -3720,15 +3723,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
@@ -3737,15 +3740,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -3754,15 +3757,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -3771,15 +3774,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -3788,15 +3791,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>5</v>
@@ -3805,15 +3808,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -3822,15 +3825,15 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -3839,15 +3842,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -3856,15 +3859,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
@@ -3873,15 +3876,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -3890,15 +3893,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>17</v>
@@ -3907,15 +3910,15 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>17</v>
@@ -3924,15 +3927,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>17</v>
@@ -3941,15 +3944,15 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -3958,15 +3961,15 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -3975,15 +3978,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -3992,15 +3995,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
@@ -4009,15 +4012,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>17</v>
@@ -4026,15 +4029,15 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>17</v>
@@ -4043,15 +4046,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>17</v>
@@ -4060,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4094,30 +4097,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>70</v>
@@ -4133,12 +4136,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
@@ -4154,10 +4157,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4198,7 +4201,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>70</v>
@@ -4216,7 +4219,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>70</v>
@@ -4232,12 +4235,12 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>70</v>
@@ -4255,7 +4258,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>70</v>
@@ -4291,7 +4294,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>70</v>
@@ -4309,7 +4312,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>70</v>
@@ -4325,12 +4328,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>70</v>
@@ -4366,7 +4369,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>70</v>
@@ -4400,7 +4403,7 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4441,7 +4444,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>70</v>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>70</v>
@@ -4477,7 +4480,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>70</v>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>70</v>
@@ -4547,7 +4550,7 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4568,7 +4571,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4589,7 +4592,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4610,7 +4613,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4631,7 +4634,7 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4654,7 +4657,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>96</v>
@@ -4670,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>96</v>
@@ -4709,12 +4712,12 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>96</v>
@@ -4730,12 +4733,12 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>96</v>
@@ -4751,12 +4754,12 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>96</v>
@@ -4772,12 +4775,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>96</v>
@@ -4795,7 +4798,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -4829,12 +4832,12 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>96</v>
@@ -4850,12 +4853,12 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>96</v>
@@ -4871,12 +4874,12 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>96</v>
@@ -4892,15 +4895,15 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>96</v>
@@ -4916,12 +4919,12 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>96</v>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>96</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -4991,12 +4994,12 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>96</v>
@@ -5012,12 +5015,12 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
@@ -5035,7 +5038,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>96</v>
@@ -5069,12 +5072,12 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>96</v>
@@ -5092,7 +5095,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>96</v>
@@ -5133,16 +5136,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5449,15 +5452,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1">
         <v>0.0067</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2">
         <v>0.2667</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B4" s="3">
         <v>0.62</v>
@@ -5481,7 +5484,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B5" s="1">
         <v>2.345</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B6" s="2">
         <v>0.9529</v>
@@ -5497,7 +5500,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B7" s="3">
         <v>1.76</v>
@@ -5505,7 +5508,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1">
         <v>4.41</v>
@@ -5513,7 +5516,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4">
         <v>0.13</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1">
         <v>0.0565</v>
@@ -5529,7 +5532,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4">
         <v>0.022</v>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B12" s="1">
         <v>0.0049</v>
@@ -5545,7 +5548,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B13" s="3">
         <v>0.0011</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B14" s="5">
         <v>0.076</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B15" s="1">
         <v>0.66</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B16" s="1">
         <v>0.6</v>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B17" s="1">
         <v>0.0081</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B18" s="1">
         <v>0.142</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B19" s="4">
         <v>0.176</v>
@@ -5601,7 +5604,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B20" s="2">
         <v>0.27</v>
@@ -5609,7 +5612,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B21" s="3">
         <v>0.28</v>
@@ -5617,7 +5620,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B22" s="2">
         <v>0.0036</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B23" s="1">
         <v>0.0038</v>
@@ -5633,7 +5636,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B24">
         <v>0.27</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B25" s="1">
         <v>4.04</v>
@@ -5649,7 +5652,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B26" s="1">
         <v>121.11</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B27" s="3">
         <v>64.61</v>
@@ -5665,7 +5668,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B28" s="2">
         <v>30.28</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29">
         <v>11.31</v>
@@ -5690,8 +5693,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5730,21 +5733,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -5753,12 +5756,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -5767,12 +5770,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -5781,21 +5784,21 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5814,7 +5817,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5828,23 +5831,31 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
@@ -5853,35 +5864,27 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <f>AVERAGE(D2:D10)</f>
-        <v>19.3333333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>14</v>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>18.8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -5895,35 +5898,35 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -5932,40 +5935,40 @@
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -5974,12 +5977,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -5988,18 +5991,18 @@
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -6007,35 +6010,35 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
@@ -6044,22 +6047,21 @@
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -6080,20 +6082,20 @@
         <v>14</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <f>AVERAGE(D16:D29)</f>
-        <v>16.2857142857143</v>
+        <f>AVERAGE(D17:D29)</f>
+        <v>16.3076923076923</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -6104,30 +6106,30 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6135,7 +6137,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
@@ -6146,10 +6148,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -6160,10 +6162,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -6177,7 +6179,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -6203,22 +6205,22 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.5714285714286</v>
+        <v>15.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
+        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
         <v>17.0333333333333</v>
       </c>
     </row>
@@ -6234,8 +6236,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6260,16 +6262,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6283,12 +6285,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -6297,12 +6299,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -6311,12 +6313,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -6339,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6353,26 +6355,26 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -6386,7 +6388,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -6400,7 +6402,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -6414,30 +6416,30 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6448,82 +6450,82 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f>AVERAGE(D2:D15)</f>
-        <v>16.5714285714286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>17</v>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <f>AVERAGE(D2:D17)</f>
+        <v>16.5625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -6532,40 +6534,40 @@
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -6574,40 +6576,40 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -6616,50 +6618,49 @@
         <v>4</v>
       </c>
       <c r="D30" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="3">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>14</v>
-      </c>
-      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -6680,12 +6681,12 @@
         <v>14</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <f>AVERAGE(D21:D33)</f>
-        <v>15</v>
+        <f>AVERAGE(D23:D33)</f>
+        <v>15.3636363636364</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6693,7 +6694,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -6707,7 +6708,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -6718,10 +6719,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -6747,7 +6748,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -6757,13 +6758,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D15,D21:D33,D39:D41)</f>
-        <v>15.7</v>
+        <f>AVERAGE(D2:D17,D23:D33,D39:D41)</f>
+        <v>15.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6777,8 +6778,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6823,10 +6824,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6840,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6854,26 +6855,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -6887,7 +6888,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -6896,12 +6897,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -6910,12 +6911,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -6924,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6938,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6949,15 +6950,15 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -6966,28 +6967,36 @@
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
@@ -6996,69 +7005,61 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <f>AVERAGE(D2:D14)</f>
-        <v>16.8461538461538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>14</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>16.9285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -7066,7 +7067,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -7080,7 +7081,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -7089,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7151,20 +7152,20 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D20:D28)</f>
-        <v>15.2222222222222</v>
+        <f>AVERAGE(D21:D28)</f>
+        <v>15.625</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -7175,24 +7176,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -7203,16 +7204,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7220,7 +7221,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -7234,7 +7235,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -7245,10 +7246,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7262,7 +7263,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -7288,21 +7289,21 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.125</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>15.9</v>
+        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
+        <v>16.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7317,8 +7318,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7366,18 +7367,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>18</v>
@@ -7385,7 +7386,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -7394,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7408,7 +7409,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7422,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7441,7 +7442,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -7455,7 +7456,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -7464,12 +7465,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -7478,12 +7479,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -7492,12 +7493,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -7511,23 +7512,31 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
@@ -7536,69 +7545,61 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <f>AVERAGE(D2:D14)</f>
-        <v>17.3076923076923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>14</v>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <f>AVERAGE(D2:D15)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -7606,7 +7607,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -7620,7 +7621,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -7629,7 +7630,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7691,20 +7692,20 @@
         <v>14</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D20:D28)</f>
-        <v>15.6666666666667</v>
+        <f>AVERAGE(D21:D28)</f>
+        <v>16.125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -7715,24 +7716,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -7743,16 +7744,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7760,7 +7761,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -7774,7 +7775,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -7785,10 +7786,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7802,7 +7803,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -7828,21 +7829,21 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.125</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.2333333333333</v>
+        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
+        <v>16.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7873,7 +7874,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G20" sqref="A19 G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7940,19 +7941,25 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
@@ -7960,114 +7967,108 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>14</v>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C7)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8085,11 +8086,11 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
-        <f>AVERAGE(C12:C20)</f>
-        <v>15.6666666666667</v>
+        <f>AVERAGE(C13:C20)</f>
+        <v>15.875</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8127,14 +8128,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="7">
-        <f>AVERAGE(C2:C6,C12:C20,C26:C26)</f>
-        <v>16.6666666666667</v>
+        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -8149,7 +8150,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8189,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8216,7 +8217,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -8255,13 +8256,13 @@
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>18.6666666666667</v>
+        <v>18.8333333333333</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -8272,7 +8273,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
@@ -8283,7 +8284,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -8340,7 +8341,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C13:C18)</f>
@@ -8366,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8377,7 +8378,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8428,23 +8429,23 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <f>AVERAGE(C24:C29)</f>
-        <v>15.5</v>
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="7">
         <f>AVERAGE(C2:C7,C13:C18,C24:C29)</f>
-        <v>16.8888888888889</v>
+        <v>17.0555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8460,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8485,10 +8486,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8499,7 +8500,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8510,23 +8511,23 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -8543,7 +8544,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8554,7 +8555,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8562,27 +8563,33 @@
         <v>48</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
@@ -8590,26 +8597,20 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <f>AVERAGE(C2:C10)</f>
-        <v>15.4444444444444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>16</v>
+      <c r="C14" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>15.7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8620,7 +8621,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8660,11 +8661,11 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3">
-        <f>AVERAGE(C16:C19)</f>
-        <v>13.5</v>
+        <f>AVERAGE(C17:C19)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8704,7 +8705,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <f>AVERAGE(C25:C26)</f>
@@ -8713,14 +8714,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="7">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>14.7333333333333</v>
+        <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
+        <v>15.1333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -12,14 +12,13 @@
     <sheet name="洛" sheetId="11" r:id="rId3"/>
     <sheet name="梅" sheetId="3" r:id="rId4"/>
     <sheet name="白处尊" sheetId="4" r:id="rId5"/>
-    <sheet name="格纳罗尔" sheetId="15" r:id="rId6"/>
-    <sheet name="隐秘" sheetId="6" r:id="rId7"/>
-    <sheet name="帝国" sheetId="5" r:id="rId8"/>
-    <sheet name="禅意" sheetId="7" r:id="rId9"/>
-    <sheet name="洞察表" sheetId="14" r:id="rId10"/>
-    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId11"/>
-    <sheet name="卡等需求" sheetId="17" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId13"/>
+    <sheet name="隐秘" sheetId="6" r:id="rId6"/>
+    <sheet name="帝国" sheetId="5" r:id="rId7"/>
+    <sheet name="禅意" sheetId="7" r:id="rId8"/>
+    <sheet name="洞察表" sheetId="14" r:id="rId9"/>
+    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId10"/>
+    <sheet name="卡等需求" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1949,8 +1948,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1998,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2026,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2163,7 +2162,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>18.4166666666667</v>
+        <v>18.5833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2474,7 +2473,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>17.1</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2485,1594 +2484,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E104"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="158.758333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>170</v>
-      </c>
-      <c r="B77" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>183</v>
-      </c>
-      <c r="B81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>183</v>
-      </c>
-      <c r="B88" t="s">
-        <v>200</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" t="s">
-        <v>208</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" t="s">
-        <v>217</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>216</v>
-      </c>
-      <c r="B99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>216</v>
-      </c>
-      <c r="B100" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>216</v>
-      </c>
-      <c r="B101" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>216</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>216</v>
-      </c>
-      <c r="B103" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104">
-        <v>6</v>
-      </c>
-      <c r="E104" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G56"/>
@@ -5117,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
@@ -5434,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B29"/>
@@ -5693,8 +4104,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5742,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5761,7 +4172,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -5770,12 +4181,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -5784,12 +4195,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -5798,26 +4209,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5831,7 +4242,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5840,28 +4251,36 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
@@ -5870,35 +4289,27 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>14</v>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.8181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
@@ -5912,21 +4323,21 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -5935,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5949,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6086,8 +4497,8 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
-        <f>AVERAGE(D17:D29)</f>
-        <v>16.3076923076923</v>
+        <f>AVERAGE(D18:D29)</f>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6220,8 +4631,8 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D11,D17:D29,D35:D41)</f>
-        <v>17.0333333333333</v>
+        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
+        <v>17.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6236,8 +4647,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6299,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6506,7 +4917,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2">
         <f>AVERAGE(D2:D17)</f>
-        <v>16.5625</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6764,7 +5175,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f>AVERAGE(D2:D17,D23:D33,D39:D41)</f>
-        <v>15.9333333333333</v>
+        <v>15.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7318,8 +5729,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7367,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7560,7 +5971,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D15)</f>
-        <v>17.5</v>
+        <v>17.5714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7843,7 +6254,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.5666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -7855,26 +6266,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A19 G20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7914,7 +6309,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7980,7 +6375,7 @@
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>18</v>
+        <v>18.1666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8135,7 +6530,7 @@
       </c>
       <c r="C32" s="7">
         <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>16.7333333333333</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
@@ -8144,13 +6539,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8190,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8256,7 +6651,7 @@
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>18.8333333333333</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -8445,7 +6840,7 @@
       </c>
       <c r="C35" s="7">
         <f>AVERAGE(C2:C7,C13:C18,C24:C29)</f>
-        <v>17.0555555555556</v>
+        <v>17.1111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -8454,7 +6849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
@@ -8728,4 +7123,1592 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="158.758333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>216</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -1948,8 +1948,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2344,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2369,7 +2369,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3">
         <f>AVERAGE(D19:D31)</f>
-        <v>16.3076923076923</v>
+        <v>16.3846153846154</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2439,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2464,7 +2464,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D37:D41)</f>
-        <v>16</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>17.1666666666667</v>
+        <v>17.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4105,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4472,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3">
         <f>AVERAGE(D18:D29)</f>
-        <v>16.6666666666667</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4582,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4621,7 +4621,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.8571428571429</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4632,7 +4632,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.2666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5189,8 +5189,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5666,7 +5666,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5705,7 +5705,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.1666666666667</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -5729,8 +5729,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6083,7 +6083,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6108,7 +6108,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3">
         <f>AVERAGE(D21:D28)</f>
-        <v>16.125</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6206,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6245,7 +6245,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.6</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6545,7 +6545,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6718,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6740,7 +6740,7 @@
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C13:C18)</f>
-        <v>16.5</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6795,7 +6795,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="C32" s="1">
         <f>AVERAGE(C24:C29)</f>
-        <v>15.8333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="C35" s="7">
         <f>AVERAGE(C2:C7,C13:C18,C24:C29)</f>
-        <v>17.1111111111111</v>
+        <v>17.2222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -61,747 +61,750 @@
     <t>学仆-观测型</t>
   </si>
   <si>
+    <t>沉重否定</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>全数否定</t>
+  </si>
+  <si>
+    <t>虚化术</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>隐形术</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>流星-7号</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>逍遥琴师</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>执剑道人</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
     <t>方尖魔碑</t>
   </si>
   <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
-    <t>沉重否定</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>全数否定</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
-    <t>隐形术</t>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
   </si>
   <si>
     <t>学仆-猛禽型</t>
   </si>
   <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>学仆观测型</t>
-  </si>
-  <si>
-    <t>四芒军旗</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>箭竹守卫</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>飓风术</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>执剑道人</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
+  </si>
+  <si>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
+  </si>
+  <si>
+    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
+  </si>
+  <si>
+    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
+  </si>
+  <si>
+    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
+  </si>
+  <si>
+    <t>摇钱尊者</t>
+  </si>
+  <si>
+    <t>(20/125)：【洞察1】、【磐龙】、回合结束:若本回合受到过伤害，抽一张牌。</t>
+  </si>
+  <si>
+    <t>(16/26)：【洞察2】、命中:【洞察2】、洞察时:全体友军+2/+5，全体敌军-2/-2。（皮肤：登场时：本回合获得【穿透】。）</t>
+  </si>
+  <si>
+    <t>海港</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
+  </si>
+  <si>
+    <t>黑夜射手</t>
+  </si>
+  <si>
+    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
+  </si>
+  <si>
+    <t>亡命之徒</t>
+  </si>
+  <si>
+    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
+  </si>
+  <si>
+    <t>传记学者</t>
+  </si>
+  <si>
+    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
+  </si>
+  <si>
+    <t>走私狂徒</t>
+  </si>
+  <si>
+    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
+  </si>
+  <si>
+    <t>异域驯兽使</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>无情夺命客</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
+  </si>
+  <si>
+    <t>红海领航员</t>
+  </si>
+  <si>
+    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
+  </si>
+  <si>
+    <t>炼狱</t>
+  </si>
+  <si>
+    <t>地狱刀吏</t>
+  </si>
+  <si>
+    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
+  </si>
+  <si>
+    <t>嗜血妖蛾</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
+  </si>
+  <si>
+    <t>猩红勇士</t>
+  </si>
+  <si>
+    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>(22/45)：【洞察1】、【二连击】。</t>
+  </si>
+  <si>
+    <t>狱铠战魂</t>
+  </si>
+  <si>
+    <t>(24/10)：【洞察1】、【护甲30】。</t>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+  </si>
+  <si>
+    <t>(24/64)：【洞察2】、【三连击】。</t>
+  </si>
+  <si>
+    <t>蛮石</t>
+  </si>
+  <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
+  </si>
+  <si>
+    <t>痴蛮野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
+  </si>
+  <si>
+    <t>高原卫士</t>
+  </si>
+  <si>
+    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
+  </si>
+  <si>
+    <t>盘旋秃鹰</t>
+  </si>
+  <si>
+    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
+  </si>
+  <si>
+    <t>寻路斥候</t>
+  </si>
+  <si>
+    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
+  </si>
+  <si>
+    <t>厚皮河马</t>
+  </si>
+  <si>
+    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
+  </si>
+  <si>
+    <t>机敏雀鹰</t>
+  </si>
+  <si>
+    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
+  </si>
+  <si>
+    <t>原野狂战士</t>
+  </si>
+  <si>
+    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
+  </si>
+  <si>
+    <t>生命源力</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
+  </si>
+  <si>
+    <t>雪原野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
+  </si>
+  <si>
+    <t>鼓舞图腾</t>
+  </si>
+  <si>
+    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
+  </si>
+  <si>
+    <t>迷茫巨人</t>
+  </si>
+  <si>
+    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
+  </si>
+  <si>
+    <t>象牙少女</t>
+  </si>
+  <si>
+    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
+  </si>
+  <si>
+    <t>冬神</t>
+  </si>
+  <si>
+    <t>寒铁军士</t>
+  </si>
+  <si>
+    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
+  </si>
+  <si>
+    <t>寒风草人</t>
+  </si>
+  <si>
+    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
+  </si>
+  <si>
+    <t>严冬苦行僧</t>
+  </si>
+  <si>
+    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
+  </si>
+  <si>
+    <t>神庙祭师</t>
+  </si>
+  <si>
+    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
+  </si>
+  <si>
+    <t>冬夜使者</t>
+  </si>
+  <si>
+    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
+  </si>
+  <si>
+    <t>极夜阴魂</t>
+  </si>
+  <si>
+    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
+  </si>
+  <si>
+    <t>冰河世纪</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>目前等级</t>
+  </si>
+  <si>
+    <t>目前张数</t>
+  </si>
+  <si>
+    <t>距离20级还差多少张</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>所需时间</t>
+  </si>
+  <si>
+    <t>圣殿斥候1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>圣殿斥候2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>需要21.5周</t>
+  </si>
+  <si>
+    <t>圣殿弩手1</t>
+  </si>
+  <si>
+    <t>圣殿弩手2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>光明惩戒1</t>
+  </si>
+  <si>
+    <t>光明惩戒2</t>
+  </si>
+  <si>
+    <t>圣甲先锋</t>
+  </si>
+  <si>
+    <t>圣殿御卫1</t>
+  </si>
+  <si>
+    <t>圣殿御卫2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
   </si>
   <si>
     <t>圣枪·卡罗琳</t>
   </si>
   <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
-  </si>
-  <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
-  </si>
-  <si>
-    <t>明月曲</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
-  </si>
-  <si>
-    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
-  </si>
-  <si>
-    <t>摇钱尊者</t>
-  </si>
-  <si>
-    <t>(20/125)：【洞察1】、【磐龙】、回合结束:若本回合受到过伤害，抽一张牌。</t>
-  </si>
-  <si>
-    <t>(16/26)：【洞察2】、命中:【洞察2】、洞察时:全体友军+2/+5，全体敌军-2/-2。（皮肤：登场时：本回合获得【穿透】。）</t>
-  </si>
-  <si>
-    <t>海港</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
-  </si>
-  <si>
-    <t>黑夜射手</t>
-  </si>
-  <si>
-    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
-  </si>
-  <si>
-    <t>亡命之徒</t>
-  </si>
-  <si>
-    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
-  </si>
-  <si>
-    <t>传记学者</t>
-  </si>
-  <si>
-    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
-  </si>
-  <si>
-    <t>走私狂徒</t>
-  </si>
-  <si>
-    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
-  </si>
-  <si>
-    <t>异域驯兽使</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
-  </si>
-  <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
-    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>无情夺命客</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
-  </si>
-  <si>
-    <t>红海领航员</t>
-  </si>
-  <si>
-    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
-    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
-  </si>
-  <si>
-    <t>炼狱</t>
-  </si>
-  <si>
-    <t>地狱刀吏</t>
-  </si>
-  <si>
-    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
-  </si>
-  <si>
-    <t>嗜血妖蛾</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
-    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>(22/45)：【洞察1】、【二连击】。</t>
-  </si>
-  <si>
-    <t>狱铠战魂</t>
-  </si>
-  <si>
-    <t>(24/10)：【洞察1】、【护甲30】。</t>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-  </si>
-  <si>
-    <t>(24/64)：【洞察2】、【三连击】。</t>
-  </si>
-  <si>
-    <t>蛮石</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
-  </si>
-  <si>
-    <t>痴蛮野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
-  </si>
-  <si>
-    <t>高原卫士</t>
-  </si>
-  <si>
-    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
-  </si>
-  <si>
-    <t>盘旋秃鹰</t>
-  </si>
-  <si>
-    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
-  </si>
-  <si>
-    <t>寻路斥候</t>
-  </si>
-  <si>
-    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
-  </si>
-  <si>
-    <t>厚皮河马</t>
-  </si>
-  <si>
-    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
-  </si>
-  <si>
-    <t>机敏雀鹰</t>
-  </si>
-  <si>
-    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
-  </si>
-  <si>
-    <t>原野狂战士</t>
-  </si>
-  <si>
-    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
-  </si>
-  <si>
-    <t>生命源力</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
-  </si>
-  <si>
-    <t>雪原野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
-  </si>
-  <si>
-    <t>鼓舞图腾</t>
-  </si>
-  <si>
-    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
-  </si>
-  <si>
-    <t>迷茫巨人</t>
-  </si>
-  <si>
-    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
-  </si>
-  <si>
-    <t>诱敌草人</t>
-  </si>
-  <si>
-    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
-  </si>
-  <si>
-    <t>象牙少女</t>
-  </si>
-  <si>
-    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
-  </si>
-  <si>
-    <t>冬神</t>
-  </si>
-  <si>
-    <t>寒铁军士</t>
-  </si>
-  <si>
-    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
-  </si>
-  <si>
-    <t>寒风草人</t>
-  </si>
-  <si>
-    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
-  </si>
-  <si>
-    <t>严冬苦行僧</t>
-  </si>
-  <si>
-    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
-  </si>
-  <si>
-    <t>神庙祭师</t>
-  </si>
-  <si>
-    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
-  </si>
-  <si>
-    <t>冬夜使者</t>
-  </si>
-  <si>
-    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
-  </si>
-  <si>
-    <t>极夜阴魂</t>
-  </si>
-  <si>
-    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
-  </si>
-  <si>
-    <t>冰河世纪</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
-  </si>
-  <si>
-    <t>卡牌名称</t>
-  </si>
-  <si>
-    <t>目前等级</t>
-  </si>
-  <si>
-    <t>目前张数</t>
-  </si>
-  <si>
-    <t>距离20级还差多少张</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>所需时间</t>
-  </si>
-  <si>
-    <t>圣殿斥候1</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>圣殿斥候2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>需要21.5周</t>
-  </si>
-  <si>
-    <t>圣殿弩手1</t>
-  </si>
-  <si>
-    <t>圣殿弩手2</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>光明惩戒1</t>
-  </si>
-  <si>
-    <t>光明惩戒2</t>
-  </si>
-  <si>
-    <t>圣甲先锋</t>
-  </si>
-  <si>
-    <t>圣殿御卫1</t>
-  </si>
-  <si>
-    <t>圣殿御卫2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -836,9 +839,6 @@
   </si>
   <si>
     <t>No.8雷鸣·泰拉德</t>
-  </si>
-  <si>
-    <t>鬼童-7号</t>
   </si>
   <si>
     <t>No.6迪宁</t>
@@ -1948,8 +1948,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2050,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2064,10 +2064,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2106,133 +2106,133 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>16</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D11)</f>
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <f>AVERAGE(D2:D13)</f>
-        <v>18.5833333333333</v>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2240,38 +2240,38 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>16</v>
@@ -2279,73 +2279,65 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
         <v>17</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
-        <v>17</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
@@ -2354,41 +2346,49 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3">
-        <f>AVERAGE(D19:D31)</f>
-        <v>16.3846153846154</v>
+      <c r="D33" s="3">
+        <f>AVERAGE(D17:D30)</f>
+        <v>16.2142857142857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>30</v>
@@ -2397,12 +2397,12 @@
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -2456,24 +2456,24 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D37:D41)</f>
-        <v>16.2</v>
+        <f>AVERAGE(D36:D41)</f>
+        <v>16.1666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
-        <v>17.2333333333333</v>
+        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2511,7 @@
         <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>232</v>
@@ -2534,7 +2534,7 @@
         <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
@@ -2555,7 +2555,7 @@
         <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>17</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2">
         <v>18</v>
@@ -2615,7 +2615,7 @@
         <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
@@ -2633,7 +2633,7 @@
         <v>243</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
@@ -2672,7 +2672,7 @@
         <v>245</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <v>16</v>
@@ -2690,7 +2690,7 @@
         <v>246</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -2708,7 +2708,7 @@
         <v>247</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -2726,7 +2726,7 @@
         <v>248</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3">
         <v>18</v>
@@ -2747,7 +2747,7 @@
         <v>249</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3">
         <v>17</v>
@@ -2783,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3">
         <v>15</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
         <v>14</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -2837,10 +2837,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -2876,7 +2876,7 @@
         <v>251</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -2894,7 +2894,7 @@
         <v>252</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3">
         <v>7</v>
@@ -2930,7 +2930,7 @@
         <v>253</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1">
         <v>13</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
         <v>16</v>
@@ -2982,15 +2982,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>13</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>15</v>
@@ -3029,10 +3029,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1">
         <v>14</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2">
         <v>16</v>
@@ -3107,10 +3107,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2">
         <v>13</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2">
         <v>13</v>
@@ -3170,10 +3170,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2">
         <v>18</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3">
         <v>14</v>
@@ -3251,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -3264,7 +3264,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3272,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3">
         <v>14</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3">
         <v>17</v>
@@ -3309,15 +3309,15 @@
         <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="3">
         <v>15</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C49" s="3">
         <v>13</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C50" s="3">
         <v>17</v>
@@ -3405,15 +3405,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C54" s="1">
         <v>12</v>
@@ -3491,7 +3491,7 @@
         <v>267</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
@@ -3509,7 +3509,7 @@
         <v>268</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -4104,8 +4104,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4153,12 +4153,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -4195,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4206,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4220,10 +4220,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4242,139 +4242,139 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>19</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>19.1111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>18.8181818181818</v>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4382,38 +4382,38 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
         <v>16</v>
@@ -4421,60 +4421,53 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
         <v>17</v>
       </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -4483,41 +4476,49 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <f>AVERAGE(D18:D29)</f>
-        <v>16.75</v>
+      <c r="D31" s="3">
+        <f>AVERAGE(D16:D28)</f>
+        <v>16.3076923076923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>30</v>
@@ -4526,12 +4527,12 @@
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>30</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>30</v>
@@ -4559,7 +4560,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -4573,7 +4574,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -4613,26 +4614,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D35:D41)</f>
+        <f>AVERAGE(D34:D41)</f>
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D12,D18:D29,D35:D41)</f>
-        <v>17.3333333333333</v>
+        <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
+        <v>17.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -4647,8 +4648,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4673,16 +4674,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4696,12 +4697,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -4710,12 +4711,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -4724,12 +4725,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -4738,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4752,7 +4753,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4766,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4777,15 +4778,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -4799,7 +4800,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -4813,21 +4814,21 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -4836,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4847,233 +4848,226 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>13</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <f>AVERAGE(D2:D14)</f>
+        <v>15.9230769230769</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>15</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <f>AVERAGE(D2:D17)</f>
-        <v>16.625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>17</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
         <v>17</v>
       </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
@@ -5082,22 +5076,30 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
-        <f>AVERAGE(D23:D33)</f>
-        <v>15.3636363636364</v>
+      <c r="D35" s="3">
+        <f>AVERAGE(D20:D32)</f>
+        <v>15.4615384615385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5130,7 +5132,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -5156,26 +5158,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D39:D41)</f>
-        <v>14.6666666666667</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D17,D23:D33,D39:D41)</f>
-        <v>15.9666666666667</v>
+        <f>AVERAGE(D2:D14,D20:D32,D38:D41)</f>
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>
@@ -5190,7 +5192,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5229,21 +5231,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -5252,12 +5254,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -5266,12 +5268,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -5285,7 +5287,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -5299,7 +5301,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -5313,7 +5315,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5341,7 +5343,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -5350,138 +5352,138 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f>AVERAGE(D2:D15)</f>
-        <v>16.9285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -5492,10 +5494,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -5506,10 +5508,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -5520,24 +5522,24 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -5560,15 +5562,15 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D21:D28)</f>
-        <v>15.625</v>
+        <f>AVERAGE(D19:D28)</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5601,7 +5603,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>30</v>
@@ -5643,7 +5645,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -5657,7 +5659,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -5671,7 +5673,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -5697,10 +5699,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -5710,11 +5712,11 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.2</v>
+        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
+        <v>15.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5729,8 +5731,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5778,26 +5780,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -5806,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5820,7 +5822,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5834,12 +5836,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -5853,7 +5855,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5867,7 +5869,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5881,7 +5883,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -5901,127 +5903,127 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f>AVERAGE(D2:D15)</f>
-        <v>17.5714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -6032,10 +6034,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -6049,21 +6051,21 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -6074,16 +6076,16 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6100,15 +6102,15 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D21:D28)</f>
-        <v>16.25</v>
+        <f>AVERAGE(D19:D28)</f>
+        <v>15.2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6141,7 +6143,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>30</v>
@@ -6183,7 +6185,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>30</v>
@@ -6197,7 +6199,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>30</v>
@@ -6211,7 +6213,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -6237,10 +6239,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
@@ -6250,11 +6252,11 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>16.6666666666667</v>
+        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6269,7 +6271,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6320,41 +6322,35 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>16</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
@@ -6362,64 +6358,70 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <f>AVERAGE(C2:C7)</f>
-        <v>18.1666666666667</v>
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6430,41 +6432,35 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>15</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
@@ -6472,25 +6468,31 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3">
-        <f>AVERAGE(C13:C20)</f>
-        <v>15.875</v>
+      <c r="C22" s="3">
+        <f>AVERAGE(C12:C19)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -6511,26 +6513,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C29" s="1">
-        <f>AVERAGE(C26:C26)</f>
+        <f>AVERAGE(C25:C26)</f>
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="7">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C26)</f>
-        <v>16.8</v>
+        <f>AVERAGE(C2:C6,C12:C19,C25:C26)</f>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6542,10 +6544,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6585,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6593,15 +6595,15 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -6612,77 +6614,77 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C6)</f>
+        <v>19.4</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
-        <f>AVERAGE(C2:C7)</f>
-        <v>19</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>16</v>
@@ -6690,13 +6692,13 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6707,19 +6709,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>17</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3"/>
@@ -6727,87 +6723,87 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
-        <f>AVERAGE(C13:C18)</f>
-        <v>16.6666666666667</v>
+      <c r="C20" s="3">
+        <f>AVERAGE(C12:C17)</f>
+        <v>15.8333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>15</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
@@ -6815,32 +6811,27 @@
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1">
-        <f>AVERAGE(C24:C29)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="7">
-        <f>AVERAGE(C2:C7,C13:C18,C24:C29)</f>
-        <v>17.2222222222222</v>
+      <c r="C31" s="1">
+        <f>AVERAGE(C23:C28)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7">
+        <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
+        <v>16.9411764705882</v>
       </c>
     </row>
   </sheetData>
@@ -6852,10 +6843,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6878,40 +6869,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -6922,7 +6913,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -6933,7 +6924,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -6944,79 +6935,79 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C9)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE(C2:C11)</f>
-        <v>15.7</v>
+      <c r="C15" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7027,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7035,16 +7026,22 @@
         <v>52</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
@@ -7052,43 +7049,43 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3">
-        <f>AVERAGE(C17:C19)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>15</v>
+      <c r="C23" s="3">
+        <f>AVERAGE(C15:C20)</f>
+        <v>13.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
@@ -7096,27 +7093,32 @@
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1">
+        <f>AVERAGE(C26:C27)</f>
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1">
-        <f>AVERAGE(C25:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="7">
-        <f>AVERAGE(C2:C11,C17:C19,C25:C26)</f>
-        <v>15.1333333333333</v>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7">
+        <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
+        <v>14.3125</v>
       </c>
     </row>
   </sheetData>
@@ -7130,8 +7132,8 @@
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7145,7 +7147,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7157,12 +7159,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7174,15 +7176,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -7191,15 +7193,15 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -7208,15 +7210,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -7225,15 +7227,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -7242,15 +7244,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -7259,15 +7261,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -7276,15 +7278,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -7293,131 +7295,131 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7429,12 +7431,12 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -7446,15 +7448,15 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>30</v>
@@ -7463,15 +7465,15 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>30</v>
@@ -7480,15 +7482,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -7497,12 +7499,12 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -7514,15 +7516,15 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -7531,15 +7533,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -7548,15 +7550,15 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -7565,185 +7567,185 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>30</v>
@@ -7752,15 +7754,15 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>30</v>
@@ -7769,15 +7771,15 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
@@ -7786,15 +7788,15 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -7803,15 +7805,15 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>5</v>
@@ -7820,15 +7822,15 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>5</v>
@@ -7837,15 +7839,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -7854,15 +7856,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>5</v>
@@ -7871,69 +7873,69 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -7944,13 +7946,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -7961,7 +7963,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -8103,7 +8105,7 @@
         <v>156</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -8120,7 +8122,7 @@
         <v>158</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -8137,7 +8139,7 @@
         <v>160</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -8154,7 +8156,7 @@
         <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -8171,7 +8173,7 @@
         <v>164</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -8188,7 +8190,7 @@
         <v>166</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -8290,7 +8292,7 @@
         <v>179</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -8307,7 +8309,7 @@
         <v>181</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -8545,7 +8547,7 @@
         <v>210</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -8562,7 +8564,7 @@
         <v>212</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -8579,7 +8581,7 @@
         <v>214</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -8664,7 +8666,7 @@
         <v>225</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -8681,7 +8683,7 @@
         <v>227</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -8698,7 +8700,7 @@
         <v>229</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104">
         <v>6</v>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
+    <workbookView windowWidth="15000" windowHeight="11850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="301">
   <si>
     <t>名称</t>
   </si>
@@ -73,9 +73,6 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>虚化术</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -109,9 +106,15 @@
     <t>冲锋装备</t>
   </si>
   <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
     <t>夺取阵地</t>
   </si>
   <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
     <t>观星台大预言家</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>百花长枪·卡洛琳</t>
   </si>
   <si>
-    <t>流星-7号</t>
-  </si>
-  <si>
     <t>明日香·露娜</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>逍遥琴师</t>
   </si>
   <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
     <t>扫叶僧</t>
   </si>
   <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
@@ -211,634 +211,628 @@
     <t>蟠桃会</t>
   </si>
   <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
+  </si>
+  <si>
+    <t>学仆-猛禽型</t>
+  </si>
+  <si>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
+  </si>
+  <si>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
+  </si>
+  <si>
+    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
+  </si>
+  <si>
+    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
+  </si>
+  <si>
+    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
+  </si>
+  <si>
+    <t>摇钱尊者</t>
+  </si>
+  <si>
+    <t>(20/125)：【洞察1】、【磐龙】、回合结束:若本回合受到过伤害，抽一张牌。</t>
+  </si>
+  <si>
+    <t>(16/26)：【洞察2】、命中:【洞察2】、洞察时:全体友军+2/+5，全体敌军-2/-2。（皮肤：登场时：本回合获得【穿透】。）</t>
+  </si>
+  <si>
+    <t>海港</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
+  </si>
+  <si>
+    <t>黑夜射手</t>
+  </si>
+  <si>
+    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
+  </si>
+  <si>
+    <t>亡命之徒</t>
+  </si>
+  <si>
+    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
+  </si>
+  <si>
+    <t>传记学者</t>
+  </si>
+  <si>
+    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
+  </si>
+  <si>
+    <t>走私狂徒</t>
+  </si>
+  <si>
+    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
+  </si>
+  <si>
+    <t>异域驯兽使</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>无情夺命客</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
+  </si>
+  <si>
+    <t>红海领航员</t>
+  </si>
+  <si>
+    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
+  </si>
+  <si>
+    <t>炼狱</t>
+  </si>
+  <si>
+    <t>地狱刀吏</t>
+  </si>
+  <si>
+    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
+  </si>
+  <si>
+    <t>嗜血妖蛾</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
+  </si>
+  <si>
+    <t>猩红勇士</t>
+  </si>
+  <si>
+    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>(22/45)：【洞察1】、【二连击】。</t>
+  </si>
+  <si>
+    <t>狱铠战魂</t>
+  </si>
+  <si>
+    <t>(24/10)：【洞察1】、【护甲30】。</t>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+  </si>
+  <si>
+    <t>(24/64)：【洞察2】、【三连击】。</t>
+  </si>
+  <si>
+    <t>蛮石</t>
+  </si>
+  <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
+  </si>
+  <si>
+    <t>痴蛮野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
+  </si>
+  <si>
+    <t>高原卫士</t>
+  </si>
+  <si>
+    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
+  </si>
+  <si>
+    <t>盘旋秃鹰</t>
+  </si>
+  <si>
+    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
+  </si>
+  <si>
+    <t>寻路斥候</t>
+  </si>
+  <si>
+    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
+  </si>
+  <si>
+    <t>厚皮河马</t>
+  </si>
+  <si>
+    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
+  </si>
+  <si>
+    <t>机敏雀鹰</t>
+  </si>
+  <si>
+    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
+  </si>
+  <si>
+    <t>原野狂战士</t>
+  </si>
+  <si>
+    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
+  </si>
+  <si>
+    <t>生命源力</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
+  </si>
+  <si>
+    <t>雪原野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
+  </si>
+  <si>
+    <t>鼓舞图腾</t>
+  </si>
+  <si>
+    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
+  </si>
+  <si>
+    <t>迷茫巨人</t>
+  </si>
+  <si>
+    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
+  </si>
+  <si>
+    <t>象牙少女</t>
+  </si>
+  <si>
+    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
+  </si>
+  <si>
+    <t>冬神</t>
+  </si>
+  <si>
+    <t>寒铁军士</t>
+  </si>
+  <si>
+    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
+  </si>
+  <si>
+    <t>寒风草人</t>
+  </si>
+  <si>
+    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
+  </si>
+  <si>
+    <t>严冬苦行僧</t>
+  </si>
+  <si>
+    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
+  </si>
+  <si>
+    <t>神庙祭师</t>
+  </si>
+  <si>
+    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
+  </si>
+  <si>
+    <t>冬夜使者</t>
+  </si>
+  <si>
+    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
+  </si>
+  <si>
+    <t>极夜阴魂</t>
+  </si>
+  <si>
+    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
+  </si>
+  <si>
+    <t>冰河世纪</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>目前等级</t>
+  </si>
+  <si>
+    <t>目前张数</t>
+  </si>
+  <si>
+    <t>距离20级还差多少张</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>所需时间</t>
+  </si>
+  <si>
+    <t>圣殿斥候1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>圣殿斥候2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>需要21.5周</t>
+  </si>
+  <si>
+    <t>圣殿弩手1</t>
+  </si>
+  <si>
+    <t>圣殿弩手2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>光明惩戒1</t>
+  </si>
+  <si>
+    <t>光明惩戒2</t>
+  </si>
+  <si>
+    <t>圣甲先锋</t>
+  </si>
+  <si>
+    <t>圣殿御卫1</t>
+  </si>
+  <si>
+    <t>圣殿御卫2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>圣枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>学仆-观测型1</t>
+  </si>
+  <si>
+    <t>学仆-观测型2</t>
+  </si>
+  <si>
+    <t>沉默否定1</t>
+  </si>
+  <si>
+    <t>沉默否定2</t>
+  </si>
+  <si>
+    <t>邪月蝙蝠</t>
+  </si>
+  <si>
+    <t>猫妖</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型1</t>
+  </si>
+  <si>
+    <t>3周</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型2</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型3</t>
+  </si>
+  <si>
+    <t>No.8雷鸣·泰拉德</t>
+  </si>
+  <si>
     <t>鬼童-7号</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>学仆-猛禽型</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
-  </si>
-  <si>
-    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
-  </si>
-  <si>
-    <t>明月曲</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
-  </si>
-  <si>
-    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
-  </si>
-  <si>
-    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
-  </si>
-  <si>
-    <t>摇钱尊者</t>
-  </si>
-  <si>
-    <t>(20/125)：【洞察1】、【磐龙】、回合结束:若本回合受到过伤害，抽一张牌。</t>
-  </si>
-  <si>
-    <t>(16/26)：【洞察2】、命中:【洞察2】、洞察时:全体友军+2/+5，全体敌军-2/-2。（皮肤：登场时：本回合获得【穿透】。）</t>
-  </si>
-  <si>
-    <t>海港</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
-  </si>
-  <si>
-    <t>黑夜射手</t>
-  </si>
-  <si>
-    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
-  </si>
-  <si>
-    <t>亡命之徒</t>
-  </si>
-  <si>
-    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
-  </si>
-  <si>
-    <t>传记学者</t>
-  </si>
-  <si>
-    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
-  </si>
-  <si>
-    <t>走私狂徒</t>
-  </si>
-  <si>
-    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
-  </si>
-  <si>
-    <t>异域驯兽使</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
-  </si>
-  <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
-    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>无情夺命客</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
-  </si>
-  <si>
-    <t>红海领航员</t>
-  </si>
-  <si>
-    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
-    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
-  </si>
-  <si>
-    <t>炼狱</t>
-  </si>
-  <si>
-    <t>地狱刀吏</t>
-  </si>
-  <si>
-    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
-  </si>
-  <si>
-    <t>嗜血妖蛾</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
-    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>(22/45)：【洞察1】、【二连击】。</t>
-  </si>
-  <si>
-    <t>狱铠战魂</t>
-  </si>
-  <si>
-    <t>(24/10)：【洞察1】、【护甲30】。</t>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-  </si>
-  <si>
-    <t>(24/64)：【洞察2】、【三连击】。</t>
-  </si>
-  <si>
-    <t>蛮石</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
-  </si>
-  <si>
-    <t>痴蛮野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
-  </si>
-  <si>
-    <t>高原卫士</t>
-  </si>
-  <si>
-    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
-  </si>
-  <si>
-    <t>盘旋秃鹰</t>
-  </si>
-  <si>
-    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
-  </si>
-  <si>
-    <t>寻路斥候</t>
-  </si>
-  <si>
-    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
-  </si>
-  <si>
-    <t>厚皮河马</t>
-  </si>
-  <si>
-    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
-  </si>
-  <si>
-    <t>机敏雀鹰</t>
-  </si>
-  <si>
-    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
-  </si>
-  <si>
-    <t>原野狂战士</t>
-  </si>
-  <si>
-    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
-  </si>
-  <si>
-    <t>生命源力</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
-  </si>
-  <si>
-    <t>雪原野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
-  </si>
-  <si>
-    <t>鼓舞图腾</t>
-  </si>
-  <si>
-    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
-  </si>
-  <si>
-    <t>迷茫巨人</t>
-  </si>
-  <si>
-    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
-  </si>
-  <si>
-    <t>诱敌草人</t>
-  </si>
-  <si>
-    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
-  </si>
-  <si>
-    <t>象牙少女</t>
-  </si>
-  <si>
-    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
-  </si>
-  <si>
-    <t>冬神</t>
-  </si>
-  <si>
-    <t>寒铁军士</t>
-  </si>
-  <si>
-    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
-  </si>
-  <si>
-    <t>寒风草人</t>
-  </si>
-  <si>
-    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
-  </si>
-  <si>
-    <t>严冬苦行僧</t>
-  </si>
-  <si>
-    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
-  </si>
-  <si>
-    <t>神庙祭师</t>
-  </si>
-  <si>
-    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
-  </si>
-  <si>
-    <t>冬夜使者</t>
-  </si>
-  <si>
-    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
-  </si>
-  <si>
-    <t>极夜阴魂</t>
-  </si>
-  <si>
-    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
-  </si>
-  <si>
-    <t>冰河世纪</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
-  </si>
-  <si>
-    <t>卡牌名称</t>
-  </si>
-  <si>
-    <t>目前等级</t>
-  </si>
-  <si>
-    <t>目前张数</t>
-  </si>
-  <si>
-    <t>距离20级还差多少张</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>所需时间</t>
-  </si>
-  <si>
-    <t>圣殿斥候1</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>圣殿斥候2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>需要21.5周</t>
-  </si>
-  <si>
-    <t>圣殿弩手1</t>
-  </si>
-  <si>
-    <t>圣殿弩手2</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>光明惩戒1</t>
-  </si>
-  <si>
-    <t>光明惩戒2</t>
-  </si>
-  <si>
-    <t>圣甲先锋</t>
-  </si>
-  <si>
-    <t>圣殿御卫1</t>
-  </si>
-  <si>
-    <t>圣殿御卫2</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>圣枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>学仆-观测型1</t>
-  </si>
-  <si>
-    <t>学仆-观测型2</t>
-  </si>
-  <si>
-    <t>沉默否定1</t>
-  </si>
-  <si>
-    <t>沉默否定2</t>
-  </si>
-  <si>
-    <t>邪月蝙蝠</t>
-  </si>
-  <si>
-    <t>猫妖</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型1</t>
-  </si>
-  <si>
-    <t>3周</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型2</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型3</t>
-  </si>
-  <si>
-    <t>No.8雷鸣·泰拉德</t>
   </si>
   <si>
     <t>No.6迪宁</t>
@@ -1948,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2025,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2092,25 +2086,17 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
@@ -2119,30 +2105,38 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="2">
+        <f>AVERAGE(D2:D10)</f>
+        <v>19.2222222222222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <f>AVERAGE(D2:D11)</f>
-        <v>18.4</v>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -2156,13 +2150,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2170,13 +2164,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2184,13 +2178,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2198,41 +2192,41 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2240,13 +2234,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
         <v>16</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2254,13 +2248,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2268,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -2282,10 +2276,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>15</v>
@@ -2296,13 +2290,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2310,13 +2304,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2324,20 +2318,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3">
         <v>7</v>
       </c>
-      <c r="D30" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
@@ -2346,44 +2348,36 @@
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <f>AVERAGE(D17:D30)</f>
-        <v>16.2142857142857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>16</v>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3">
+        <f>AVERAGE(D16:D31)</f>
+        <v>16.3125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2391,13 +2385,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2405,7 +2399,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -2419,7 +2413,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -2433,7 +2427,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -2456,15 +2450,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D36:D41)</f>
-        <v>16.1666666666667</v>
+        <f>AVERAGE(D37:D41)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2472,8 +2466,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
-        <v>16.9333333333333</v>
+        <f>AVERAGE(D2:D10,D16:D31,D37:D41)</f>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2508,33 +2502,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
         <v>231</v>
       </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>233</v>
-      </c>
-      <c r="E1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>18</v>
@@ -2547,15 +2541,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -2568,18 +2562,18 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2">
         <v>17</v>
@@ -2594,10 +2588,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2">
         <v>18</v>
@@ -2612,10 +2606,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
@@ -2630,10 +2624,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2646,7 +2640,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2654,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2">
         <v>16</v>
@@ -2669,10 +2663,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2">
         <v>16</v>
@@ -2687,10 +2681,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -2705,10 +2699,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
@@ -2723,10 +2717,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3">
         <v>18</v>
@@ -2739,15 +2733,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -2762,10 +2756,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3">
         <v>17</v>
@@ -2780,10 +2774,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
         <v>15</v>
@@ -2798,10 +2792,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3">
         <v>14</v>
@@ -2814,15 +2808,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -2837,10 +2831,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -2855,10 +2849,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -2873,10 +2867,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -2891,10 +2885,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2912,7 +2906,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3">
         <v>7</v>
@@ -2927,10 +2921,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -2945,10 +2939,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>13</v>
@@ -2961,15 +2955,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1">
         <v>16</v>
@@ -2982,15 +2976,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1">
         <v>13</v>
@@ -3003,15 +2997,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1">
         <v>15</v>
@@ -3024,15 +3018,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1">
         <v>14</v>
@@ -3045,15 +3039,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -3068,10 +3062,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2">
         <v>18</v>
@@ -3084,15 +3078,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2">
         <v>16</v>
@@ -3107,10 +3101,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2">
         <v>17</v>
@@ -3123,15 +3117,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2">
         <v>13</v>
@@ -3144,15 +3138,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2">
         <v>13</v>
@@ -3165,7 +3159,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3173,7 +3167,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2">
         <v>18</v>
@@ -3186,15 +3180,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -3209,10 +3203,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2">
         <v>6</v>
@@ -3227,10 +3221,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3">
         <v>14</v>
@@ -3243,15 +3237,15 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3">
         <v>16</v>
@@ -3264,15 +3258,15 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3">
         <v>14</v>
@@ -3285,15 +3279,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3">
         <v>17</v>
@@ -3306,18 +3300,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -3330,15 +3324,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -3353,10 +3347,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3">
         <v>15</v>
@@ -3371,10 +3365,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="3">
         <v>13</v>
@@ -3389,10 +3383,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3">
         <v>17</v>
@@ -3405,15 +3399,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
@@ -3426,15 +3420,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
@@ -3449,10 +3443,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -3467,10 +3461,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1">
         <v>12</v>
@@ -3483,15 +3477,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1">
         <v>6</v>
@@ -3506,10 +3500,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
@@ -3547,16 +3541,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
         <v>269</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>270</v>
-      </c>
-      <c r="C1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3863,15 +3857,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1">
         <v>0.0067</v>
@@ -3879,7 +3873,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2">
         <v>0.2667</v>
@@ -3887,7 +3881,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="3">
         <v>0.62</v>
@@ -3895,7 +3889,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1">
         <v>2.345</v>
@@ -3903,7 +3897,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="2">
         <v>0.9529</v>
@@ -3911,7 +3905,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="3">
         <v>1.76</v>
@@ -3919,7 +3913,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1">
         <v>4.41</v>
@@ -3927,7 +3921,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="4">
         <v>0.13</v>
@@ -3935,7 +3929,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" s="1">
         <v>0.0565</v>
@@ -3943,7 +3937,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" s="4">
         <v>0.022</v>
@@ -3951,7 +3945,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1">
         <v>0.0049</v>
@@ -3959,7 +3953,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" s="3">
         <v>0.0011</v>
@@ -3967,7 +3961,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="5">
         <v>0.076</v>
@@ -3975,7 +3969,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" s="1">
         <v>0.66</v>
@@ -3983,7 +3977,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1">
         <v>0.6</v>
@@ -3991,7 +3985,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" s="1">
         <v>0.0081</v>
@@ -3999,7 +3993,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" s="1">
         <v>0.142</v>
@@ -4007,7 +4001,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" s="4">
         <v>0.176</v>
@@ -4015,7 +4009,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B20" s="2">
         <v>0.27</v>
@@ -4023,7 +4017,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B21" s="3">
         <v>0.28</v>
@@ -4031,7 +4025,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B22" s="2">
         <v>0.0036</v>
@@ -4039,7 +4033,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B23" s="1">
         <v>0.0038</v>
@@ -4047,7 +4041,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B24">
         <v>0.27</v>
@@ -4055,7 +4049,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" s="1">
         <v>4.04</v>
@@ -4063,7 +4057,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B26" s="1">
         <v>121.11</v>
@@ -4071,7 +4065,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B27" s="3">
         <v>64.61</v>
@@ -4079,7 +4073,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B28" s="2">
         <v>30.28</v>
@@ -4087,7 +4081,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B29">
         <v>11.31</v>
@@ -4104,8 +4098,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4181,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4242,7 +4236,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -4268,23 +4262,23 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.1111111111111</v>
+        <v>19.2222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -4295,10 +4289,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -4309,10 +4303,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -4323,24 +4317,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -4351,10 +4345,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -4365,10 +4359,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -4379,10 +4373,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -4393,10 +4387,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -4407,67 +4401,75 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
         <v>16</v>
       </c>
-      <c r="C26" s="3">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="D28" s="3">
-        <v>17</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -4476,44 +4478,36 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <f>AVERAGE(D16:D28)</f>
-        <v>16.3076923076923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>16</v>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <f>AVERAGE(D16:D29)</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4521,13 +4515,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4535,7 +4529,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -4549,7 +4543,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>5</v>
@@ -4563,7 +4557,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -4577,7 +4571,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -4591,7 +4585,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -4614,14 +4608,14 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D34:D41)</f>
+        <f>AVERAGE(D35:D41)</f>
         <v>16</v>
       </c>
     </row>
@@ -4632,8 +4626,8 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
-        <v>17.0666666666667</v>
+        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -4648,8 +4642,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4697,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4753,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4828,31 +4822,23 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
@@ -4861,36 +4847,44 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D16" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>16.5833333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
         <v>14</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <f>AVERAGE(D2:D14)</f>
-        <v>15.9230769230769</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4898,13 +4892,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4912,97 +4906,97 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>16</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5010,7 +5004,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
         <v>4</v>
@@ -5021,53 +5015,61 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
       </c>
       <c r="D30" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3">
-        <v>15</v>
-      </c>
-      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>15</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
         <v>7</v>
       </c>
-      <c r="D32" s="3">
-        <v>17</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
@@ -5076,30 +5078,22 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3">
-        <f>AVERAGE(D20:D32)</f>
-        <v>15.4615384615385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>16</v>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <f>AVERAGE(D19:D33)</f>
+        <v>16.0666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5107,7 +5101,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -5121,7 +5115,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -5135,7 +5129,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -5158,15 +5152,15 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <f>AVERAGE(D38:D41)</f>
-        <v>15</v>
+        <f>AVERAGE(D39:D41)</f>
+        <v>14.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5176,8 +5170,8 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>AVERAGE(D2:D14,D20:D32,D38:D41)</f>
-        <v>15.6</v>
+        <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
+        <v>16.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5191,8 +5185,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5259,7 +5253,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -5268,26 +5262,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -5301,7 +5295,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -5315,7 +5309,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5324,12 +5318,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5338,50 +5332,42 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
@@ -5390,72 +5376,80 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.1818181818182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <f>AVERAGE(D2:D13)</f>
-        <v>16.6666666666667</v>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -5466,16 +5460,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5483,7 +5477,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -5497,7 +5491,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -5511,7 +5505,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -5525,7 +5519,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>5</v>
@@ -5536,10 +5530,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -5562,23 +5556,23 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D19:D28)</f>
-        <v>15.2</v>
+        <f>AVERAGE(D18:D28)</f>
+        <v>15.4545454545455</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -5589,10 +5583,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -5606,7 +5600,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -5620,7 +5614,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -5634,7 +5628,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -5648,7 +5642,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -5662,7 +5656,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -5676,7 +5670,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -5699,7 +5693,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -5715,8 +5709,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
-        <v>15.8666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
+        <v>16.1</v>
       </c>
     </row>
   </sheetData>
@@ -5731,8 +5725,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5813,7 +5807,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -5822,26 +5816,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -5855,7 +5849,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -5869,7 +5863,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5878,50 +5872,42 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
@@ -5930,72 +5916,80 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.5454545454545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17</v>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -6006,16 +6000,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6023,7 +6017,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3">
         <v>4</v>
@@ -6037,7 +6031,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -6051,7 +6045,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3">
         <v>4</v>
@@ -6062,10 +6056,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
@@ -6076,10 +6070,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -6102,23 +6096,23 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
-        <f>AVERAGE(D19:D28)</f>
-        <v>15.2</v>
+        <f>AVERAGE(D18:D28)</f>
+        <v>15.4545454545455</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -6129,10 +6123,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -6146,7 +6140,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -6160,7 +6154,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1">
         <v>4</v>
@@ -6174,7 +6168,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -6188,7 +6182,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -6202,7 +6196,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -6216,7 +6210,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>8</v>
@@ -6239,7 +6233,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -6255,8 +6249,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
-        <v>16</v>
+        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
+        <v>16.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6271,7 +6265,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6311,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6337,15 +6331,9 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
@@ -6353,31 +6341,37 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C8" s="2">
+        <f>AVERAGE(C2:C5)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>17.4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6388,7 +6382,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6396,43 +6390,43 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6440,7 +6434,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -6448,19 +6442,25 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3"/>
@@ -6468,31 +6468,25 @@
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3">
-        <f>AVERAGE(C12:C19)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>16</v>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3">
+        <f>AVERAGE(C11:C20)</f>
+        <v>16.6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -6513,13 +6507,13 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C29" s="1">
-        <f>AVERAGE(C25:C26)</f>
+        <f>AVERAGE(C26:C26)</f>
         <v>16</v>
       </c>
     </row>
@@ -6528,11 +6522,11 @@
         <v>37</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7">
-        <f>AVERAGE(C2:C6,C12:C19,C25:C26)</f>
-        <v>16.7333333333333</v>
+        <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -6614,7 +6608,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -6635,10 +6629,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -6648,7 +6642,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -6659,7 +6653,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -6670,7 +6664,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -6692,7 +6686,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>6</v>
@@ -6703,7 +6697,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
@@ -6724,10 +6718,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C12:C17)</f>
@@ -6736,7 +6730,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -6747,7 +6741,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
@@ -6758,7 +6752,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -6769,7 +6763,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1">
         <v>5</v>
@@ -6780,7 +6774,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -6791,7 +6785,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
         <v>8</v>
@@ -6812,7 +6806,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -6827,7 +6821,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7">
         <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
@@ -6845,8 +6839,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6880,7 +6874,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -6891,13 +6885,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6952,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6967,14 +6961,14 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C9)</f>
-        <v>15</v>
+        <v>15.375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6990,24 +6984,24 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7055,19 +7049,19 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <f>AVERAGE(C15:C20)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -7078,7 +7072,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
         <v>4</v>
@@ -7099,7 +7093,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -7114,11 +7108,11 @@
         <v>37</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>14.3125</v>
+        <v>14.875</v>
       </c>
     </row>
   </sheetData>
@@ -7147,7 +7141,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7159,12 +7153,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7176,15 +7170,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -7193,15 +7187,15 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -7210,29 +7204,29 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -7244,32 +7238,32 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -7278,15 +7272,15 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -7295,202 +7289,202 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -7499,12 +7493,12 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -7516,12 +7510,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -7533,15 +7527,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -7550,233 +7544,233 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
         <v>111</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -7788,12 +7782,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -7805,12 +7799,12 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -7822,12 +7816,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -7839,15 +7833,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>5</v>
@@ -7856,12 +7850,12 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -7873,117 +7867,117 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>5</v>
@@ -7992,15 +7986,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
         <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>5</v>
@@ -8009,15 +8003,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -8026,15 +8020,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -8043,15 +8037,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>5</v>
@@ -8060,15 +8054,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -8077,15 +8071,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -8094,134 +8088,134 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>5</v>
@@ -8230,15 +8224,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
         <v>170</v>
-      </c>
-      <c r="B73" t="s">
-        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
@@ -8247,15 +8241,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
@@ -8264,15 +8258,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -8281,49 +8275,49 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>5</v>
@@ -8332,15 +8326,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
         <v>183</v>
-      </c>
-      <c r="B81" t="s">
-        <v>186</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -8349,15 +8343,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
@@ -8366,15 +8360,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>5</v>
@@ -8383,15 +8377,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>5</v>
@@ -8400,15 +8394,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>5</v>
@@ -8417,15 +8411,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>5</v>
@@ -8434,15 +8428,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>5</v>
@@ -8451,15 +8445,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>5</v>
@@ -8468,15 +8462,15 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>5</v>
@@ -8485,15 +8479,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>5</v>
@@ -8502,15 +8496,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>5</v>
@@ -8519,15 +8513,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>5</v>
@@ -8536,66 +8530,66 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -8604,15 +8598,15 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" t="s">
         <v>216</v>
-      </c>
-      <c r="B99" t="s">
-        <v>219</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -8621,15 +8615,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -8638,15 +8632,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>5</v>
@@ -8655,58 +8649,58 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15000" windowHeight="11850" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId10"/>
     <sheet name="卡等需求" sheetId="17" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="18" r:id="rId12"/>
+    <sheet name="护甲表" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="406">
   <si>
     <t>名称</t>
   </si>
@@ -941,6 +942,321 @@
   </si>
   <si>
     <t>白色英雄</t>
+  </si>
+  <si>
+    <t>圣堂门卫</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>(3/60)：【护甲3】。</t>
+  </si>
+  <si>
+    <t>重装固守</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军+8/+26，若他有护甲，则护甲+6并获得【磐龙】、抽一张牌。</t>
+  </si>
+  <si>
+    <t>(24/24)：【护甲6】、命中英雄:手上一张护甲生物卡法力-1（次数上限:2）。</t>
+  </si>
+  <si>
+    <t>盾甲禁卫</t>
+  </si>
+  <si>
+    <t>(29/24)：【护甲10】。</t>
+  </si>
+  <si>
+    <t>信念雕像</t>
+  </si>
+  <si>
+    <t>(15/50)：【守军】、【护甲8】、回合开始:另一友军生命+X（等同攻击）。</t>
+  </si>
+  <si>
+    <t>圣殿精英</t>
+  </si>
+  <si>
+    <t>(22/45)：【协战16】、【护甲3】。</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、【魔免】、登场:全体友军+7/+7、当前回合:护甲和魔防+7、回合结束:四个友军+1/+7</t>
+  </si>
+  <si>
+    <t>(传记)：前排位置召唤圣堂门卫-lv18、获得【传记·钢铁赞歌】。</t>
+  </si>
+  <si>
+    <t>流星斗士</t>
+  </si>
+  <si>
+    <t>(24/24)：【护甲4】、【协战8】、死亡:向对面横排，投掷流星锤。</t>
+  </si>
+  <si>
+    <t>传记·钢铁赞歌</t>
+  </si>
+  <si>
+    <t>(传记)：召唤圣堂门卫-lv20，随机护甲友军获得【魂歌】、获得【传记·钢铁意志】。</t>
+  </si>
+  <si>
+    <t>(27/42)：【护甲6】、【回命】、【协战10】。</t>
+  </si>
+  <si>
+    <t>钢铁大师</t>
+  </si>
+  <si>
+    <t>(27/70)：【护甲10】、回合结束:全体护甲友军攻击+10。</t>
+  </si>
+  <si>
+    <t>传记·钢铁意志</t>
+  </si>
+  <si>
+    <t>(传记)：全体护甲友军+17/+17，护甲+6，获得【神佑】1回合。</t>
+  </si>
+  <si>
+    <t>(36/50)：【磐龙】、【护甲18】、【协战14】。</t>
+  </si>
+  <si>
+    <t>光明圣骑士</t>
+  </si>
+  <si>
+    <t>(50/50)：【护甲11】、登场:英雄生命+50</t>
+  </si>
+  <si>
+    <t>皇家狮鹫</t>
+  </si>
+  <si>
+    <t>(50/36)：【回命】、【护甲9】、登场:召唤32/18白头狮鹫-lv20，吹飞随机敌军。</t>
+  </si>
+  <si>
+    <t>破城者·阿基琉斯</t>
+  </si>
+  <si>
+    <t>(0/180)：【迟缓】、【磐龙】、【践踏】、【护甲20】、【协战50】。</t>
+  </si>
+  <si>
+    <t>荣光堡垒</t>
+  </si>
+  <si>
+    <t>(0/220)：【磐龙】、【守军】、【护甲9】、回合结束:炮击敌横排随机区域32点伤害，炮击2次。</t>
+  </si>
+  <si>
+    <t>蔚蓝幻梦·卡洛琳</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：回合开始：另一护甲友军+3/+3，魔防+5，获得【磐龙】。）</t>
+  </si>
+  <si>
+    <t>(30/65)：【磐龙】、【践踏】、【护甲8】、【协战20】。（皮肤：登场：护甲友军获得【神佑】1回合、莱哈特在场：全体友军获得【协战1】。）</t>
+  </si>
+  <si>
+    <t>(33/80)：【磐龙】、【护甲8】、回合开始:全体护甲友军+10/+10，获得【连击】3回合。（皮肤：登场：横排敌军眩晕1回合，斩击横排随机敌军，无敌军则斩击英雄（伤害：护甲友军数量x自身等级，无视神佑和魔免）。）</t>
+  </si>
+  <si>
+    <t>司莫斯的光明要塞</t>
+  </si>
+  <si>
+    <t>(0/300)：【魔免】、【护甲18】、回合结束:炮击横排随机区域110点伤害（无视【神佑】和【魔免】）。</t>
+  </si>
+  <si>
+    <t>黑曜石像鬼</t>
+  </si>
+  <si>
+    <t>(30/55)：【迟缓】、敌方法力上限-1、登场回合具有【护甲30】。</t>
+  </si>
+  <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
+    <t>(25/50)：【护甲9】、法力上限+2。</t>
+  </si>
+  <si>
+    <t>魔像-御咒铁卫</t>
+  </si>
+  <si>
+    <t>(30/30)：【护甲10】、攻击前:本回合你每使用过一个法术，自身+6/+6，护甲+2，若为传记则护甲额外+1。</t>
+  </si>
+  <si>
+    <t>巨型石像鬼</t>
+  </si>
+  <si>
+    <t>(90/90)：【迟缓】、敌方法力上限永久-1、登场:吹回随机敌军，本回合具有【护甲55】。</t>
+  </si>
+  <si>
+    <t>魔钢</t>
+  </si>
+  <si>
+    <t>(99/99)：【护甲10】、【磐龙】、充能:护甲+7、攻击前:本回合你使用过法术，自身+15/+15。</t>
+  </si>
+  <si>
+    <t>No.4希尔伯特</t>
+  </si>
+  <si>
+    <t>(20/40)：【护甲5】、【魔防5】、回合结束:敌方区域召唤灵能炸弹-lv20。</t>
+  </si>
+  <si>
+    <t>No.5咒刃·布雷克</t>
+  </si>
+  <si>
+    <t>(19/35)：【魔免】、【先攻】、【二连击】、【护甲6】、攻击前:本回合你每使用过一个法术或传记，自身攻击+3。（皮肤：命中时：魔界火焰坠落敌方随机区域（3点伤害）。）</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>(25/35)：【护甲6】、【回命】、获得传承:护甲+6。</t>
+  </si>
+  <si>
+    <t>祥云师太</t>
+  </si>
+  <si>
+    <t>(24/24)：【传承16】、登场:随机相邻友军生命加倍，获得【护甲4】。</t>
+  </si>
+  <si>
+    <t>植甲师</t>
+  </si>
+  <si>
+    <t>(25/32)：【护甲4】、【传承4】、受到传承:全体友军+4/+4，护甲+4。</t>
+  </si>
+  <si>
+    <t>泰山之力</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军加攻，等同其一半生命值，并获得【护甲20】、【魔防10】。</t>
+  </si>
+  <si>
+    <t>龙纹尊者</t>
+  </si>
+  <si>
+    <t>(35/65)：【磐龙】、【护甲9】、受到传承时:自身额外+9/+9。</t>
+  </si>
+  <si>
+    <t>披甲罗汉</t>
+  </si>
+  <si>
+    <t>(65/65)：【护甲20】、受到传承:自身获得【魔免】、【回命】。</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军+25/+25、获得【回命】、【践踏】、【传承25】。（皮肤：目标友军攻击+9，魔防+9，护甲+9，持续1回合。）</t>
+  </si>
+  <si>
+    <t>天蓬元帅·悟能</t>
+  </si>
+  <si>
+    <t>(75/75)：【践踏】、【回命】、【传承25】。（皮肤：【护甲1】、死亡：转世为斑毛幼猪。）</t>
+  </si>
+  <si>
+    <t>教廷学者</t>
+  </si>
+  <si>
+    <t>(27/35)：回合开始:随机四芒帝国友军和隐秘友军+3/+12，获得【护甲2】。</t>
+  </si>
+  <si>
+    <t>天雷降临·布瑞恩</t>
+  </si>
+  <si>
+    <t>(40/40)：【护甲14】、【践踏】、登场:横排敌军受到22点伤害、攻击前:友军多于敌军，自身+7/+15。（皮肤：登场的重击可眩晕横排敌军、命中时：50%几率天雷坠落随机区域（3点伤害）。）</t>
+  </si>
+  <si>
+    <t>毒液甲虫</t>
+  </si>
+  <si>
+    <t>(28/28)：【护甲5】、死亡:向敌方随机区域喷吐毒液(坠落伤害)。</t>
+  </si>
+  <si>
+    <t>恶臭公害</t>
+  </si>
+  <si>
+    <t>(33/43)：【护甲11】、回合开始:英雄受到4点伤害。</t>
+  </si>
+  <si>
+    <t>渴血毒甲蝎</t>
+  </si>
+  <si>
+    <t>(24/28)：【护甲8】、对英雄伤害+8、敌方英雄受到伤害时：自身生命+2。</t>
+  </si>
+  <si>
+    <t>铸甲熔岩魔</t>
+  </si>
+  <si>
+    <t>(30/40)：【护甲10】、回合开始：全体有践踏的友军+3/+6，获得【护甲2】。</t>
+  </si>
+  <si>
+    <t>狂暴铁臂</t>
+  </si>
+  <si>
+    <t>(48/48)：【护甲6】、攻击前:全体护甲友军+5/+5、登场回合具有【磐龙】和【魂歌】。</t>
+  </si>
+  <si>
+    <t>岩魔</t>
+  </si>
+  <si>
+    <t>(49/19)：敌方英雄受到伤害:随机敌军生命-4、死亡:回到手牌。（皮肤：【护甲1】、每当敌方受到伤害时：所有护甲友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>上古蛮王</t>
+  </si>
+  <si>
+    <t>(26/50)：【连击】、【践踏】、【护甲6】、攻击前：全体敌军受到6点伤害。（皮肤：回合开始:另一个践踏友军攻击+1，护甲+1、另一个护甲友军攻击+1，获得【践踏】。）</t>
+  </si>
+  <si>
+    <t>熔金饕餮兽</t>
+  </si>
+  <si>
+    <t>(37/73)：登场:吸取敌方玩家73点生命、死亡:归还敌方玩家73点生命。（皮肤：【护甲3】、【磐龙】。）</t>
+  </si>
+  <si>
+    <t>蛮石穿山甲</t>
+  </si>
+  <si>
+    <t>(24/27)：【护甲6】、当己方英雄恢复生命:自身攻击+7，护甲+3。</t>
+  </si>
+  <si>
+    <t>炎阳巨龙</t>
+  </si>
+  <si>
+    <t>(140/140)：登场:焚烧全体敌军22点伤害、攻击前:烈焰吐息横排敌军30点伤害。（皮肤：【护甲5】、回合开始：敌方全场坠落1点伤害。）</t>
+  </si>
+  <si>
+    <t>盾甲骷髅妖</t>
+  </si>
+  <si>
+    <t>(19/19)：【护甲5】、死亡:随机友军+19/+19，并且护甲+5。</t>
+  </si>
+  <si>
+    <t>冬幕骑士</t>
+  </si>
+  <si>
+    <t>(39/39)：【护甲10】、登场:横排所有敌军-13/-13。</t>
+  </si>
+  <si>
+    <t>冰峰甲虫</t>
+  </si>
+  <si>
+    <t>(30/50)：【护甲8】、【魔防10】、受到传承：额外+8/+8，获得【磐龙】、攻击前：脚下有冰封，向前方喷吐冰毒。</t>
+  </si>
+  <si>
+    <t>冬幕斗士</t>
+  </si>
+  <si>
+    <t>(27/39)：【护甲10】、【二连击】、登场回合开始:友方每有一处冰封，自身+3/+3，护甲+3。</t>
+  </si>
+  <si>
+    <t>骸骨督军</t>
+  </si>
+  <si>
+    <t>(40/33)：【护甲5】、每当一个敌军死亡:随机友军攻击+12、护甲+3。</t>
+  </si>
+  <si>
+    <t>无头骑士·塞古斯</t>
+  </si>
+  <si>
+    <t>(55/30)：【先攻】、【践踏】、【护甲15】。（皮肤：登场：若脚下已冰封，自身攻击+1/+1，护甲+1，【魔免】1回合。）</t>
+  </si>
+  <si>
+    <t>冰雪女皇</t>
+  </si>
+  <si>
+    <t>(30/75)：登场:随机敌军-30/-30、友军死亡时:随机敌军-5/-5、敌军死亡时:随机友军+5/+5。（皮肤：回合开始：随机一个冬神使徒友军+1+1，护甲+1，魔防+1，冰封脚下。）</t>
   </si>
 </sst>
 </file>
@@ -963,13 +1279,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -984,6 +1293,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -992,13 +1315,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1608,6 +1924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,13 +1939,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2367,96 +2683,96 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>4</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="5">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>6</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <f>AVERAGE(D37:D41)</f>
         <v>16.2</v>
       </c>
@@ -2938,19 +3254,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>13</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>664</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <f t="shared" ref="E24:E29" si="2">1216-D24</f>
         <v>552</v>
       </c>
@@ -2959,19 +3275,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>834</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="5">
         <f t="shared" si="2"/>
         <v>382</v>
       </c>
@@ -2980,19 +3296,19 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>13</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>490</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>726</v>
       </c>
@@ -3001,19 +3317,19 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="5">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5">
         <v>746</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <f t="shared" si="2"/>
         <v>470</v>
       </c>
@@ -3022,19 +3338,19 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>14</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>587</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <f t="shared" si="2"/>
         <v>629</v>
       </c>
@@ -3043,19 +3359,19 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>668</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>548</v>
       </c>
@@ -3424,55 +3740,55 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="1">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="5">
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
         <v>612</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="5">
         <f>1216-D52</f>
         <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="5">
         <v>2</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
         <v>762</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="5">
         <f>1216-D53</f>
         <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="5">
         <v>12</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
         <v>739</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="5">
         <f>1216-D54</f>
         <v>477</v>
       </c>
@@ -3481,37 +3797,37 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="5">
         <v>6</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="5">
         <v>439</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="5">
         <f>1216-D55</f>
         <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="1">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5">
         <v>464</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="5">
         <f>1216-D56</f>
         <v>752</v>
       </c>
@@ -3864,10 +4180,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>0.0067</v>
       </c>
     </row>
@@ -3888,10 +4204,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>2.345</v>
       </c>
     </row>
@@ -3912,42 +4228,42 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>4.41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>0.0565</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>0.022</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>0.0049</v>
       </c>
     </row>
@@ -3960,50 +4276,50 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>0.076</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>0.0081</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>0.142</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>0.176</v>
       </c>
     </row>
@@ -4032,10 +4348,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>0.0038</v>
       </c>
     </row>
@@ -4048,18 +4364,18 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>4.04</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>121.11</v>
       </c>
     </row>
@@ -4085,6 +4401,1164 @@
       </c>
       <c r="B29">
         <v>11.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="186.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
+        <v>366</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>372</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:5">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:5">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:5">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:5">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" t="s">
+        <v>384</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:5">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
+        <v>386</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>392</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s">
+        <v>394</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" t="s">
+        <v>396</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +5928,7 @@
       <c r="D28" s="3">
         <v>12</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
@@ -4469,7 +5943,7 @@
       <c r="D29" s="3">
         <v>18</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -4497,135 +5971,135 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>6</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <f>AVERAGE(D35:D41)</f>
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
         <v>17.2</v>
       </c>
@@ -4642,7 +6116,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -5054,7 +6528,7 @@
       <c r="D32" s="3">
         <v>15</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
@@ -5069,7 +6543,7 @@
       <c r="D33" s="3">
         <v>18</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
@@ -5097,79 +6571,79 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="5">
         <v>4</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>4</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <f>AVERAGE(D39:D41)</f>
         <v>14.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
         <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
         <v>16.1333333333333</v>
       </c>
@@ -5568,138 +7042,138 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>4</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>6</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <f>AVERAGE(D34:D41)</f>
         <v>15.5</v>
       </c>
@@ -6108,138 +7582,138 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <v>4</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="5">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="5">
         <v>6</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="5">
         <v>8</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
         <f>AVERAGE(D34:D41)</f>
         <v>15.5</v>
       </c>
@@ -6485,46 +7959,46 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="1">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <f>AVERAGE(C26:C26)</f>
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="1">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
         <v>17.2</v>
       </c>
@@ -6729,101 +8203,101 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>8</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <f>AVERAGE(C23:C28)</f>
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="1">
         <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
         <v>16.9411764705882</v>
       </c>
@@ -7060,57 +8534,57 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <f>AVERAGE(C26:C27)</f>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="1">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
         <v>14.875</v>
       </c>
@@ -7126,8 +8600,8 @@
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7418,7 +8892,7 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D17">
@@ -7435,7 +8909,7 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D18">
@@ -7452,7 +8926,7 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D19">
@@ -7469,7 +8943,7 @@
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D20">
@@ -7741,7 +9215,7 @@
       <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D38">
@@ -7758,7 +9232,7 @@
       <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D39">
@@ -7962,7 +9436,7 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D53">
@@ -8200,7 +9674,7 @@
       <c r="B69" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D69">

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -172,10 +172,10 @@
     <t>长耳庄巧姑</t>
   </si>
   <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
     <t>连击</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
   </si>
   <si>
     <t>铁山靠</t>
@@ -2141,8 +2141,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2562,7 +2562,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D16:D31)</f>
-        <v>16.75</v>
+        <v>16.8125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2657,7 +2657,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D31,D37:D41)</f>
-        <v>17.3</v>
+        <v>17.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5189,8 +5189,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5459,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5584,7 +5584,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>17</v>
+        <v>17.0714285714286</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5668,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5707,7 +5707,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.5714285714286</v>
+        <v>15.7142857142857</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5718,7 +5718,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.3333333333333</v>
+        <v>17.4</v>
       </c>
     </row>
   </sheetData>
@@ -5734,7 +5734,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="K34" sqref="K34:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5894,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5947,7 +5947,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>16.5833333333333</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6017,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6184,7 +6184,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D19:D33)</f>
-        <v>16.2666666666667</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6262,7 +6262,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
-        <v>16.1</v>
+        <v>16.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6276,8 +6276,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6476,7 +6476,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.5454545454545</v>
+        <v>17.6363636363636</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6753,7 +6753,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6792,7 +6792,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.4</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6815,8 +6815,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6948,7 +6948,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7015,7 +7015,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.1818181818182</v>
+        <v>17.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7292,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -7331,7 +7331,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7340,7 +7340,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.1333333333333</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -7356,7 +7356,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7495,7 +7495,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>17.1333333333333</v>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -7632,7 +7632,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J35" sqref="I35:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7871,7 +7871,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C23:C28)</f>
-        <v>16</v>
+        <v>16.1666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
-        <v>17.2352941176471</v>
+        <v>17.2941176470588</v>
       </c>
     </row>
   </sheetData>
@@ -7931,7 +7931,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E12" sqref="A7 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>14.875</v>
+        <v>14.9375</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="4"/>
+    <workbookView windowWidth="21210" windowHeight="9990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="377">
   <si>
     <t>名称</t>
   </si>
@@ -196,46 +196,49 @@
     <t>御风武者</t>
   </si>
   <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>执剑道人</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
     <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>执剑道人</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -2142,7 +2145,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2190,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2218,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2313,7 +2316,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.2222222222222</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2425,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2562,7 +2565,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D16:D31)</f>
-        <v>16.8125</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2666,7 +2669,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D31,D37:D41)</f>
-        <v>17.3666666666667</v>
+        <v>17.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2699,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2708,32 +2711,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2742,15 +2745,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2759,15 +2762,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2776,15 +2779,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2793,15 +2796,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2810,12 +2813,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2827,15 +2830,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2844,15 +2847,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2861,15 +2864,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -2878,15 +2881,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -2895,15 +2898,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -2912,12 +2915,12 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -2929,15 +2932,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -2946,15 +2949,15 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -2963,15 +2966,15 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -2980,15 +2983,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -2997,15 +3000,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -3014,12 +3017,12 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3031,15 +3034,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -3048,15 +3051,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -3065,15 +3068,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -3082,15 +3085,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>31</v>
@@ -3099,12 +3102,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -3116,12 +3119,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
@@ -3133,12 +3136,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -3150,15 +3153,15 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>31</v>
@@ -3167,15 +3170,15 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -3184,15 +3187,15 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3201,15 +3204,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -3218,15 +3221,15 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -3235,12 +3238,12 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3252,15 +3255,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -3269,12 +3272,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -3286,15 +3289,15 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -3303,15 +3306,15 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>31</v>
@@ -3320,15 +3323,15 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>31</v>
@@ -3337,15 +3340,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -3354,15 +3357,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3371,15 +3374,15 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -3388,15 +3391,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -3405,15 +3408,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -3422,15 +3425,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -3439,12 +3442,12 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -3456,15 +3459,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>31</v>
@@ -3473,15 +3476,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -3490,15 +3493,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>31</v>
@@ -3507,15 +3510,15 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -3524,15 +3527,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -3541,15 +3544,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -3558,15 +3561,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
@@ -3575,15 +3578,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -3592,15 +3595,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -3609,15 +3612,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>31</v>
@@ -3626,15 +3629,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>31</v>
@@ -3643,15 +3646,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>31</v>
@@ -3660,15 +3663,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -3677,15 +3680,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>31</v>
@@ -3694,15 +3697,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -3711,15 +3714,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3728,15 +3731,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -3745,15 +3748,15 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
@@ -3762,15 +3765,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -3779,15 +3782,15 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>31</v>
@@ -3796,15 +3799,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>31</v>
@@ -3813,7 +3816,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3847,33 +3850,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -3886,15 +3889,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3907,18 +3910,18 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -3933,10 +3936,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -3969,10 +3972,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3985,7 +3988,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3993,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -4008,10 +4011,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -4026,10 +4029,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -4044,10 +4047,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -4062,10 +4065,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -4078,15 +4081,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -4101,10 +4104,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -4122,7 +4125,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -4153,7 +4156,7 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4161,7 +4164,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -4179,7 +4182,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -4197,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -4212,10 +4215,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -4230,10 +4233,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4251,7 +4254,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -4287,7 +4290,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -4300,15 +4303,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -4321,7 +4324,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4329,7 +4332,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -4342,7 +4345,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4350,7 +4353,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -4363,7 +4366,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4371,7 +4374,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -4384,7 +4387,7 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4392,7 +4395,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -4407,10 +4410,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -4423,15 +4426,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -4446,10 +4449,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -4462,15 +4465,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -4483,15 +4486,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -4504,7 +4507,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4512,7 +4515,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -4525,15 +4528,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -4548,10 +4551,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -4569,7 +4572,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -4582,7 +4585,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4590,7 +4593,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -4603,7 +4606,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4611,7 +4614,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -4624,15 +4627,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -4645,18 +4648,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -4669,15 +4672,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -4695,7 +4698,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -4713,7 +4716,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -4731,7 +4734,7 @@
         <v>28</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -4744,15 +4747,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -4765,15 +4768,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -4788,10 +4791,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -4809,7 +4812,7 @@
         <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -4822,15 +4825,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -4845,10 +4848,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -4886,16 +4889,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5189,8 +5192,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5238,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5266,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5361,7 +5364,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.2222222222222</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5473,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5584,7 +5587,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>17.0714285714286</v>
+        <v>17.1428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5718,7 +5721,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.4</v>
+        <v>17.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5733,8 +5736,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5782,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5871,7 +5874,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -5947,7 +5950,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>16.6666666666667</v>
+        <v>16.5833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6031,7 +6034,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6101,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6120,21 +6123,21 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -6143,7 +6146,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -6184,7 +6187,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D19:D33)</f>
-        <v>16.3333333333333</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6262,7 +6265,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
-        <v>16.1666666666667</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -6276,8 +6279,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6325,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6476,7 +6479,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.6363636363636</v>
+        <v>17.8181818181818</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6574,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6599,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
         <v>12</v>
@@ -6655,7 +6658,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D18:D28)</f>
-        <v>16</v>
+        <v>16.0909090909091</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6801,7 +6804,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.4666666666667</v>
+        <v>16.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6815,8 +6818,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7113,7 +7116,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7132,7 +7135,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -7146,7 +7149,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -7194,7 +7197,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D18:D28)</f>
-        <v>15.6363636363636</v>
+        <v>15.7272727272727</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7340,7 +7343,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.2</v>
+        <v>16.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -7356,7 +7359,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7396,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7440,7 +7443,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7506,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7572,7 +7575,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>16.9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7632,7 +7635,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="I35:J35"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7672,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7727,7 +7730,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -7916,7 +7919,7 @@
       </c>
       <c r="C34" s="4">
         <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
-        <v>17.2941176470588</v>
+        <v>17.4117647058824</v>
       </c>
     </row>
   </sheetData>
@@ -7930,8 +7933,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="A7 E12"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8103,12 +8106,12 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -8119,10 +8122,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>12</v>
@@ -8147,12 +8150,12 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C15:C20)</f>
-        <v>14.6666666666667</v>
+        <v>14.8333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -8199,11 +8202,11 @@
         <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>14.9375</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -8232,7 +8235,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8244,12 +8247,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8261,15 +8264,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -8278,15 +8281,15 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -8295,15 +8298,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -8312,12 +8315,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -8329,15 +8332,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -8346,15 +8349,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -8363,12 +8366,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -8380,12 +8383,12 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -8397,15 +8400,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -8414,12 +8417,12 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -8431,12 +8434,12 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -8448,15 +8451,15 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -8465,12 +8468,12 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -8482,12 +8485,12 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -8499,12 +8502,12 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -8516,12 +8519,12 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -8533,12 +8536,12 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -8550,12 +8553,12 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -8567,15 +8570,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -8584,12 +8587,12 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -8601,12 +8604,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -8618,15 +8621,15 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -8635,15 +8638,15 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -8652,12 +8655,12 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -8669,12 +8672,12 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -8686,12 +8689,12 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -8703,15 +8706,15 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
@@ -8720,12 +8723,12 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -8737,15 +8740,15 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -8754,12 +8757,12 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -8771,12 +8774,12 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -8788,12 +8791,12 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -8805,12 +8808,12 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -8822,12 +8825,12 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -8839,15 +8842,15 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>31</v>
@@ -8856,12 +8859,12 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -8873,12 +8876,12 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -8890,12 +8893,12 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -8907,12 +8910,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -8924,15 +8927,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -8941,12 +8944,12 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -8958,15 +8961,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -8975,12 +8978,12 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -8992,15 +8995,15 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -9009,12 +9012,12 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -9026,15 +9029,15 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -9043,12 +9046,12 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -9060,15 +9063,15 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
@@ -9077,15 +9080,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -9094,15 +9097,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -9111,15 +9114,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -9128,15 +9131,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -9145,15 +9148,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -9162,15 +9165,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -9179,15 +9182,15 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
@@ -9196,15 +9199,15 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
@@ -9213,15 +9216,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
@@ -9230,15 +9233,15 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -9247,15 +9250,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -9264,15 +9267,15 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -9281,15 +9284,15 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>31</v>
@@ -9298,15 +9301,15 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -9315,15 +9318,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -9332,15 +9335,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -9349,15 +9352,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -9366,15 +9369,15 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -9383,15 +9386,15 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
@@ -9400,15 +9403,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
@@ -9417,15 +9420,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -9434,15 +9437,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -9451,15 +9454,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -9468,15 +9471,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -9485,15 +9488,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -9502,15 +9505,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -9519,15 +9522,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -9536,15 +9539,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -9553,15 +9556,15 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -9570,15 +9573,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -9587,15 +9590,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -9604,15 +9607,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -9621,15 +9624,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
@@ -9638,15 +9641,15 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -9655,15 +9658,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -9672,15 +9675,15 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -9689,15 +9692,15 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -9706,15 +9709,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
@@ -9723,15 +9726,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -9740,15 +9743,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
@@ -9757,15 +9760,15 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
@@ -9774,15 +9777,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -9791,7 +9794,7 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21210" windowHeight="9990" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -5736,8 +5736,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5855,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5950,7 +5950,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>16.5833333333333</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6265,7 +6265,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
-        <v>16.2</v>
+        <v>16.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6279,8 +6279,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6370,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6479,7 +6479,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.8181818181818</v>
+        <v>17.9090909090909</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.5666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -6818,8 +6818,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6895,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7018,7 +7018,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.2727272727273</v>
+        <v>17.3636363636364</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.2333333333333</v>
+        <v>16.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7933,8 +7933,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7996,7 +7996,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>15.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>15</v>
+        <v>15.0625</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="7"/>
+    <workbookView windowWidth="14940" windowHeight="9345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="379">
   <si>
     <t>名称</t>
   </si>
@@ -106,345 +106,354 @@
     <t>冲锋装备</t>
   </si>
   <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>流星-7号</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>逍遥琴师</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>执剑道人</t>
+  </si>
+  <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
+  </si>
+  <si>
+    <t>学仆-猛禽型</t>
+  </si>
+  <si>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
     <t>学仆-塑钢型</t>
   </si>
   <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>飓风术</t>
-  </si>
-  <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>逍遥琴师</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>执剑道人</t>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
+  </si>
+  <si>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
+  </si>
+  <si>
+    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
+  </si>
+  <si>
+    <t>明月曲</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
+  </si>
+  <si>
+    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
   </si>
   <si>
     <t>蟠桃会</t>
   </si>
   <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>学仆-猛禽型</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
-  </si>
-  <si>
-    <t>(30/30)：【洞察1】、【法力封锁1】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军加攻，等同其一半生命值、另一友军生命+24、75%几率抽一张牌。</t>
-  </si>
-  <si>
-    <t>明月曲</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、7个友军+7/+7、抽一张牌。</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
-  </si>
-  <si>
-    <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
-  </si>
-  <si>
-    <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
-  </si>
-  <si>
     <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
   </si>
   <si>
@@ -1148,9 +1157,6 @@
   </si>
   <si>
     <t>No.8雷鸣·泰拉德</t>
-  </si>
-  <si>
-    <t>鬼童-7号</t>
   </si>
   <si>
     <t>No.6迪宁</t>
@@ -2144,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2428,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2456,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2470,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2481,7 +2487,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>15</v>
@@ -2495,10 +2501,10 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2509,77 +2515,77 @@
         <v>15</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D16:D29)</f>
+        <v>16.9285714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D16:D31)</f>
-        <v>16.875</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2587,13 +2593,13 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2601,13 +2607,13 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2615,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -2629,7 +2635,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -2659,8 +2665,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>15.8</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2668,7 +2674,7 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D10,D16:D31,D37:D41)</f>
+        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
         <v>17.4333333333333</v>
       </c>
     </row>
@@ -2699,7 +2705,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2711,32 +2717,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2745,15 +2751,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2762,15 +2768,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2779,15 +2785,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2796,15 +2802,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2813,12 +2819,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2830,15 +2836,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2847,15 +2853,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2864,15 +2870,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -2881,15 +2887,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -2898,29 +2904,29 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -2932,15 +2938,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -2949,15 +2955,15 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -2966,15 +2972,15 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -2983,15 +2989,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -3000,15 +3006,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -3017,15 +3023,15 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -3039,10 +3045,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -3051,15 +3057,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -3068,15 +3074,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -3085,18 +3091,18 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3107,70 +3113,70 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3195,7 +3201,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3204,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3212,7 +3218,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -3221,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3229,7 +3235,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -3238,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3246,7 +3252,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -3255,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3263,7 +3269,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -3272,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3280,7 +3286,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -3289,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3297,7 +3303,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -3306,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3314,16 +3320,16 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3331,24 +3337,24 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -3357,15 +3363,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3374,15 +3380,15 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -3391,15 +3397,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -3408,15 +3414,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -3425,15 +3431,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -3442,49 +3448,49 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -3493,32 +3499,32 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -3527,15 +3533,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -3544,15 +3550,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -3561,15 +3567,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
@@ -3578,15 +3584,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -3595,15 +3601,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -3612,66 +3618,66 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -3680,32 +3686,32 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -3714,15 +3720,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3731,15 +3737,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -3748,15 +3754,15 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
@@ -3765,15 +3771,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -3782,41 +3788,41 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3850,33 +3856,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -3889,15 +3895,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3910,18 +3916,18 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -3936,10 +3942,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -3954,10 +3960,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -3972,10 +3978,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3988,7 +3994,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3996,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -4011,10 +4017,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -4029,10 +4035,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -4047,10 +4053,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -4065,10 +4071,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -4081,15 +4087,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -4104,10 +4110,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -4125,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -4140,10 +4146,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -4156,15 +4162,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -4179,10 +4185,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -4200,7 +4206,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -4215,10 +4221,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -4233,10 +4239,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4251,10 +4257,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -4269,10 +4275,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -4290,7 +4296,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -4303,15 +4309,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -4324,7 +4330,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4332,7 +4338,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -4345,7 +4351,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4353,7 +4359,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -4366,7 +4372,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4374,7 +4380,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -4387,7 +4393,7 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4395,7 +4401,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -4410,7 +4416,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>99</v>
@@ -4426,12 +4432,12 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>99</v>
@@ -4465,12 +4471,12 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>99</v>
@@ -4486,12 +4492,12 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>99</v>
@@ -4507,7 +4513,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4528,12 +4534,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>99</v>
@@ -4551,7 +4557,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
@@ -4585,7 +4591,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4606,7 +4612,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4627,12 +4633,12 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>99</v>
@@ -4648,15 +4654,15 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>99</v>
@@ -4672,12 +4678,12 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -4695,7 +4701,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>99</v>
@@ -4747,7 +4753,7 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4768,12 +4774,12 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>99</v>
@@ -4791,7 +4797,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>370</v>
+        <v>56</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>99</v>
@@ -4825,12 +4831,12 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>99</v>
@@ -4848,7 +4854,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>99</v>
@@ -4889,16 +4895,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5192,8 +5198,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5476,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5504,26 +5510,26 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -5532,38 +5538,30 @@
         <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>18</v>
-      </c>
-      <c r="F29" s="5"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -5572,44 +5570,52 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D31" s="2">
+        <f>AVERAGE(D16:D28)</f>
+        <v>17.0769230769231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D16:D29)</f>
-        <v>17.1428571428571</v>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -5620,10 +5626,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -5634,10 +5640,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -5651,7 +5657,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -5665,7 +5671,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -5679,7 +5685,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -5709,8 +5715,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>15.7142857142857</v>
+        <f>AVERAGE(D34:D41)</f>
+        <v>15.875</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5720,8 +5726,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.4666666666667</v>
+        <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
+        <v>17.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5736,8 +5742,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6034,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6081,7 +6087,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -6095,7 +6101,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -6104,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6115,15 +6121,15 @@
         <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
@@ -6132,38 +6138,30 @@
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="5"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
@@ -6172,22 +6170,30 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="D35" s="2">
+        <f>AVERAGE(D19:D32)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <f>AVERAGE(D19:D33)</f>
-        <v>16.4666666666667</v>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -6195,7 +6201,7 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -6209,7 +6215,7 @@
         <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -6223,7 +6229,7 @@
         <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -6253,8 +6259,8 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D39:D41)</f>
-        <v>13.3333333333333</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>14.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6264,8 +6270,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
-        <v>16.2333333333333</v>
+        <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
+        <v>16.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6279,8 +6285,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6361,7 +6367,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -6370,26 +6376,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -6403,7 +6409,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6417,7 +6423,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -6431,37 +6437,45 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -6470,63 +6484,55 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>17.9090909090909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>15</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>17.5833333333333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -6540,7 +6546,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -6549,12 +6555,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -6563,26 +6569,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -6591,40 +6597,40 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -6653,20 +6659,20 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D18:D28)</f>
-        <v>16.0909090909091</v>
+        <f>AVERAGE(D19:D28)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -6677,10 +6683,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -6691,10 +6697,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -6708,7 +6714,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -6722,7 +6728,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -6733,10 +6739,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -6750,7 +6756,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -6764,7 +6770,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -6803,8 +6809,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.6</v>
+        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
@@ -6818,8 +6824,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6858,21 +6864,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -6881,12 +6887,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -6895,40 +6901,40 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -6942,7 +6948,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6956,7 +6962,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -6965,121 +6971,121 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>17.3636363636364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>20</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>17.2307692307692</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -7088,12 +7094,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -7102,40 +7108,40 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -7144,35 +7150,35 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7192,20 +7198,20 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D18:D28)</f>
-        <v>15.7272727272727</v>
+        <f>AVERAGE(D20:D28)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -7216,10 +7222,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -7230,10 +7236,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -7247,7 +7253,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -7261,7 +7267,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -7272,10 +7278,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -7289,7 +7295,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -7303,7 +7309,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -7342,8 +7348,8 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D12,D18:D28,D34:D41)</f>
-        <v>16.2666666666667</v>
+        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7365,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7514,13 +7520,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7528,7 +7534,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -7536,25 +7542,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>18</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -7562,19 +7562,25 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C11:C20)</f>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C11:C19)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
         <v>17</v>
       </c>
     </row>
@@ -7607,8 +7613,8 @@
         <v>13</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>13</v>
+        <f>AVERAGE(C25:C26)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7619,7 +7625,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
+        <f>AVERAGE(C2:C5,C11:C19,C25:C26)</f>
         <v>17.2</v>
       </c>
     </row>
@@ -7632,10 +7638,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7769,7 +7775,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -7780,25 +7786,19 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
@@ -7806,87 +7806,87 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C12:C17)</f>
-        <v>16.6666666666667</v>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C12:C16)</f>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>15</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -7894,32 +7894,27 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C23:C28)</f>
+      <c r="C30" s="3">
+        <f>AVERAGE(C22:C27)</f>
         <v>16.1666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C6,C12:C17,C23:C28)</f>
-        <v>17.4117647058824</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C6,C12:C16,C22:C27)</f>
+        <v>17.4375</v>
       </c>
     </row>
   </sheetData>
@@ -7931,10 +7926,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7968,7 +7963,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7979,7 +7974,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -8111,25 +8106,19 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -8137,20 +8126,26 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
-        <v>14.8333333333333</v>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C15:C19)</f>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8161,19 +8156,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -8181,32 +8170,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C27)</f>
-        <v>15.0625</v>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
+        <v>15.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8235,7 +8219,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8247,12 +8231,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8264,63 +8248,63 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -8332,32 +8316,32 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -8366,12 +8350,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -8383,12 +8367,12 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -8400,29 +8384,29 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -8434,15 +8418,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -8451,15 +8435,15 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -8468,15 +8452,15 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -8485,15 +8469,15 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -8507,13 +8491,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -8524,13 +8508,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -8541,13 +8525,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -8558,13 +8542,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -8765,7 +8749,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -8782,7 +8766,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -8791,7 +8775,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8799,7 +8783,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -8808,7 +8792,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8816,7 +8800,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -8825,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8836,13 +8820,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8850,21 +8834,21 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -8876,15 +8860,15 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -8893,15 +8877,15 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -8910,12 +8894,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -8927,15 +8911,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -8944,12 +8928,12 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -8961,15 +8945,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -8978,12 +8962,12 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -8995,15 +8979,15 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
@@ -9012,15 +8996,15 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -9029,15 +9013,15 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -9046,32 +9030,32 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
@@ -9080,15 +9064,15 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -9097,15 +9081,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -9114,15 +9098,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -9131,15 +9115,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -9148,15 +9132,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -9165,15 +9149,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -9182,15 +9166,15 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
@@ -9199,15 +9183,15 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
@@ -9216,15 +9200,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
@@ -9233,15 +9217,15 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -9250,15 +9234,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -9267,15 +9251,15 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -9284,32 +9268,32 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -9318,15 +9302,15 @@
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -9335,15 +9319,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -9352,15 +9336,15 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -9369,15 +9353,15 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -9386,15 +9370,15 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
@@ -9403,15 +9387,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
@@ -9420,15 +9404,15 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -9437,15 +9421,15 @@
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -9454,15 +9438,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -9471,15 +9455,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -9488,15 +9472,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -9505,15 +9489,15 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -9522,15 +9506,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -9539,15 +9523,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -9556,15 +9540,15 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -9573,15 +9557,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -9590,15 +9574,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -9607,15 +9591,15 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -9624,15 +9608,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
@@ -9641,15 +9625,15 @@
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -9658,15 +9642,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -9675,15 +9659,15 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -9692,15 +9676,15 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -9709,15 +9693,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
@@ -9726,15 +9710,15 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -9743,15 +9727,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
@@ -9760,15 +9744,15 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
@@ -9777,15 +9761,15 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -9794,7 +9778,7 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="9345" activeTab="3"/>
+    <workbookView windowWidth="14940" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -103,205 +103,205 @@
     <t>学仆-脉冲型</t>
   </si>
   <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>流星-7号</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>春花使者·卡洛琳</t>
+  </si>
+  <si>
+    <t>武圣·云长</t>
+  </si>
+  <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>执剑道者</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>逍遥琴师</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>执剑道人</t>
+  </si>
+  <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
     <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>流星-7号</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>春花使者·卡洛琳</t>
-  </si>
-  <si>
-    <t>武圣·云长</t>
-  </si>
-  <si>
-    <t>树木之怒</t>
-  </si>
-  <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>飓风术</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>逍遥琴师</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>执剑道人</t>
-  </si>
-  <si>
-    <t>鬼童-7号</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
   </si>
   <si>
     <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
@@ -2150,8 +2150,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2322,7 +2322,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.3333333333333</v>
+        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2392,21 +2392,21 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2434,12 +2434,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -2448,12 +2448,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -2538,20 +2538,20 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>16.9285714285714</v>
+        <v>16.7142857142857</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -2618,10 +2618,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -2661,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -2671,11 +2671,11 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.4333333333333</v>
+        <v>17.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +2705,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2717,12 +2717,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>232</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>235</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>237</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>239</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>241</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>243</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>246</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>248</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>250</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>252</v>
@@ -2909,27 +2909,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>254</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>256</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
         <v>258</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>260</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>262</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>264</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>266</v>
@@ -3096,13 +3096,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>268</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3113,13 +3113,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -3164,13 +3164,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>272</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -3286,7 +3286,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -3323,7 +3323,7 @@
         <v>284</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3340,7 +3340,7 @@
         <v>286</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -3456,10 +3456,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -3476,7 +3476,7 @@
         <v>301</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -3510,7 +3510,7 @@
         <v>305</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -3629,7 +3629,7 @@
         <v>317</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3646,7 +3646,7 @@
         <v>319</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -3663,7 +3663,7 @@
         <v>321</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -3697,7 +3697,7 @@
         <v>325</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -3799,7 +3799,7 @@
         <v>337</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -3816,7 +3816,7 @@
         <v>339</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -3859,7 +3859,7 @@
         <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
         <v>342</v>
@@ -3882,7 +3882,7 @@
         <v>347</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -3903,7 +3903,7 @@
         <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -3963,7 +3963,7 @@
         <v>352</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -3981,7 +3981,7 @@
         <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -4020,7 +4020,7 @@
         <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -4038,7 +4038,7 @@
         <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -4056,7 +4056,7 @@
         <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -4074,7 +4074,7 @@
         <v>357</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -4095,7 +4095,7 @@
         <v>358</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -4110,10 +4110,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -4149,7 +4149,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -4170,7 +4170,7 @@
         <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -4206,7 +4206,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -4224,7 +4224,7 @@
         <v>246</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -4242,7 +4242,7 @@
         <v>252</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -4278,7 +4278,7 @@
         <v>258</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -4317,7 +4317,7 @@
         <v>360</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>99</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>99</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>99</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>99</v>
@@ -4882,7 +4882,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5198,8 +5198,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5370,7 +5370,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.3333333333333</v>
+        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5440,21 +5440,21 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5482,12 +5482,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -5496,12 +5496,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -5574,20 +5574,20 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D16:D28)</f>
-        <v>17.0769230769231</v>
+        <v>16.8461538461538</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -5626,10 +5626,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -5640,10 +5640,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>5</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -5682,10 +5682,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -5711,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -5721,13 +5721,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
-        <v>17.4333333333333</v>
+        <v>17.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -5742,8 +5742,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -5998,21 +5998,21 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6040,12 +6040,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -6082,26 +6082,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -6110,18 +6110,18 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>15</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -6174,20 +6174,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D19:D32)</f>
-        <v>16.5</v>
+        <v>16.3571428571429</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -6212,10 +6212,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -6255,7 +6255,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -6265,13 +6265,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.2666666666667</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -6285,8 +6285,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -6451,37 +6451,45 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -6490,63 +6498,55 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17.5833333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>15</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>17.2307692307692</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -6569,12 +6569,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -6659,20 +6659,20 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <f>AVERAGE(D19:D28)</f>
+        <f>AVERAGE(D20:D28)</f>
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -6739,10 +6739,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -6753,10 +6753,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -6767,10 +6767,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -6796,7 +6796,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -6806,11 +6806,11 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
-        <v>16.5</v>
+        <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>
@@ -6824,8 +6824,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -7122,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7133,15 +7133,15 @@
         <v>15</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -7150,35 +7150,35 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7198,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -7208,10 +7208,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
@@ -7222,10 +7222,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -7278,10 +7278,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -7335,7 +7335,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -7345,7 +7345,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
@@ -7362,10 +7362,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7482,18 +7482,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7515,26 +7515,26 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -7542,19 +7542,25 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -7562,43 +7568,43 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C11:C19)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17</v>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C11:C20)</f>
+        <v>16.7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -7606,27 +7612,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C5,C11:C19,C25:C26)</f>
-        <v>17.2</v>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C5,C11:C20,C26:C27)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7638,10 +7649,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7681,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7736,7 +7747,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -7767,7 +7778,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
         <v>16</v>
@@ -7775,25 +7786,19 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
@@ -7801,20 +7806,26 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2">
-        <f>AVERAGE(C12:C16)</f>
-        <v>16.6</v>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <f>AVERAGE(C12:C15)</f>
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7822,10 +7833,10 @@
         <v>59</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7836,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7844,10 +7855,10 @@
         <v>61</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7855,10 +7866,10 @@
         <v>62</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7866,22 +7877,16 @@
         <v>63</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -7889,32 +7894,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C21:C26)</f>
+        <v>16.1666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C22:C27)</f>
-        <v>16.1666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C6,C12:C16,C22:C27)</f>
-        <v>17.4375</v>
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C6,C12:C15,C21:C26)</f>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -8130,7 +8130,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C15:C19)</f>
@@ -8139,7 +8139,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -8174,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
@@ -8219,7 +8219,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -8231,12 +8231,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -8248,63 +8248,63 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -8316,32 +8316,32 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -8350,12 +8350,12 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -8367,12 +8367,12 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -8384,32 +8384,32 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -8423,10 +8423,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
@@ -8457,10 +8457,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -8491,13 +8491,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -8508,13 +8508,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -8525,13 +8525,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -8542,13 +8542,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -8749,7 +8749,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -8783,7 +8783,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -8800,7 +8800,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -8817,10 +8817,10 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -8837,7 +8837,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -8851,7 +8851,7 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -8868,7 +8868,7 @@
         <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -8885,7 +8885,7 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -8902,7 +8902,7 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -8936,7 +8936,7 @@
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -8970,7 +8970,7 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
@@ -9038,10 +9038,10 @@
         <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -9279,7 +9279,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
         <v>4</v>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="9345" activeTab="1"/>
+    <workbookView windowWidth="15180" windowHeight="9930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2151,7 +2151,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2322,7 +2322,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.4444444444444</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2406,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2543,7 +2543,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>16.7142857142857</v>
+        <v>16.5714285714286</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2613,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2627,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2666,7 +2666,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.3666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5198,8 +5198,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5247,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5370,7 +5370,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.4444444444444</v>
+        <v>19.3333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5454,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5496,7 +5496,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5579,7 +5579,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D16:D28)</f>
-        <v>16.8461538461538</v>
+        <v>16.6923076923077</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5649,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -5663,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -5716,7 +5716,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.875</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5727,7 +5727,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
-        <v>17.3666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5742,8 +5742,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6012,7 +6012,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6054,7 +6054,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6179,7 +6179,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D19:D32)</f>
-        <v>16.3571428571429</v>
+        <v>16.2142857142857</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6235,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6260,7 +6260,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6271,7 +6271,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.2</v>
+        <v>16.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6285,8 +6285,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6748,7 +6748,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6801,7 +6801,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4</v>
+        <v>16.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -6825,7 +6825,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7287,7 +7287,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7340,7 +7340,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>15.5</v>
+        <v>15.625</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4</v>
+        <v>16.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -7364,8 +7364,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7526,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7603,7 +7603,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C26:C27)</f>
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C27)</f>
-        <v>17</v>
+        <v>16.9375</v>
       </c>
     </row>
   </sheetData>
@@ -7651,8 +7651,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7692,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -7858,7 +7858,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C21:C26)</f>
-        <v>16.1666666666667</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7929,7 +7929,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="9930" activeTab="5"/>
+    <workbookView windowWidth="15450" windowHeight="10515" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
     <sheet name="伊萝莲" sheetId="1" r:id="rId2"/>
     <sheet name="洛" sheetId="11" r:id="rId3"/>
     <sheet name="白处尊" sheetId="4" r:id="rId4"/>
-    <sheet name="梅" sheetId="3" r:id="rId5"/>
-    <sheet name="隐秘" sheetId="6" r:id="rId6"/>
-    <sheet name="帝国" sheetId="5" r:id="rId7"/>
-    <sheet name="禅意" sheetId="7" r:id="rId8"/>
-    <sheet name="洞察表" sheetId="14" r:id="rId9"/>
-    <sheet name="护甲表" sheetId="19" r:id="rId10"/>
-    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId11"/>
-    <sheet name="卡等需求" sheetId="17" r:id="rId12"/>
+    <sheet name="亚芬戴克斯" sheetId="21" r:id="rId5"/>
+    <sheet name="梅" sheetId="3" r:id="rId6"/>
+    <sheet name="隐秘" sheetId="6" r:id="rId7"/>
+    <sheet name="帝国" sheetId="5" r:id="rId8"/>
+    <sheet name="禅意" sheetId="7" r:id="rId9"/>
+    <sheet name="港口" sheetId="20" r:id="rId10"/>
+    <sheet name="洞察表" sheetId="14" r:id="rId11"/>
+    <sheet name="护甲表" sheetId="19" r:id="rId12"/>
+    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId13"/>
+    <sheet name="卡等需求" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="388">
   <si>
     <t>名称</t>
   </si>
@@ -202,6 +204,45 @@
     <t>上宝沁金耙</t>
   </si>
   <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>暗潮涌动</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>海燕精卫</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>沙滩派对·鲍莉</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
     <t>执剑道人</t>
   </si>
   <si>
@@ -244,6 +285,12 @@
     <t>禅意卡等：</t>
   </si>
   <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
     <t>种族</t>
   </si>
   <si>
@@ -469,9 +516,6 @@
     <t>海港</t>
   </si>
   <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
     <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
   </si>
   <si>
@@ -487,9 +531,6 @@
     <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
   </si>
   <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
     <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
   </si>
   <si>
@@ -499,15 +540,9 @@
     <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
   </si>
   <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
     <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
   </si>
   <si>
-    <t>不法交易</t>
-  </si>
-  <si>
     <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
   </si>
   <si>
@@ -523,9 +558,6 @@
     <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
   </si>
   <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
     <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
   </si>
   <si>
@@ -545,9 +577,6 @@
   </si>
   <si>
     <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
   </si>
   <si>
     <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
@@ -2150,8 +2179,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2199,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2322,7 +2351,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.3333333333333</v>
+        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2406,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2543,7 +2572,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>16.5714285714286</v>
+        <v>16.6428571428571</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2675,7 +2704,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.3333333333333</v>
+        <v>17.4</v>
       </c>
     </row>
   </sheetData>
@@ -2686,6 +2715,1876 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>8.55555555555556</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C16:C19)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>7.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="158.758333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E78"/>
@@ -2705,7 +4604,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2717,32 +4616,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -2751,15 +4650,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -2768,15 +4667,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -2785,15 +4684,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -2802,15 +4701,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -2819,12 +4718,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2836,15 +4735,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -2853,15 +4752,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -2870,15 +4769,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -2887,15 +4786,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -2904,15 +4803,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -2921,15 +4820,15 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -2938,15 +4837,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -2955,15 +4854,15 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -2972,15 +4871,15 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -2989,15 +4888,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -3006,15 +4905,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -3023,15 +4922,15 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -3040,15 +4939,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -3057,15 +4956,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -3074,15 +4973,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -3091,15 +4990,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -3108,12 +5007,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -3125,12 +5024,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -3142,12 +5041,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
@@ -3159,15 +5058,15 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>28</v>
@@ -3176,15 +5075,15 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -3193,15 +5092,15 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3210,15 +5109,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -3227,15 +5126,15 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -3244,15 +5143,15 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -3261,15 +5160,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -3278,12 +5177,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -3295,15 +5194,15 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -3312,15 +5211,15 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>28</v>
@@ -3329,15 +5228,15 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>28</v>
@@ -3346,15 +5245,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -3363,15 +5262,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3380,15 +5279,15 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -3397,15 +5296,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -3414,15 +5313,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -3431,15 +5330,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -3448,12 +5347,12 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -3465,15 +5364,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>28</v>
@@ -3482,15 +5381,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -3499,15 +5398,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>28</v>
@@ -3516,15 +5415,15 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -3533,15 +5432,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -3550,15 +5449,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -3567,15 +5466,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
@@ -3584,15 +5483,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -3601,15 +5500,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -3618,15 +5517,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>28</v>
@@ -3635,15 +5534,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>28</v>
@@ -3652,15 +5551,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>28</v>
@@ -3669,15 +5568,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -3686,15 +5585,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>28</v>
@@ -3703,15 +5602,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -3720,15 +5619,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -3737,15 +5636,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -3754,15 +5653,15 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
@@ -3771,15 +5670,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -3788,15 +5687,15 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>28</v>
@@ -3805,15 +5704,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>28</v>
@@ -3822,7 +5721,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G56"/>
@@ -3856,33 +5755,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -3895,15 +5794,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3916,18 +5815,18 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -3942,10 +5841,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -3960,10 +5859,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -3978,10 +5877,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -3994,7 +5893,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4002,7 +5901,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -4017,10 +5916,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -4035,10 +5934,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -4053,10 +5952,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -4071,10 +5970,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -4087,15 +5986,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -4110,10 +6009,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -4128,10 +6027,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -4146,10 +6045,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -4162,15 +6061,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -4188,7 +6087,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -4206,7 +6105,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -4221,10 +6120,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -4239,10 +6138,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -4260,7 +6159,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -4275,10 +6174,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -4293,10 +6192,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -4309,15 +6208,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -4330,15 +6229,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -4351,15 +6250,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -4372,15 +6271,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -4393,15 +6292,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -4416,10 +6315,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -4432,15 +6331,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -4455,10 +6354,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -4471,15 +6370,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -4492,15 +6391,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -4513,7 +6412,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4521,7 +6420,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -4534,15 +6433,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -4557,10 +6456,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -4578,7 +6477,7 @@
         <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -4591,7 +6490,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4599,7 +6498,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -4612,7 +6511,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4620,7 +6519,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -4633,15 +6532,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -4654,18 +6553,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G45" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -4678,15 +6577,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -4704,7 +6603,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -4722,7 +6621,7 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -4740,7 +6639,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -4753,15 +6652,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -4774,15 +6673,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -4797,10 +6696,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -4815,10 +6714,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -4831,15 +6730,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -4854,10 +6753,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -4876,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
@@ -4895,16 +6794,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5198,8 +7097,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5247,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5370,7 +7269,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <f>AVERAGE(D2:D10)</f>
-        <v>19.3333333333333</v>
+        <v>19.4444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5454,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5579,7 +7478,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D16:D28)</f>
-        <v>16.6923076923077</v>
+        <v>16.7692307692308</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5727,7 +7626,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
-        <v>17.3333333333333</v>
+        <v>17.4</v>
       </c>
     </row>
   </sheetData>
@@ -5742,8 +7641,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6012,7 +7911,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6179,7 +8078,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D19:D32)</f>
-        <v>16.2142857142857</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6271,7 +8170,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.1666666666667</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -6285,8 +8184,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6334,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6513,7 +8412,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.2307692307692</v>
+        <v>17.3076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6810,7 +8709,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4333333333333</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6824,8 +8723,553 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>AVERAGE(D2:D15)</f>
+        <v>12.6428571428571</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <f>AVERAGE(D21:D28)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D34:D41)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
+        <v>12.4333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6873,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6948,7 +9392,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -7052,7 +9496,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.2307692307692</v>
+        <v>17.3076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7349,7 +9793,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4333333333333</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7359,13 +9803,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7493,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7581,12 +10025,12 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -7597,7 +10041,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -7633,11 +10077,11 @@
         <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C27)</f>
-        <v>16.9375</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7646,13 +10090,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7692,7 +10136,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7747,7 +10191,7 @@
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(C2:C6)</f>
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -7819,7 +10263,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -7830,7 +10274,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
@@ -7841,7 +10285,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
@@ -7852,7 +10296,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -7863,7 +10307,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3">
         <v>6</v>
@@ -7874,7 +10318,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
         <v>8</v>
@@ -7910,11 +10354,11 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C15,C21:C26)</f>
-        <v>17.6</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7923,13 +10367,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G7" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8139,7 +10583,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -8150,7 +10594,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -8186,1599 +10630,11 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
         <v>15.2666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="158.758333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>171</v>
-      </c>
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>171</v>
-      </c>
-      <c r="B75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>184</v>
-      </c>
-      <c r="B80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>184</v>
-      </c>
-      <c r="B81" t="s">
-        <v>187</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>184</v>
-      </c>
-      <c r="B82" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>184</v>
-      </c>
-      <c r="B85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86" t="s">
-        <v>197</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>184</v>
-      </c>
-      <c r="B91" t="s">
-        <v>207</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>217</v>
-      </c>
-      <c r="B98" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>217</v>
-      </c>
-      <c r="B102" t="s">
-        <v>226</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>217</v>
-      </c>
-      <c r="B103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104">
-        <v>6</v>
-      </c>
-      <c r="E104" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="10515" activeTab="5"/>
+    <workbookView windowWidth="15450" windowHeight="10515" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2719,8 +2719,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2859,11 +2859,9 @@
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>8.55555555555556</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
+        <v>12</v>
+      </c>
+    </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>61</v>
@@ -2872,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2883,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2894,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2905,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2927,11 +2925,9 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C16:C19)</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
+        <v>12</v>
+      </c>
+    </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>81</v>
@@ -2940,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2951,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2973,11 +2969,9 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
+        <v>12</v>
+      </c>
+    </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>36</v>
@@ -2987,7 +2981,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>7.2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8723,8 +8717,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8786,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8800,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8814,7 +8808,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8828,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8842,7 +8836,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8856,7 +8850,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8898,7 +8892,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8912,7 +8906,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8926,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8965,11 +8959,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>12.6428571428571</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
+        <v>14.8571428571429</v>
+      </c>
+    </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>14</v>
@@ -9009,7 +9001,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9023,7 +9015,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9037,7 +9029,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9065,7 +9057,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9104,11 +9096,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D21:D28)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
+        <v>14.375</v>
+      </c>
+    </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>27</v>
@@ -9134,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9176,7 +9166,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9243,18 +9233,16 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D34:D41)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>12.4333333333333</v>
+        <v>14.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9268,7 +9256,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15450" windowHeight="10515" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="473">
   <si>
     <t>名称</t>
   </si>
@@ -513,469 +513,724 @@
     <t>(16/26)：【洞察2】、命中:【洞察2】、洞察时:全体友军+2/+5，全体敌军-2/-2。（皮肤：登场时：本回合获得【穿透】。）</t>
   </si>
   <si>
+    <t>港口</t>
+  </si>
+  <si>
+    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
+  </si>
+  <si>
+    <t>黑夜射手</t>
+  </si>
+  <si>
+    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
+  </si>
+  <si>
+    <t>亡命之徒</t>
+  </si>
+  <si>
+    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
+  </si>
+  <si>
+    <t>传记学者</t>
+  </si>
+  <si>
+    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
+  </si>
+  <si>
+    <t>走私狂徒</t>
+  </si>
+  <si>
+    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
+  </si>
+  <si>
+    <t>异域驯兽使</t>
+  </si>
+  <si>
+    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
+  </si>
+  <si>
+    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>无情夺命客</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
+  </si>
+  <si>
+    <t>红海领航员</t>
+  </si>
+  <si>
+    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
+  </si>
+  <si>
+    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
+  </si>
+  <si>
+    <t>炼狱</t>
+  </si>
+  <si>
+    <t>地狱刀吏</t>
+  </si>
+  <si>
+    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
+  </si>
+  <si>
+    <t>嗜血妖蛾</t>
+  </si>
+  <si>
+    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
+  </si>
+  <si>
+    <t>猩红勇士</t>
+  </si>
+  <si>
+    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>(22/45)：【洞察1】、【二连击】。</t>
+  </si>
+  <si>
+    <t>狱铠战魂</t>
+  </si>
+  <si>
+    <t>(24/10)：【洞察1】、【护甲30】。</t>
+  </si>
+  <si>
+    <t>地狱三头犬</t>
+  </si>
+  <si>
+    <t>(24/64)：【洞察2】、【三连击】。</t>
+  </si>
+  <si>
+    <t>蛮石</t>
+  </si>
+  <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
+  </si>
+  <si>
+    <t>痴蛮野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
+  </si>
+  <si>
+    <t>高原卫士</t>
+  </si>
+  <si>
+    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
+  </si>
+  <si>
+    <t>盘旋秃鹰</t>
+  </si>
+  <si>
+    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
+  </si>
+  <si>
+    <t>寻路斥候</t>
+  </si>
+  <si>
+    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
+  </si>
+  <si>
+    <t>厚皮河马</t>
+  </si>
+  <si>
+    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
+  </si>
+  <si>
+    <t>机敏雀鹰</t>
+  </si>
+  <si>
+    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
+  </si>
+  <si>
+    <t>原野狂战士</t>
+  </si>
+  <si>
+    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
+  </si>
+  <si>
+    <t>生命源力</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
+  </si>
+  <si>
+    <t>雪原野人</t>
+  </si>
+  <si>
+    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
+  </si>
+  <si>
+    <t>鼓舞图腾</t>
+  </si>
+  <si>
+    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
+  </si>
+  <si>
+    <t>迷茫巨人</t>
+  </si>
+  <si>
+    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
+  </si>
+  <si>
+    <t>象牙少女</t>
+  </si>
+  <si>
+    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
+  </si>
+  <si>
+    <t>冬神</t>
+  </si>
+  <si>
+    <t>寒铁军士</t>
+  </si>
+  <si>
+    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
+  </si>
+  <si>
+    <t>寒风草人</t>
+  </si>
+  <si>
+    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
+  </si>
+  <si>
+    <t>严冬苦行僧</t>
+  </si>
+  <si>
+    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
+  </si>
+  <si>
+    <t>神庙祭师</t>
+  </si>
+  <si>
+    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
+  </si>
+  <si>
+    <t>冬夜使者</t>
+  </si>
+  <si>
+    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
+  </si>
+  <si>
+    <t>极夜阴魂</t>
+  </si>
+  <si>
+    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
+  </si>
+  <si>
+    <t>冰河世纪</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>描述（13星效果）</t>
+  </si>
+  <si>
+    <t>遗迹宝剑</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>【回合3】随机友军+21/+42，获得【回命】、【洞察1】。</t>
+  </si>
+  <si>
+    <t>禁卫之矛</t>
+  </si>
+  <si>
+    <t>【回合4】召唤【禁卫指挥官-lv18】。</t>
+  </si>
+  <si>
+    <t>遗迹地图</t>
+  </si>
+  <si>
+    <t>宝物</t>
+  </si>
+  <si>
+    <t>【回合1结束】获得【增援战线-lv20】，召唤【小镇民兵-lv14】。</t>
+  </si>
+  <si>
+    <t>韧皮箭囊</t>
+  </si>
+  <si>
+    <t>【回合2】后排位置召唤【塔楼弓手-lv16】。</t>
+  </si>
+  <si>
+    <t>光明徽记</t>
+  </si>
+  <si>
+    <t>【回合2结束】获得【光明惩戒-lv20】，召唤【小镇民兵-lv20】。</t>
+  </si>
+  <si>
+    <t>征收官之帽</t>
+  </si>
+  <si>
+    <t>【回合4】召唤【白头狮鹫-lv15】、【圣殿卫士-lv15】、【警卫-lv15】。</t>
+  </si>
+  <si>
+    <t>星界银剑</t>
+  </si>
+  <si>
+    <t>【回合1】获得【破魔系教授-lv20】，随机敌军攻击-12并沉默。</t>
+  </si>
+  <si>
+    <t>脉冲袖箭</t>
+  </si>
+  <si>
+    <t>【回合2】召唤【学仆-脉冲型-lv18】。</t>
+  </si>
+  <si>
+    <t>观星者</t>
+  </si>
+  <si>
+    <t>【回合2结束】召唤【方尖魔碑-lv18】，获得【学仆-基础型-lv18】。</t>
+  </si>
+  <si>
+    <t>纯净紫钻</t>
+  </si>
+  <si>
+    <t>【回合2结束】召唤【幻域秘树-lv17】。</t>
+  </si>
+  <si>
+    <t>遥控装置</t>
+  </si>
+  <si>
+    <t>【回合2】后排位置召唤【学仆-猛禽型-lv16】、【洞察1】。</t>
+  </si>
+  <si>
+    <t>晚星</t>
+  </si>
+  <si>
+    <t>【回合1】获得【白首魔根-lv20】和【真理碎片】，随机敌军攻击-25。</t>
+  </si>
+  <si>
+    <t>方舟密钥</t>
+  </si>
+  <si>
+    <t>【回合5】中排位置召唤【米拉方舟-lv18】，3个敌军攻击-4。</t>
+  </si>
+  <si>
+    <t>铜钱宝剑</t>
+  </si>
+  <si>
+    <t>【回合2结束】获得【铁山靠-lv16】，随机友军生命+21。</t>
+  </si>
+  <si>
+    <t>神机木拐</t>
+  </si>
+  <si>
+    <t>【回合1】召唤并获得【箭竹守卫-lv20】、【洞察1】。</t>
+  </si>
+  <si>
+    <t>无极盘龙棍</t>
+  </si>
+  <si>
+    <t>【回合2】后排随机位置召唤【驱魔道人-lv20】、【洞察1】、随机友军+2/+2。</t>
+  </si>
+  <si>
+    <t>翡翠玉佩</t>
+  </si>
+  <si>
+    <t>【回合1结束】获得【蟠桃会-lv20】和2个【仙桃-lv20】。</t>
+  </si>
+  <si>
+    <t>聚宝盆</t>
+  </si>
+  <si>
+    <t>【回合3结束】前排位置召唤【摇钱尊者-lv18】，3个友军生命+9。</t>
+  </si>
+  <si>
+    <t>掠夺弯刀</t>
+  </si>
+  <si>
+    <t>【回合2】召唤【沙漠骆驼-lv17】、【洞察1】。</t>
+  </si>
+  <si>
+    <t>矿工锄</t>
+  </si>
+  <si>
+    <t>【回合2结束】后排位置召唤【热血矿工-lv20】。</t>
+  </si>
+  <si>
+    <t>船长双刀</t>
+  </si>
+  <si>
+    <t>【回合1】后排随机位置召唤【亡命之徒-lv20】，敌方英雄生命-10，本回合【禁疗】。</t>
+  </si>
+  <si>
+    <t>红海魔爪</t>
+  </si>
+  <si>
+    <t>【回合4】召唤【红海领航员-lv20】，全体友军获得【先攻】1回合。</t>
+  </si>
+  <si>
+    <t>黑旗号角</t>
+  </si>
+  <si>
+    <t>【回合1】前排随机位置召唤【斑毛幼猪-lv20】，英雄生命+33、【洞察1】。</t>
+  </si>
+  <si>
+    <t>逆旅披风</t>
+  </si>
+  <si>
+    <t>【回合1结束】后排位置召唤【无情夺命客-lv18】，敌方随机位置坠落7点伤害。</t>
+  </si>
+  <si>
+    <t>海洋之耀</t>
+  </si>
+  <si>
+    <t>【回合2】召唤【红海猎魔人-lv20】，获得【排箭攻击-lv20】。</t>
+  </si>
+  <si>
+    <t>恶鬼匕首</t>
+  </si>
+  <si>
+    <t>【回合3】2个随机友军攻击+28、【洞察1】。</t>
+  </si>
+  <si>
+    <t>炼狱长鞭</t>
+  </si>
+  <si>
+    <t>【回合3】你的英雄生命-10，召唤【地狱三头犬-lv18】，全体连击友军获得【磐龙】。</t>
+  </si>
+  <si>
+    <t>阴影罩帽</t>
+  </si>
+  <si>
+    <t>【回合1】获得【狱铠战魂-lv20】，随机敌军攻击-20。</t>
+  </si>
+  <si>
+    <t>富饶权杖</t>
+  </si>
+  <si>
+    <t>【回合3】随机友军+14/+22、【洞察2】。</t>
+  </si>
+  <si>
+    <t>隼之弓</t>
+  </si>
+  <si>
+    <t>【回合2】召唤【机敏雀鹰-lv20】。</t>
+  </si>
+  <si>
+    <t>好运之弓</t>
+  </si>
+  <si>
+    <t>【回合1】召唤【蓄力射手-lv20】、【洞察1】、随机友军+1/+1。</t>
+  </si>
+  <si>
+    <t>原野呼唤</t>
+  </si>
+  <si>
+    <t>【回合3结束】后排位置召唤【象牙少女-lv20】。</t>
+  </si>
+  <si>
+    <t>角斗士徽记</t>
+  </si>
+  <si>
+    <t>【回合1】获得【痴蛮野人-lv20】，随机友军+8/+8。</t>
+  </si>
+  <si>
+    <t>兽骨戒</t>
+  </si>
+  <si>
+    <t>【回合2】中排随机位置召唤【噬人花-lv16】、【洞察1】、全体单位受到1点伤害。</t>
+  </si>
+  <si>
+    <t>高原角笛</t>
+  </si>
+  <si>
+    <t>【回合3】召唤【高原守卫-lv20】，全场生物受到1点伤害。</t>
+  </si>
+  <si>
+    <t>部族图腾</t>
+  </si>
+  <si>
+    <t>【回合1结束】后排随机位置召唤【旷野祭师-lv16】，2个随机友军+3/+3。</t>
+  </si>
+  <si>
+    <t>寒铁盔</t>
+  </si>
+  <si>
+    <t>【回合2】召唤【寒铁军士-lv19】。</t>
+  </si>
+  <si>
+    <t>巫妖魂器</t>
+  </si>
+  <si>
+    <t>【回合2结束】召唤【严寒苦行僧-lv20】，冰封敌方随机2个位置。</t>
+  </si>
+  <si>
+    <t>冰晶雕像</t>
+  </si>
+  <si>
+    <t>【回合1】获得【神庙祭师-lv20】，召唤【冻尸-lv20】。</t>
+  </si>
+  <si>
+    <t>雪隐珠</t>
+  </si>
+  <si>
+    <t>【回合2结束】中排位置召唤【雪隐长老灵-lv20】，获得【寒风草人-lv12】。</t>
+  </si>
+  <si>
+    <t>圣堂门卫</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>(3/60)：【护甲3】。</t>
+  </si>
+  <si>
+    <t>重装固守</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军+8/+26，若他有护甲，则护甲+6并获得【磐龙】、抽一张牌。</t>
+  </si>
+  <si>
+    <t>圣甲先锋</t>
+  </si>
+  <si>
+    <t>(24/24)：【护甲6】、命中英雄:手上一张护甲生物卡法力-1（次数上限:2）。</t>
+  </si>
+  <si>
+    <t>盾甲禁卫</t>
+  </si>
+  <si>
+    <t>(29/24)：【护甲10】。</t>
+  </si>
+  <si>
+    <t>信念雕像</t>
+  </si>
+  <si>
+    <t>(15/50)：【守军】、【护甲8】、回合开始:另一友军生命+X（等同攻击）。</t>
+  </si>
+  <si>
+    <t>圣殿精英</t>
+  </si>
+  <si>
+    <t>(22/45)：【协战16】、【护甲3】。</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、【魔免】、登场:全体友军+7/+7、当前回合:护甲和魔防+7、回合结束:四个友军+1/+7</t>
+  </si>
+  <si>
+    <t>传记·钢铁守卫</t>
+  </si>
+  <si>
+    <t>(传记)：前排位置召唤圣堂门卫-lv18、获得【传记·钢铁赞歌】。</t>
+  </si>
+  <si>
+    <t>流星斗士</t>
+  </si>
+  <si>
+    <t>(24/24)：【护甲4】、【协战8】、死亡:向对面横排，投掷流星锤。</t>
+  </si>
+  <si>
+    <t>传记·钢铁赞歌</t>
+  </si>
+  <si>
+    <t>(传记)：召唤圣堂门卫-lv20，随机护甲友军获得【魂歌】、获得【传记·钢铁意志】。</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>(27/42)：【护甲6】、【回命】、【协战10】。</t>
+  </si>
+  <si>
+    <t>钢铁大师</t>
+  </si>
+  <si>
+    <t>(27/70)：【护甲10】、回合结束:全体护甲友军攻击+10。</t>
+  </si>
+  <si>
+    <t>传记·钢铁意志</t>
+  </si>
+  <si>
+    <t>(传记)：全体护甲友军+17/+17，护甲+6，获得【神佑】1回合。</t>
+  </si>
+  <si>
+    <t>禁卫百夫长</t>
+  </si>
+  <si>
+    <t>(36/50)：【磐龙】、【护甲18】、【协战14】。</t>
+  </si>
+  <si>
+    <t>光明圣骑士</t>
+  </si>
+  <si>
+    <t>(50/50)：【护甲11】、登场:英雄生命+50</t>
+  </si>
+  <si>
+    <t>皇家狮鹫</t>
+  </si>
+  <si>
+    <t>(50/36)：【回命】、【护甲9】、登场:召唤32/18白头狮鹫-lv20，吹飞随机敌军。</t>
+  </si>
+  <si>
+    <t>破城者·阿基琉斯</t>
+  </si>
+  <si>
+    <t>(0/180)：【迟缓】、【磐龙】、【践踏】、【护甲20】、【协战50】。</t>
+  </si>
+  <si>
+    <t>荣光堡垒</t>
+  </si>
+  <si>
+    <t>(0/220)：【磐龙】、【守军】、【护甲9】、回合结束:炮击敌横排随机区域32点伤害，炮击2次。</t>
+  </si>
+  <si>
+    <t>蔚蓝幻梦·卡洛琳</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：回合开始：另一护甲友军+3/+3，魔防+5，获得【磐龙】。）</t>
+  </si>
+  <si>
+    <t>(30/65)：【磐龙】、【践踏】、【护甲8】、【协战20】。（皮肤：登场：护甲友军获得【神佑】1回合、莱哈特在场：全体友军获得【协战1】。）</t>
+  </si>
+  <si>
+    <t>(33/80)：【磐龙】、【护甲8】、回合开始:全体护甲友军+10/+10，获得【连击】3回合。（皮肤：登场：横排敌军眩晕1回合，斩击横排随机敌军，无敌军则斩击英雄（伤害：护甲友军数量x自身等级，无视神佑和魔免）。）</t>
+  </si>
+  <si>
+    <t>司莫斯的光明要塞</t>
+  </si>
+  <si>
+    <t>(0/300)：【魔免】、【护甲18】、回合结束:炮击横排随机区域110点伤害（无视【神佑】和【魔免】）。</t>
+  </si>
+  <si>
+    <t>黑曜石像鬼</t>
+  </si>
+  <si>
+    <t>(30/55)：【迟缓】、敌方法力上限-1、登场回合具有【护甲30】。</t>
+  </si>
+  <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
+    <t>(25/50)：【护甲9】、法力上限+2。</t>
+  </si>
+  <si>
+    <t>魔像-御咒铁卫</t>
+  </si>
+  <si>
+    <t>(30/30)：【护甲10】、攻击前:本回合你每使用过一个法术，自身+6/+6，护甲+2，若为传记则护甲额外+1。</t>
+  </si>
+  <si>
+    <t>巨型石像鬼</t>
+  </si>
+  <si>
+    <t>(90/90)：【迟缓】、敌方法力上限永久-1、登场:吹回随机敌军，本回合具有【护甲55】。</t>
+  </si>
+  <si>
+    <t>魔钢</t>
+  </si>
+  <si>
+    <t>(99/99)：【护甲10】、【磐龙】、充能:护甲+7、攻击前:本回合你使用过法术，自身+15/+15。</t>
+  </si>
+  <si>
+    <t>No.4希尔伯特</t>
+  </si>
+  <si>
+    <t>(20/40)：【护甲5】、【魔防5】、回合结束:敌方区域召唤灵能炸弹-lv20。</t>
+  </si>
+  <si>
+    <t>No.5咒刃·布雷克</t>
+  </si>
+  <si>
+    <t>(19/35)：【魔免】、【先攻】、【二连击】、【护甲6】、攻击前:本回合你每使用过一个法术或传记，自身攻击+3。（皮肤：命中时：魔界火焰坠落敌方随机区域（3点伤害）。）</t>
+  </si>
+  <si>
+    <t>龟族僧人</t>
+  </si>
+  <si>
+    <t>(25/35)：【护甲6】、【回命】、获得传承:护甲+6。</t>
+  </si>
+  <si>
+    <t>祥云师太</t>
+  </si>
+  <si>
+    <t>(24/24)：【传承16】、登场:随机相邻友军生命加倍，获得【护甲4】。</t>
+  </si>
+  <si>
+    <t>植甲师</t>
+  </si>
+  <si>
+    <t>(25/32)：【护甲4】、【传承4】、受到传承:全体友军+4/+4，护甲+4。</t>
+  </si>
+  <si>
+    <t>泰山之力</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军加攻，等同其一半生命值，并获得【护甲20】、【魔防10】。</t>
+  </si>
+  <si>
+    <t>龙纹尊者</t>
+  </si>
+  <si>
+    <t>(35/65)：【磐龙】、【护甲9】、受到传承时:自身额外+9/+9。</t>
+  </si>
+  <si>
+    <t>披甲罗汉</t>
+  </si>
+  <si>
+    <t>(65/65)：【护甲20】、受到传承:自身获得【魔免】、【回命】。</t>
+  </si>
+  <si>
+    <t>(法术)：目标友军+25/+25、获得【回命】、【践踏】、【传承25】。（皮肤：目标友军攻击+9，魔防+9，护甲+9，持续1回合。）</t>
+  </si>
+  <si>
+    <t>天蓬元帅·悟能</t>
+  </si>
+  <si>
+    <t>(75/75)：【践踏】、【回命】、【传承25】。（皮肤：【护甲1】、死亡：转世为斑毛幼猪。）</t>
+  </si>
+  <si>
     <t>海港</t>
-  </si>
-  <si>
-    <t>(23/18)：【洞察1】、登场:吹回对面首位新进场敌军、洞察时自身攻击+5。</t>
-  </si>
-  <si>
-    <t>黑夜射手</t>
-  </si>
-  <si>
-    <t>(24/24)：命中英雄:【洞察1】，随机敌军受到9点伤害。</t>
-  </si>
-  <si>
-    <t>亡命之徒</t>
-  </si>
-  <si>
-    <t>(29/10)：【洞察1】、【暴露1】、对英雄伤害+10。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、对随机单位造成56点伤害。</t>
-  </si>
-  <si>
-    <t>传记学者</t>
-  </si>
-  <si>
-    <t>(20/30)：回合开始:每使用过一个法术或传记，随机友军+2/+10、初次使用传记:抽一张牌、【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/50)：【洞察1】、回合结束、死亡时:向敌方英雄投掷铁镐。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命-2，抽两张牌、敌方英雄生命-48。</t>
-  </si>
-  <si>
-    <t>走私狂徒</t>
-  </si>
-  <si>
-    <t>(20/10)：【洞察1】、登场:召唤36/66珍奇兽-lv20。</t>
-  </si>
-  <si>
-    <t>异域驯兽使</t>
-  </si>
-  <si>
-    <t>(29/29)：【洞察1】、唤醒其他迟缓友军、登场:本回合隐形。</t>
-  </si>
-  <si>
-    <t>(27/13)：【洞察1】、【先攻】、攻击前:本回合你每使用过一个法术或传记，随机敌军生命-7，自身攻击+7。</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、随机友军+19/+19获得【回命】、抽一张牌、无友军则再抽一张牌并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>无情夺命客</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、【二连击】、敌方英雄受伤时:攻击+1。</t>
-  </si>
-  <si>
-    <t>红海领航员</t>
-  </si>
-  <si>
-    <t>(30/23)：【洞察1】、【先攻】、攻击前：全体先攻友军+6/+4。</t>
-  </si>
-  <si>
-    <t>(33/17)：【洞察2】、【连击】、【魔防120】、回合开始：若生命高于对手，获得【隐形】1回合；若人数多于对手，攻击+3。（皮肤：登场：攻击力+X，持续1回合（X为艾希尔等级）。）</t>
-  </si>
-  <si>
-    <t>炼狱</t>
-  </si>
-  <si>
-    <t>地狱刀吏</t>
-  </si>
-  <si>
-    <t>(31/8)：【洞察1】、回合开始时:若你无手牌，自身攻击+10。</t>
-  </si>
-  <si>
-    <t>嗜血妖蛾</t>
-  </si>
-  <si>
-    <t>(25/25)：【洞察1】、敌方玩家受到伤害时:自身攻击+2。</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
-    <t>(38/12)：【洞察1】、死亡:投掷长枪攻击英雄。</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>(22/45)：【洞察1】、【二连击】。</t>
-  </si>
-  <si>
-    <t>狱铠战魂</t>
-  </si>
-  <si>
-    <t>(24/10)：【洞察1】、【护甲30】。</t>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-  </si>
-  <si>
-    <t>(24/64)：【洞察2】、【三连击】。</t>
-  </si>
-  <si>
-    <t>蛮石</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>(15/23)：【洞察1】、【迟缓】、命中英雄:抓一张牌，并且【洞察1】。</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>(10/24)：【洞察1】、你得法力上限+1、洞察时:英雄生命+18。</t>
-  </si>
-  <si>
-    <t>痴蛮野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、洞察时:自身+6/+6。</t>
-  </si>
-  <si>
-    <t>高原卫士</t>
-  </si>
-  <si>
-    <t>(28/36)：【洞察1】、【迟缓】、回合结束：若本回合受到过伤害，自身+5/+12，【洞察1】。</t>
-  </si>
-  <si>
-    <t>盘旋秃鹰</t>
-  </si>
-  <si>
-    <t>(25/18)：命中英雄:【洞察1】、洞察时:自身攻击+8。</t>
-  </si>
-  <si>
-    <t>寻路斥候</t>
-  </si>
-  <si>
-    <t>(29/15)：登场:射击随机敌方，15点伤害、洞察时:射击随机敌军，12点伤害。</t>
-  </si>
-  <si>
-    <t>厚皮河马</t>
-  </si>
-  <si>
-    <t>(25/66)：【洞察1】、【迟缓】、回合结束:若本回合受到过伤害，自身生命+15。</t>
-  </si>
-  <si>
-    <t>机敏雀鹰</t>
-  </si>
-  <si>
-    <t>(15/40)：【洞察1】、洞察时：自身+5/+5，魔防+5。</t>
-  </si>
-  <si>
-    <t>原野狂战士</t>
-  </si>
-  <si>
-    <t>(36/36)：【洞察1】、【践踏】、【魔防9】。</t>
-  </si>
-  <si>
-    <t>生命源力</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+34/+34，魔防+14。</t>
-  </si>
-  <si>
-    <t>雪原野人</t>
-  </si>
-  <si>
-    <t>(38/38)：【迟缓】、【回命】、【洞察1】、场上有冰封则失去【迟缓】。</t>
-  </si>
-  <si>
-    <t>鼓舞图腾</t>
-  </si>
-  <si>
-    <t>(0/100)：【洞察1】、回合开始:其他全体友军+4/+3，魔防+4。</t>
-  </si>
-  <si>
-    <t>迷茫巨人</t>
-  </si>
-  <si>
-    <t>(50/75)：【洞察1】、【迟缓】、【魔防15】。</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>(23/35)：【洞察1】、命中英雄时:再攻击一次。</t>
-  </si>
-  <si>
-    <t>诱敌草人</t>
-  </si>
-  <si>
-    <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
-  </si>
-  <si>
-    <t>象牙少女</t>
-  </si>
-  <si>
-    <t>(9/13)：【洞察1】、回合结束:召唤36/60长毛象-lv20。</t>
-  </si>
-  <si>
-    <t>冬神</t>
-  </si>
-  <si>
-    <t>寒铁军士</t>
-  </si>
-  <si>
-    <t>(34/9)：【洞察1】、登场:冰封相邻随机位置。</t>
-  </si>
-  <si>
-    <t>寒风草人</t>
-  </si>
-  <si>
-    <t>(0/30)：【洞察1】、【传承7】、登场：冰封相邻随机位置，横排敌军-10/-10。</t>
-  </si>
-  <si>
-    <t>严冬苦行僧</t>
-  </si>
-  <si>
-    <t>(21/39)：【洞察1】、登场:随机敌军攻击-3x/-3x(x为敌方冰封数量)、敌方法力上限-1。</t>
-  </si>
-  <si>
-    <t>神庙祭师</t>
-  </si>
-  <si>
-    <t>(20/30)：【洞察1】、攻击前:吸取生命，等同自身攻击。</t>
-  </si>
-  <si>
-    <t>冬夜使者</t>
-  </si>
-  <si>
-    <t>(33/33)：【洞察2】、双方英雄法力上限-1。</t>
-  </si>
-  <si>
-    <t>极夜阴魂</t>
-  </si>
-  <si>
-    <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
-  </si>
-  <si>
-    <t>冰河世纪</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、所有单位-38/-38、全场每有一处冰封，再-2/-2（无视神佑和魔免）。</t>
-  </si>
-  <si>
-    <t>圣堂门卫</t>
-  </si>
-  <si>
-    <t>白色</t>
-  </si>
-  <si>
-    <t>(3/60)：【护甲3】。</t>
-  </si>
-  <si>
-    <t>重装固守</t>
-  </si>
-  <si>
-    <t>(法术)：目标友军+8/+26，若他有护甲，则护甲+6并获得【磐龙】、抽一张牌。</t>
-  </si>
-  <si>
-    <t>圣甲先锋</t>
-  </si>
-  <si>
-    <t>(24/24)：【护甲6】、命中英雄:手上一张护甲生物卡法力-1（次数上限:2）。</t>
-  </si>
-  <si>
-    <t>盾甲禁卫</t>
-  </si>
-  <si>
-    <t>(29/24)：【护甲10】。</t>
-  </si>
-  <si>
-    <t>信念雕像</t>
-  </si>
-  <si>
-    <t>(15/50)：【守军】、【护甲8】、回合开始:另一友军生命+X（等同攻击）。</t>
-  </si>
-  <si>
-    <t>圣殿精英</t>
-  </si>
-  <si>
-    <t>(22/45)：【协战16】、【护甲3】。</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、【魔免】、登场:全体友军+7/+7、当前回合:护甲和魔防+7、回合结束:四个友军+1/+7</t>
-  </si>
-  <si>
-    <t>传记·钢铁守卫</t>
-  </si>
-  <si>
-    <t>(传记)：前排位置召唤圣堂门卫-lv18、获得【传记·钢铁赞歌】。</t>
-  </si>
-  <si>
-    <t>流星斗士</t>
-  </si>
-  <si>
-    <t>(24/24)：【护甲4】、【协战8】、死亡:向对面横排，投掷流星锤。</t>
-  </si>
-  <si>
-    <t>传记·钢铁赞歌</t>
-  </si>
-  <si>
-    <t>(传记)：召唤圣堂门卫-lv20，随机护甲友军获得【魂歌】、获得【传记·钢铁意志】。</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>(27/42)：【护甲6】、【回命】、【协战10】。</t>
-  </si>
-  <si>
-    <t>钢铁大师</t>
-  </si>
-  <si>
-    <t>(27/70)：【护甲10】、回合结束:全体护甲友军攻击+10。</t>
-  </si>
-  <si>
-    <t>传记·钢铁意志</t>
-  </si>
-  <si>
-    <t>(传记)：全体护甲友军+17/+17，护甲+6，获得【神佑】1回合。</t>
-  </si>
-  <si>
-    <t>禁卫百夫长</t>
-  </si>
-  <si>
-    <t>(36/50)：【磐龙】、【护甲18】、【协战14】。</t>
-  </si>
-  <si>
-    <t>光明圣骑士</t>
-  </si>
-  <si>
-    <t>(50/50)：【护甲11】、登场:英雄生命+50</t>
-  </si>
-  <si>
-    <t>皇家狮鹫</t>
-  </si>
-  <si>
-    <t>(50/36)：【回命】、【护甲9】、登场:召唤32/18白头狮鹫-lv20，吹飞随机敌军。</t>
-  </si>
-  <si>
-    <t>破城者·阿基琉斯</t>
-  </si>
-  <si>
-    <t>(0/180)：【迟缓】、【磐龙】、【践踏】、【护甲20】、【协战50】。</t>
-  </si>
-  <si>
-    <t>荣光堡垒</t>
-  </si>
-  <si>
-    <t>(0/220)：【磐龙】、【守军】、【护甲9】、回合结束:炮击敌横排随机区域32点伤害，炮击2次。</t>
-  </si>
-  <si>
-    <t>蔚蓝幻梦·卡洛琳</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：回合开始：另一护甲友军+3/+3，魔防+5，获得【磐龙】。）</t>
-  </si>
-  <si>
-    <t>(30/65)：【磐龙】、【践踏】、【护甲8】、【协战20】。（皮肤：登场：护甲友军获得【神佑】1回合、莱哈特在场：全体友军获得【协战1】。）</t>
-  </si>
-  <si>
-    <t>(33/80)：【磐龙】、【护甲8】、回合开始:全体护甲友军+10/+10，获得【连击】3回合。（皮肤：登场：横排敌军眩晕1回合，斩击横排随机敌军，无敌军则斩击英雄（伤害：护甲友军数量x自身等级，无视神佑和魔免）。）</t>
-  </si>
-  <si>
-    <t>司莫斯的光明要塞</t>
-  </si>
-  <si>
-    <t>(0/300)：【魔免】、【护甲18】、回合结束:炮击横排随机区域110点伤害（无视【神佑】和【魔免】）。</t>
-  </si>
-  <si>
-    <t>黑曜石像鬼</t>
-  </si>
-  <si>
-    <t>(30/55)：【迟缓】、敌方法力上限-1、登场回合具有【护甲30】。</t>
-  </si>
-  <si>
-    <t>学仆-能源型</t>
-  </si>
-  <si>
-    <t>(25/50)：【护甲9】、法力上限+2。</t>
-  </si>
-  <si>
-    <t>魔像-御咒铁卫</t>
-  </si>
-  <si>
-    <t>(30/30)：【护甲10】、攻击前:本回合你每使用过一个法术，自身+6/+6，护甲+2，若为传记则护甲额外+1。</t>
-  </si>
-  <si>
-    <t>巨型石像鬼</t>
-  </si>
-  <si>
-    <t>(90/90)：【迟缓】、敌方法力上限永久-1、登场:吹回随机敌军，本回合具有【护甲55】。</t>
-  </si>
-  <si>
-    <t>魔钢</t>
-  </si>
-  <si>
-    <t>(99/99)：【护甲10】、【磐龙】、充能:护甲+7、攻击前:本回合你使用过法术，自身+15/+15。</t>
-  </si>
-  <si>
-    <t>No.4希尔伯特</t>
-  </si>
-  <si>
-    <t>(20/40)：【护甲5】、【魔防5】、回合结束:敌方区域召唤灵能炸弹-lv20。</t>
-  </si>
-  <si>
-    <t>No.5咒刃·布雷克</t>
-  </si>
-  <si>
-    <t>(19/35)：【魔免】、【先攻】、【二连击】、【护甲6】、攻击前:本回合你每使用过一个法术或传记，自身攻击+3。（皮肤：命中时：魔界火焰坠落敌方随机区域（3点伤害）。）</t>
-  </si>
-  <si>
-    <t>龟族僧人</t>
-  </si>
-  <si>
-    <t>(25/35)：【护甲6】、【回命】、获得传承:护甲+6。</t>
-  </si>
-  <si>
-    <t>祥云师太</t>
-  </si>
-  <si>
-    <t>(24/24)：【传承16】、登场:随机相邻友军生命加倍，获得【护甲4】。</t>
-  </si>
-  <si>
-    <t>植甲师</t>
-  </si>
-  <si>
-    <t>(25/32)：【护甲4】、【传承4】、受到传承:全体友军+4/+4，护甲+4。</t>
-  </si>
-  <si>
-    <t>泰山之力</t>
-  </si>
-  <si>
-    <t>(法术)：目标友军加攻，等同其一半生命值，并获得【护甲20】、【魔防10】。</t>
-  </si>
-  <si>
-    <t>龙纹尊者</t>
-  </si>
-  <si>
-    <t>(35/65)：【磐龙】、【护甲9】、受到传承时:自身额外+9/+9。</t>
-  </si>
-  <si>
-    <t>披甲罗汉</t>
-  </si>
-  <si>
-    <t>(65/65)：【护甲20】、受到传承:自身获得【魔免】、【回命】。</t>
-  </si>
-  <si>
-    <t>(法术)：目标友军+25/+25、获得【回命】、【践踏】、【传承25】。（皮肤：目标友军攻击+9，魔防+9，护甲+9，持续1回合。）</t>
-  </si>
-  <si>
-    <t>天蓬元帅·悟能</t>
-  </si>
-  <si>
-    <t>(75/75)：【践踏】、【回命】、【传承25】。（皮肤：【护甲1】、死亡：转世为斑毛幼猪。）</t>
   </si>
   <si>
     <t>教廷学者</t>
@@ -2993,10 +3248,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3025,38 +3280,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3064,7 +3305,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3073,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3081,16 +3322,16 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3098,7 +3339,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3107,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3115,7 +3356,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -3124,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3132,16 +3373,16 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3149,16 +3390,16 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3166,16 +3407,16 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3183,16 +3424,16 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3200,7 +3441,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -3209,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3217,16 +3458,16 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3234,7 +3475,7 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -3243,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3251,16 +3492,16 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3268,7 +3509,7 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -3277,7 +3518,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3285,16 +3526,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3302,16 +3543,16 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3319,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
@@ -3328,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3336,33 +3577,33 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3370,7 +3611,7 @@
         <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -3379,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3387,16 +3628,16 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3404,16 +3645,16 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3421,16 +3662,16 @@
         <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3438,16 +3679,16 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3455,16 +3696,16 @@
         <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3472,7 +3713,7 @@
         <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
@@ -3481,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3489,16 +3730,16 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3506,7 +3747,7 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
@@ -3515,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3523,16 +3764,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3540,7 +3781,7 @@
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -3549,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3557,7 +3798,7 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -3566,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3574,16 +3815,16 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3591,16 +3832,16 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3608,16 +3849,16 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3625,33 +3866,33 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3659,7 +3900,7 @@
         <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -3668,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3676,7 +3917,7 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3685,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3693,16 +3934,16 @@
         <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3710,7 +3951,7 @@
         <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -3719,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3727,16 +3968,16 @@
         <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3744,16 +3985,16 @@
         <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3761,16 +4002,16 @@
         <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3778,16 +4019,16 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3795,7 +4036,7 @@
         <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -3804,7 +4045,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3812,16 +4053,16 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3829,33 +4070,33 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3863,7 +4104,7 @@
         <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -3872,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3880,7 +4121,7 @@
         <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -3889,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3897,7 +4138,7 @@
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -3906,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3914,7 +4155,7 @@
         <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -3923,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3931,16 +4172,16 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3948,7 +4189,7 @@
         <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -3957,7 +4198,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3965,16 +4206,16 @@
         <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3982,7 +4223,7 @@
         <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
@@ -3991,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3999,7 +4240,7 @@
         <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
@@ -4008,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4016,7 +4257,7 @@
         <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
@@ -4025,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4033,16 +4274,16 @@
         <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4050,16 +4291,16 @@
         <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4067,33 +4308,33 @@
         <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>28</v>
+        <v>177</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4101,7 +4342,7 @@
         <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -4110,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4118,16 +4359,16 @@
         <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4135,16 +4376,16 @@
         <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4152,16 +4393,16 @@
         <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>187</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4169,33 +4410,33 @@
         <v>180</v>
       </c>
       <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4203,16 +4444,16 @@
         <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4220,7 +4461,7 @@
         <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -4229,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4237,7 +4478,7 @@
         <v>193</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -4246,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4254,7 +4495,7 @@
         <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -4263,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4271,16 +4512,16 @@
         <v>193</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4288,7 +4529,7 @@
         <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -4297,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4305,7 +4546,7 @@
         <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -4314,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4322,16 +4563,16 @@
         <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4339,7 +4580,7 @@
         <v>193</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -4348,7 +4589,7 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4356,7 +4597,7 @@
         <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -4365,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4373,16 +4614,16 @@
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4390,7 +4631,7 @@
         <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -4399,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4407,16 +4648,16 @@
         <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>218</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4424,7 +4665,7 @@
         <v>193</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -4433,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4441,33 +4682,33 @@
         <v>193</v>
       </c>
       <c r="B95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
         <v>224</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95">
+      <c r="C96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
         <v>4</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4475,7 +4716,7 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -4484,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4492,16 +4733,16 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4509,7 +4750,7 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4518,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4526,16 +4767,16 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>233</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4543,16 +4784,16 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4560,16 +4801,730 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104">
+      <c r="C105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105">
         <v>6</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>249</v>
+      </c>
+      <c r="E115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>249</v>
+      </c>
+      <c r="E116" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>244</v>
+      </c>
+      <c r="E117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>249</v>
+      </c>
+      <c r="E119" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>249</v>
+      </c>
+      <c r="E120" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>249</v>
+      </c>
+      <c r="E122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" t="s">
+        <v>271</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>244</v>
+      </c>
+      <c r="E124" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>244</v>
+      </c>
+      <c r="E125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>249</v>
+      </c>
+      <c r="E127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>249</v>
+      </c>
+      <c r="E128" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>281</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>244</v>
+      </c>
+      <c r="E129" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>157</v>
+      </c>
+      <c r="B130" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>244</v>
+      </c>
+      <c r="E131" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>244</v>
+      </c>
+      <c r="E132" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>249</v>
+      </c>
+      <c r="E133" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+      <c r="B134" t="s">
+        <v>291</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>249</v>
+      </c>
+      <c r="E134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" t="s">
+        <v>293</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>249</v>
+      </c>
+      <c r="E135" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>244</v>
+      </c>
+      <c r="E136" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>244</v>
+      </c>
+      <c r="E137" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>249</v>
+      </c>
+      <c r="E138" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>244</v>
+      </c>
+      <c r="E139" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" t="s">
+        <v>303</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>244</v>
+      </c>
+      <c r="E140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>193</v>
+      </c>
+      <c r="B142" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>244</v>
+      </c>
+      <c r="E142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>193</v>
+      </c>
+      <c r="B144" t="s">
+        <v>311</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>249</v>
+      </c>
+      <c r="E145" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>249</v>
+      </c>
+      <c r="E146" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>249</v>
+      </c>
+      <c r="E147" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>226</v>
+      </c>
+      <c r="B148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>249</v>
+      </c>
+      <c r="E148" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>249</v>
+      </c>
+      <c r="E149" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>249</v>
+      </c>
+      <c r="E150" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4618,16 +5573,16 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4635,7 +5590,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -4644,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4652,7 +5607,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -4661,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4669,7 +5624,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -4678,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4686,7 +5641,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -4695,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4703,7 +5658,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -4712,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4729,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4737,7 +5692,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -4746,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4754,7 +5709,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -4763,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4771,7 +5726,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -4780,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4788,7 +5743,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -4797,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4839,7 +5794,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -4848,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4873,7 +5828,7 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -4882,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4890,7 +5845,7 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -4899,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4907,7 +5862,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -4916,7 +5871,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4941,7 +5896,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -4950,7 +5905,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4958,7 +5913,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -4967,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4975,7 +5930,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -4984,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4992,7 +5947,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -5018,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5035,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5052,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5060,7 +6015,7 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>28</v>
@@ -5069,7 +6024,7 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5094,7 +6049,7 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -5103,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5111,7 +6066,7 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -5120,7 +6075,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5128,7 +6083,7 @@
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -5137,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5162,7 +6117,7 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -5171,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5196,7 +6151,7 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -5205,7 +6160,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5213,7 +6168,7 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>28</v>
@@ -5222,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5230,7 +6185,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>28</v>
@@ -5239,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5247,7 +6202,7 @@
         <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -5256,7 +6211,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5264,7 +6219,7 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -5273,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5281,7 +6236,7 @@
         <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -5290,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5298,7 +6253,7 @@
         <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -5307,7 +6262,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5315,7 +6270,7 @@
         <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -5324,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5332,7 +6287,7 @@
         <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -5341,7 +6296,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5358,7 +6313,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5366,7 +6321,7 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>28</v>
@@ -5375,15 +6330,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -5392,15 +6347,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>28</v>
@@ -5409,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5417,7 +6372,7 @@
         <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -5426,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5434,7 +6389,7 @@
         <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -5443,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5451,7 +6406,7 @@
         <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -5460,7 +6415,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5485,7 +6440,7 @@
         <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -5494,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
@@ -5502,7 +6457,7 @@
         <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
@@ -5511,7 +6466,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
@@ -5519,7 +6474,7 @@
         <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>28</v>
@@ -5528,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
@@ -5536,7 +6491,7 @@
         <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>28</v>
@@ -5545,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
@@ -5553,7 +6508,7 @@
         <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>28</v>
@@ -5562,7 +6517,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5570,7 +6525,7 @@
         <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -5579,7 +6534,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5587,7 +6542,7 @@
         <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>28</v>
@@ -5596,7 +6551,7 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5604,7 +6559,7 @@
         <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -5613,7 +6568,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5621,7 +6576,7 @@
         <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>338</v>
+        <v>423</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -5630,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5638,7 +6593,7 @@
         <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -5647,7 +6602,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5655,7 +6610,7 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
@@ -5664,7 +6619,7 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5672,7 +6627,7 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
@@ -5681,7 +6636,7 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5689,7 +6644,7 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>28</v>
@@ -5698,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5706,7 +6661,7 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>28</v>
@@ -5715,7 +6670,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5749,30 +6704,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="D1" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="E1" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="F1" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="G1" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -5788,12 +6743,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>85</v>
@@ -5809,10 +6764,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5853,7 +6808,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>85</v>
@@ -5871,7 +6826,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -5887,7 +6842,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5910,7 +6865,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>85</v>
@@ -5928,7 +6883,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>85</v>
@@ -5946,7 +6901,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>85</v>
@@ -5964,7 +6919,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
@@ -5980,12 +6935,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>367</v>
+        <v>452</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -6055,7 +7010,7 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6114,7 +7069,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -6132,7 +7087,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -6168,7 +7123,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -6202,12 +7157,12 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>85</v>
@@ -6223,7 +7178,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6244,7 +7199,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6265,7 +7220,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6286,7 +7241,7 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6309,7 +7264,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>114</v>
@@ -6325,12 +7280,12 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>114</v>
@@ -6364,12 +7319,12 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>114</v>
@@ -6385,12 +7340,12 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>114</v>
@@ -6406,7 +7361,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6427,12 +7382,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>114</v>
@@ -6450,7 +7405,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>114</v>
@@ -6484,7 +7439,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6505,7 +7460,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6526,12 +7481,12 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>114</v>
@@ -6547,15 +7502,15 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="G45" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>114</v>
@@ -6571,12 +7526,12 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>114</v>
@@ -6646,7 +7601,7 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6667,12 +7622,12 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>114</v>
@@ -6724,12 +7679,12 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>114</v>
@@ -6747,7 +7702,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>114</v>
@@ -6788,16 +7743,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="B1" t="s">
-        <v>385</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
-        <v>387</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8717,7 +9672,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -3250,7 +3250,7 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
@@ -8590,8 +8590,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8653,12 +8653,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8681,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8695,7 +8695,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8709,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8804,7 +8804,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>16.6666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9119,7 +9119,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.2</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9133,8 +9133,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9196,7 +9196,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9210,7 +9210,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9224,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9361,7 +9361,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.3076923076923</v>
+        <v>17.6153846153846</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -10211,8 +10211,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10274,7 +10274,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10288,7 +10288,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10302,7 +10302,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10316,7 +10316,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10439,7 +10439,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.3076923076923</v>
+        <v>17.6153846153846</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.4666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
@@ -11315,8 +11315,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11345,7 +11345,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11356,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11367,7 +11367,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11378,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>15.625</v>
+        <v>16.125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>15.2666666666667</v>
+        <v>15.5333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2435,7 +2435,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2746,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2827,7 +2827,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D16:D29)</f>
-        <v>16.6428571428571</v>
+        <v>16.7142857142857</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D10,D16:D29,D35:D41)</f>
-        <v>17.4</v>
+        <v>17.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -8047,7 +8047,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8358,7 +8358,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8427,7 +8427,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D16:D28)</f>
-        <v>16.7692307692308</v>
+        <v>16.8461538461538</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8575,7 +8575,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D10,D16:D28,D34:D41)</f>
-        <v>17.4</v>
+        <v>17.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -8591,7 +8591,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8762,10 +8762,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8804,7 +8804,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9119,7 +9119,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.3333333333333</v>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>
@@ -9133,8 +9133,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9308,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9361,7 +9361,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.6153846153846</v>
+        <v>17.7692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9459,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9512,7 +9512,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D20:D28)</f>
-        <v>16</v>
+        <v>16.1111111111111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -9673,7 +9673,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9998,7 +9998,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10051,7 +10051,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D21:D28)</f>
-        <v>14.375</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D28,D34:D41)</f>
-        <v>14.8333333333333</v>
+        <v>14.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10212,7 +10212,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10386,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10439,7 +10439,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.6153846153846</v>
+        <v>17.7692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10537,7 +10537,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10590,7 +10590,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D20:D28)</f>
-        <v>16</v>
+        <v>16.1111111111111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -11038,8 +11038,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -11168,7 +11168,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="C18" s="2">
         <f>AVERAGE(C12:C15)</f>
-        <v>16.75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C6,C12:C15,C21:C26)</f>
-        <v>17.6666666666667</v>
+        <v>17.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -11315,8 +11315,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H12:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11411,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>16.125</v>
+        <v>16.375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>15.5333333333333</v>
+        <v>15.6666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="472">
   <si>
     <t>名称</t>
   </si>
@@ -189,12 +189,12 @@
     <t>驱魔道人</t>
   </si>
   <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
     <t>万物之灵</t>
   </si>
   <si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>(28/29)：【洞察1】、【神佑】、命中时:自身+4/+4。</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
   </si>
   <si>
     <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
@@ -4036,7 +4033,7 @@
         <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
@@ -4045,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4053,7 +4050,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
@@ -4062,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4070,16 +4067,16 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4096,12 +4093,12 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -4113,15 +4110,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -4130,15 +4127,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -4147,12 +4144,12 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
         <v>56</v>
@@ -4164,15 +4161,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -4181,12 +4178,12 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -4198,12 +4195,12 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -4215,15 +4212,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
@@ -4232,15 +4229,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
@@ -4249,12 +4246,12 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
@@ -4266,15 +4263,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
@@ -4283,15 +4280,15 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
@@ -4300,15 +4297,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
@@ -4317,12 +4314,12 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
         <v>66</v>
@@ -4334,15 +4331,15 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
         <v>180</v>
-      </c>
-      <c r="B73" t="s">
-        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -4351,15 +4348,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -4368,15 +4365,15 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -4385,15 +4382,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -4402,15 +4399,15 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
@@ -4419,32 +4416,32 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
         <v>191</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
         <v>193</v>
-      </c>
-      <c r="B81" t="s">
-        <v>194</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -4453,15 +4450,15 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -4470,15 +4467,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -4487,15 +4484,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -4504,15 +4501,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -4521,15 +4518,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -4538,15 +4535,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -4555,15 +4552,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -4572,15 +4569,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -4589,15 +4586,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -4606,15 +4603,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -4623,49 +4620,49 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
         <v>216</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
         <v>218</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
@@ -4674,15 +4671,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -4691,15 +4688,15 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
@@ -4708,15 +4705,15 @@
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" t="s">
         <v>226</v>
-      </c>
-      <c r="B99" t="s">
-        <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -4725,15 +4722,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
@@ -4742,15 +4739,15 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4759,15 +4756,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -4776,15 +4773,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
@@ -4793,15 +4790,15 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -4810,15 +4807,15 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
@@ -4827,7 +4824,7 @@
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4841,10 +4838,10 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" t="s">
         <v>241</v>
-      </c>
-      <c r="E110" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4852,16 +4849,16 @@
         <v>85</v>
       </c>
       <c r="B111" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>244</v>
-      </c>
-      <c r="E111" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4869,16 +4866,16 @@
         <v>85</v>
       </c>
       <c r="B112" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" t="s">
         <v>246</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>244</v>
-      </c>
-      <c r="E112" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4886,16 +4883,16 @@
         <v>85</v>
       </c>
       <c r="B113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>249</v>
-      </c>
-      <c r="E113" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4903,16 +4900,16 @@
         <v>85</v>
       </c>
       <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" t="s">
         <v>251</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>249</v>
-      </c>
-      <c r="E114" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4920,16 +4917,16 @@
         <v>85</v>
       </c>
       <c r="B115" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>248</v>
+      </c>
+      <c r="E115" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>249</v>
-      </c>
-      <c r="E115" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4937,16 +4934,16 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>248</v>
+      </c>
+      <c r="E116" t="s">
         <v>255</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>249</v>
-      </c>
-      <c r="E116" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4954,16 +4951,16 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" t="s">
         <v>257</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>244</v>
-      </c>
-      <c r="E117" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4971,16 +4968,16 @@
         <v>114</v>
       </c>
       <c r="B118" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" t="s">
         <v>259</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>244</v>
-      </c>
-      <c r="E118" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4988,16 +4985,16 @@
         <v>114</v>
       </c>
       <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" t="s">
         <v>261</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>249</v>
-      </c>
-      <c r="E119" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5005,16 +5002,16 @@
         <v>114</v>
       </c>
       <c r="B120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" t="s">
         <v>263</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>249</v>
-      </c>
-      <c r="E120" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5022,16 +5019,16 @@
         <v>114</v>
       </c>
       <c r="B121" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" t="s">
         <v>265</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>249</v>
-      </c>
-      <c r="E121" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5039,16 +5036,16 @@
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5056,16 +5053,16 @@
         <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5073,16 +5070,16 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>243</v>
+      </c>
+      <c r="E124" t="s">
         <v>271</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" t="s">
-        <v>244</v>
-      </c>
-      <c r="E124" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5090,16 +5087,16 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" t="s">
         <v>273</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>244</v>
-      </c>
-      <c r="E125" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5107,16 +5104,16 @@
         <v>139</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D126" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5124,16 +5121,16 @@
         <v>139</v>
       </c>
       <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>248</v>
+      </c>
+      <c r="E127" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>249</v>
-      </c>
-      <c r="E127" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5141,390 +5138,390 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" t="s">
         <v>279</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>249</v>
-      </c>
-      <c r="E128" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>243</v>
+      </c>
+      <c r="E129" t="s">
         <v>281</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" t="s">
-        <v>244</v>
-      </c>
-      <c r="E129" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B130" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130" t="s">
         <v>283</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" t="s">
-        <v>244</v>
-      </c>
-      <c r="E130" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>243</v>
+      </c>
+      <c r="E131" t="s">
         <v>285</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>244</v>
-      </c>
-      <c r="E131" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>248</v>
+      </c>
+      <c r="E133" t="s">
         <v>289</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>249</v>
-      </c>
-      <c r="E133" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>248</v>
+      </c>
+      <c r="E134" t="s">
         <v>291</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>249</v>
-      </c>
-      <c r="E134" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
         <v>295</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>244</v>
-      </c>
-      <c r="E136" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>243</v>
+      </c>
+      <c r="E137" t="s">
         <v>297</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>244</v>
-      </c>
-      <c r="E137" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>248</v>
+      </c>
+      <c r="E138" t="s">
         <v>299</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>249</v>
-      </c>
-      <c r="E138" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" t="s">
         <v>301</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>244</v>
-      </c>
-      <c r="E139" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" t="s">
         <v>303</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" t="s">
-        <v>244</v>
-      </c>
-      <c r="E140" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" t="s">
         <v>305</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>244</v>
-      </c>
-      <c r="E141" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143" t="s">
         <v>309</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>249</v>
-      </c>
-      <c r="E143" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>248</v>
+      </c>
+      <c r="E144" t="s">
         <v>311</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" t="s">
-        <v>249</v>
-      </c>
-      <c r="E144" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>248</v>
+      </c>
+      <c r="E145" t="s">
         <v>313</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" t="s">
-        <v>249</v>
-      </c>
-      <c r="E145" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B146" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>248</v>
+      </c>
+      <c r="E146" t="s">
         <v>315</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>249</v>
-      </c>
-      <c r="E146" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
+        <v>316</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>248</v>
+      </c>
+      <c r="E147" t="s">
         <v>317</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>249</v>
-      </c>
-      <c r="E147" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>248</v>
+      </c>
+      <c r="E148" t="s">
         <v>319</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>249</v>
-      </c>
-      <c r="E148" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B149" t="s">
+        <v>320</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>248</v>
+      </c>
+      <c r="E149" t="s">
         <v>321</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>249</v>
-      </c>
-      <c r="E149" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B150" t="s">
+        <v>322</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>248</v>
+      </c>
+      <c r="E150" t="s">
         <v>323</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>249</v>
-      </c>
-      <c r="E150" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5573,16 +5570,16 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5590,7 +5587,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -5599,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5607,7 +5604,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -5616,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5624,7 +5621,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -5633,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5641,7 +5638,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -5650,7 +5647,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5658,7 +5655,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -5667,7 +5664,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5684,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5692,7 +5689,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -5701,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5709,7 +5706,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -5718,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5726,7 +5723,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
@@ -5735,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5743,7 +5740,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -5752,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5794,7 +5791,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -5803,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5828,7 +5825,7 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -5837,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5845,16 +5842,16 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>351</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5862,7 +5859,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -5871,7 +5868,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5896,7 +5893,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -5905,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5913,7 +5910,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -5922,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5930,7 +5927,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
@@ -5939,7 +5936,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5947,7 +5944,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -5973,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5990,7 +5987,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6007,7 +6004,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6015,7 +6012,7 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>28</v>
@@ -6024,7 +6021,7 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6049,16 +6046,16 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>367</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6066,16 +6063,16 @@
         <v>114</v>
       </c>
       <c r="B33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>369</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6083,7 +6080,7 @@
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
@@ -6092,7 +6089,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6117,7 +6114,7 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -6126,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6151,7 +6148,7 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
@@ -6160,7 +6157,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6168,7 +6165,7 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>28</v>
@@ -6177,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6185,7 +6182,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>28</v>
@@ -6194,7 +6191,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6202,7 +6199,7 @@
         <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -6211,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6219,7 +6216,7 @@
         <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -6228,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6236,7 +6233,7 @@
         <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
@@ -6245,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6253,7 +6250,7 @@
         <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
@@ -6262,7 +6259,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6270,7 +6267,7 @@
         <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
@@ -6279,7 +6276,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6287,7 +6284,7 @@
         <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
@@ -6296,7 +6293,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6313,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6321,7 +6318,7 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>28</v>
@@ -6330,15 +6327,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" t="s">
         <v>396</v>
-      </c>
-      <c r="B53" t="s">
-        <v>397</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -6347,15 +6344,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>28</v>
@@ -6364,15 +6361,15 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -6381,15 +6378,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -6398,15 +6395,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
@@ -6415,15 +6412,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
@@ -6432,15 +6429,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
@@ -6449,32 +6446,32 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
         <v>409</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>28</v>
@@ -6483,15 +6480,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>28</v>
@@ -6500,15 +6497,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>28</v>
@@ -6517,15 +6514,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -6534,15 +6531,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>28</v>
@@ -6551,15 +6548,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -6568,15 +6565,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -6585,15 +6582,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
@@ -6602,49 +6599,49 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
         <v>427</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
         <v>429</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>28</v>
@@ -6653,15 +6650,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>28</v>
@@ -6670,7 +6667,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6704,30 +6701,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
         <v>436</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>437</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>438</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>439</v>
-      </c>
-      <c r="G1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -6743,12 +6740,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>85</v>
@@ -6764,10 +6761,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" t="s">
         <v>444</v>
-      </c>
-      <c r="G3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6808,7 +6805,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>85</v>
@@ -6826,7 +6823,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>85</v>
@@ -6842,7 +6839,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6865,7 +6862,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>85</v>
@@ -6883,7 +6880,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>85</v>
@@ -6901,7 +6898,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>85</v>
@@ -6919,7 +6916,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
@@ -6935,12 +6932,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -7010,7 +7007,7 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7069,7 +7066,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -7123,7 +7120,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -7157,12 +7154,12 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>85</v>
@@ -7178,7 +7175,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7199,7 +7196,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7220,7 +7217,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7241,7 +7238,7 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7264,7 +7261,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>114</v>
@@ -7280,12 +7277,12 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>114</v>
@@ -7319,12 +7316,12 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>114</v>
@@ -7340,12 +7337,12 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>114</v>
@@ -7361,7 +7358,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7382,12 +7379,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>114</v>
@@ -7405,7 +7402,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>114</v>
@@ -7439,7 +7436,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7460,7 +7457,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7481,12 +7478,12 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>114</v>
@@ -7502,15 +7499,15 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>114</v>
@@ -7526,12 +7523,12 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>114</v>
@@ -7601,7 +7598,7 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7622,12 +7619,12 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>114</v>
@@ -7679,12 +7676,12 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>114</v>
@@ -7702,7 +7699,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>114</v>
@@ -7743,16 +7740,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" t="s">
         <v>469</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>470</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>471</v>
-      </c>
-      <c r="D1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8591,7 +8588,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8653,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8804,7 +8801,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>AVERAGE(D2:D13)</f>
-        <v>17.1666666666667</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8941,15 +8938,15 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -8958,12 +8955,12 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -8972,8 +8969,9 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
@@ -9027,7 +9025,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D19:D32)</f>
-        <v>16.2857142857143</v>
+        <v>16.1428571428571</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -9119,7 +9117,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D13,D19:D32,D38:D41)</f>
-        <v>16.4</v>
+        <v>16.3666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -9133,8 +9131,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9196,7 +9194,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9361,7 +9359,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.7692307692308</v>
+        <v>17.8461538461538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9428,15 +9426,15 @@
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -9450,7 +9448,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -9459,7 +9457,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9512,7 +9510,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D20:D28)</f>
-        <v>16.1111111111111</v>
+        <v>15.8888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9658,7 +9656,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.7</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10212,7 +10210,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10274,7 +10272,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10439,7 +10437,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>17.7692307692308</v>
+        <v>17.8461538461538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10506,15 +10504,15 @@
         <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -10528,7 +10526,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -10537,7 +10535,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -10590,7 +10588,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <f>AVERAGE(D20:D28)</f>
-        <v>16.1111111111111</v>
+        <v>15.8888888888889</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -10736,7 +10734,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D14,D20:D28,D34:D41)</f>
-        <v>16.7</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11038,7 +11036,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -11316,7 +11314,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11345,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11444,7 +11442,7 @@
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>16.375</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11474,10 +11472,10 @@
         <v>49</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11488,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11521,7 +11519,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C15:C19)</f>
-        <v>15.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11577,7 +11575,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>15.6666666666667</v>
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="11745" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2964,8 +2964,8 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8849,7 +8849,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="9"/>
+    <workbookView windowWidth="13320" windowHeight="13500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="469">
   <si>
     <t>名称</t>
   </si>
@@ -158,15 +158,15 @@
     <t>树木之怒</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>锁妖塔守卫</t>
   </si>
   <si>
     <t>飓风术</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
     <t>执剑道者</t>
   </si>
   <si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>风铃道人</t>
-  </si>
-  <si>
-    <t>逍遥琴师</t>
   </si>
   <si>
     <t>驱魔道人</t>
@@ -2424,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2599,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2621,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.0909090909091</v>
+        <v>19.1818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2638,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2806,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2845,7 +2842,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D18:D31)</f>
-        <v>17.0714285714286</v>
+        <v>17.2142857142857</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2859,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2940,7 +2937,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D37:D41)</f>
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2949,7 +2946,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.7666666666667</v>
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +2961,7 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -2979,7 +2976,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2991,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -2999,7 +2996,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3011,29 +3008,29 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -3045,15 +3042,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3062,12 +3059,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3079,15 +3076,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3096,15 +3093,15 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -3113,12 +3110,12 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -3130,12 +3127,12 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -3147,15 +3144,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -3164,15 +3161,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -3181,12 +3178,12 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -3198,15 +3195,15 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -3215,12 +3212,12 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -3232,15 +3229,15 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -3249,12 +3246,12 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -3266,12 +3263,12 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -3283,12 +3280,12 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -3300,12 +3297,12 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -3317,29 +3314,29 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
         <v>111</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -3351,12 +3348,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3368,15 +3365,15 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -3385,29 +3382,29 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -3419,12 +3416,12 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3436,12 +3433,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -3453,15 +3450,15 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -3470,12 +3467,12 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3487,15 +3484,15 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -3504,12 +3501,12 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3521,15 +3518,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -3538,12 +3535,12 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -3555,12 +3552,12 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3572,12 +3569,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -3589,15 +3586,15 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>29</v>
@@ -3606,32 +3603,32 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
         <v>135</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3640,15 +3637,15 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -3657,12 +3654,12 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -3674,15 +3671,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -3691,12 +3688,12 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
@@ -3708,32 +3705,32 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
         <v>143</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
@@ -3742,15 +3739,15 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
@@ -3759,15 +3756,15 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -3776,32 +3773,32 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
         <v>149</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>29</v>
@@ -3810,66 +3807,66 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>152</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
         <v>154</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
         <v>156</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -3878,32 +3875,32 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
         <v>159</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -3912,15 +3909,15 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -3929,49 +3926,49 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
         <v>163</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
         <v>165</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
@@ -3980,15 +3977,15 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
@@ -3997,15 +3994,15 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
@@ -4014,15 +4011,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
@@ -4031,15 +4028,15 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>29</v>
@@ -4048,49 +4045,49 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" t="s">
         <v>174</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>177</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -4099,15 +4096,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -4116,15 +4113,15 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
@@ -4133,32 +4130,32 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
         <v>185</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
         <v>187</v>
-      </c>
-      <c r="B81" t="s">
-        <v>188</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -4167,83 +4164,83 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
         <v>190</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
         <v>192</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
         <v>194</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
         <v>196</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -4252,15 +4249,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -4269,15 +4266,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -4286,15 +4283,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -4303,15 +4300,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -4320,15 +4317,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -4337,83 +4334,83 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
         <v>210</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
         <v>212</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
         <v>214</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
         <v>216</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -4422,49 +4419,49 @@
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" t="s">
         <v>220</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
         <v>221</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
         <v>223</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4473,15 +4470,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -4490,32 +4487,32 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
         <v>229</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -4524,15 +4521,15 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
@@ -4541,12 +4538,12 @@
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -4555,690 +4552,690 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>234</v>
+      </c>
+      <c r="E110" t="s">
         <v>235</v>
-      </c>
-      <c r="E110" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
         <v>237</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>238</v>
-      </c>
-      <c r="E111" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" t="s">
         <v>240</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" t="s">
-        <v>238</v>
-      </c>
-      <c r="E112" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>242</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>243</v>
-      </c>
-      <c r="E113" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" t="s">
         <v>245</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" t="s">
         <v>247</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" t="s">
-        <v>243</v>
-      </c>
-      <c r="E115" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" t="s">
         <v>249</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>243</v>
-      </c>
-      <c r="E116" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>237</v>
+      </c>
+      <c r="E117" t="s">
         <v>251</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" t="s">
-        <v>238</v>
-      </c>
-      <c r="E117" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B118" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>237</v>
+      </c>
+      <c r="E118" t="s">
         <v>253</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>238</v>
-      </c>
-      <c r="E118" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>242</v>
+      </c>
+      <c r="E119" t="s">
         <v>255</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" t="s">
-        <v>243</v>
-      </c>
-      <c r="E119" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120" t="s">
         <v>257</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" t="s">
-        <v>243</v>
-      </c>
-      <c r="E120" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" t="s">
         <v>259</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" t="s">
-        <v>243</v>
-      </c>
-      <c r="E121" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E123" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+      <c r="E124" t="s">
         <v>265</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" t="s">
-        <v>238</v>
-      </c>
-      <c r="E124" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" t="s">
         <v>267</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" t="s">
-        <v>238</v>
-      </c>
-      <c r="E125" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>242</v>
+      </c>
+      <c r="E127" t="s">
         <v>271</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>243</v>
-      </c>
-      <c r="E127" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" t="s">
         <v>273</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" t="s">
-        <v>243</v>
-      </c>
-      <c r="E128" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" t="s">
         <v>275</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" t="s">
-        <v>238</v>
-      </c>
-      <c r="E129" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" t="s">
         <v>277</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" t="s">
-        <v>238</v>
-      </c>
-      <c r="E130" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" t="s">
         <v>279</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" t="s">
-        <v>238</v>
-      </c>
-      <c r="E131" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>242</v>
+      </c>
+      <c r="E133" t="s">
         <v>283</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" t="s">
-        <v>243</v>
-      </c>
-      <c r="E133" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>242</v>
+      </c>
+      <c r="E134" t="s">
         <v>285</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" t="s">
-        <v>243</v>
-      </c>
-      <c r="E134" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>237</v>
+      </c>
+      <c r="E136" t="s">
         <v>289</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" t="s">
-        <v>238</v>
-      </c>
-      <c r="E136" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>237</v>
+      </c>
+      <c r="E137" t="s">
         <v>291</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>238</v>
-      </c>
-      <c r="E137" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>242</v>
+      </c>
+      <c r="E138" t="s">
         <v>293</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" t="s">
-        <v>243</v>
-      </c>
-      <c r="E138" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B139" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139" t="s">
         <v>295</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" t="s">
-        <v>238</v>
-      </c>
-      <c r="E139" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B140" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>237</v>
+      </c>
+      <c r="E140" t="s">
         <v>297</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" t="s">
-        <v>238</v>
-      </c>
-      <c r="E140" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B141" t="s">
+        <v>298</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141" t="s">
         <v>299</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" t="s">
-        <v>238</v>
-      </c>
-      <c r="E141" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B143" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>242</v>
+      </c>
+      <c r="E143" t="s">
         <v>303</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>243</v>
-      </c>
-      <c r="E143" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" t="s">
         <v>305</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" t="s">
-        <v>243</v>
-      </c>
-      <c r="E144" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>242</v>
+      </c>
+      <c r="E145" t="s">
         <v>307</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" t="s">
-        <v>243</v>
-      </c>
-      <c r="E145" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>242</v>
+      </c>
+      <c r="E146" t="s">
         <v>309</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>243</v>
-      </c>
-      <c r="E146" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B147" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" t="s">
         <v>311</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>243</v>
-      </c>
-      <c r="E147" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>242</v>
+      </c>
+      <c r="E148" t="s">
         <v>313</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" t="s">
-        <v>243</v>
-      </c>
-      <c r="E148" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>242</v>
+      </c>
+      <c r="E149" t="s">
         <v>315</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" t="s">
-        <v>243</v>
-      </c>
-      <c r="E149" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" t="s">
+        <v>316</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>242</v>
+      </c>
+      <c r="E150" t="s">
         <v>317</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" t="s">
-        <v>243</v>
-      </c>
-      <c r="E150" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5267,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5279,32 +5276,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -5313,32 +5310,32 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -5347,15 +5344,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -5364,15 +5361,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -5381,12 +5378,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -5398,15 +5395,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -5415,49 +5412,49 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
         <v>335</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>337</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -5466,15 +5463,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -5483,15 +5480,15 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -5500,15 +5497,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -5517,15 +5514,15 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -5534,15 +5531,15 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -5551,32 +5548,32 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>345</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -5585,15 +5582,15 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
@@ -5602,15 +5599,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -5619,15 +5616,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -5636,15 +5633,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -5653,15 +5650,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
@@ -5670,12 +5667,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -5687,15 +5684,15 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>29</v>
@@ -5704,12 +5701,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -5721,15 +5718,15 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>29</v>
@@ -5738,15 +5735,15 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -5755,49 +5752,49 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
         <v>362</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
         <v>364</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -5806,15 +5803,15 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
@@ -5823,15 +5820,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -5840,12 +5837,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5857,15 +5854,15 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
@@ -5874,15 +5871,15 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>29</v>
@@ -5891,15 +5888,15 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>29</v>
@@ -5908,15 +5905,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -5925,15 +5922,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -5942,32 +5939,32 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
         <v>380</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
@@ -5976,15 +5973,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
@@ -5993,15 +5990,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
@@ -6010,15 +6007,15 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>29</v>
@@ -6027,15 +6024,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>29</v>
@@ -6044,15 +6041,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" t="s">
         <v>391</v>
-      </c>
-      <c r="B53" t="s">
-        <v>392</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -6061,15 +6058,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>29</v>
@@ -6078,32 +6075,32 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
         <v>396</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -6112,32 +6109,32 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
+        <v>399</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
         <v>400</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
@@ -6146,15 +6143,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
@@ -6163,32 +6160,32 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
         <v>404</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>29</v>
@@ -6197,15 +6194,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>29</v>
@@ -6214,15 +6211,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>29</v>
@@ -6231,32 +6228,32 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
         <v>412</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>29</v>
@@ -6265,15 +6262,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -6282,15 +6279,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -6299,15 +6296,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -6316,49 +6313,49 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
+        <v>421</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
         <v>422</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
+        <v>423</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
         <v>424</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>29</v>
@@ -6367,15 +6364,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>29</v>
@@ -6384,7 +6381,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -6418,33 +6415,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>430</v>
       </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>431</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>432</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>433</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>434</v>
-      </c>
-      <c r="G1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -6457,15 +6454,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6478,10 +6475,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" t="s">
         <v>439</v>
-      </c>
-      <c r="G3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6489,7 +6486,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -6504,10 +6501,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -6522,10 +6519,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -6540,10 +6537,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6556,7 +6553,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6564,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -6579,10 +6576,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -6597,10 +6594,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -6615,10 +6612,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -6633,10 +6630,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -6649,15 +6646,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -6690,10 +6687,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -6708,10 +6705,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -6724,15 +6721,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -6750,7 +6747,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -6768,7 +6765,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -6783,10 +6780,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -6801,10 +6798,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -6822,7 +6819,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -6837,10 +6834,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -6855,10 +6852,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -6871,15 +6868,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -6892,15 +6889,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -6913,15 +6910,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -6934,15 +6931,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -6955,15 +6952,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -6978,10 +6975,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -6994,15 +6991,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -7017,10 +7014,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -7033,15 +7030,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -7054,15 +7051,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -7075,7 +7072,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7083,7 +7080,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -7096,15 +7093,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7119,10 +7116,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -7140,7 +7137,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -7153,7 +7150,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7161,7 +7158,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -7174,7 +7171,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7182,7 +7179,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -7195,15 +7192,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -7216,18 +7213,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -7240,15 +7237,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -7266,7 +7263,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -7284,7 +7281,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -7302,7 +7299,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -7315,15 +7312,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -7336,15 +7333,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -7359,10 +7356,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -7377,10 +7374,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -7393,15 +7390,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -7416,10 +7413,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -7457,16 +7454,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" t="s">
         <v>466</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>467</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>468</v>
-      </c>
-      <c r="D1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7760,8 +7757,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7935,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7960,7 +7957,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.0909090909091</v>
+        <v>19.1818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7974,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8128,7 +8125,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -8169,7 +8166,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D18:D30)</f>
-        <v>17.2307692307692</v>
+        <v>17.3846153846154</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8183,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8278,7 +8275,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D36:D41)</f>
-        <v>16.5</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8289,7 +8286,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
-        <v>17.7666666666667</v>
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -8304,8 +8301,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8395,7 +8392,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8423,7 +8420,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8479,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8493,14 +8490,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -8509,49 +8514,41 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17.4166666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>15</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>17.7692307692308</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -8560,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8579,16 +8576,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8616,12 +8613,12 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -8630,12 +8627,12 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -8677,7 +8674,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -8686,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="5"/>
     </row>
@@ -8707,7 +8704,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -8756,13 +8753,13 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>AVERAGE(D19:D33)</f>
-        <v>16.4666666666667</v>
+        <f>AVERAGE(D20:D33)</f>
+        <v>16.4285714285714</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -8776,7 +8773,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -8834,8 +8831,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
-        <v>16.7333333333333</v>
+        <f>AVERAGE(D2:D14,D20:D33,D39:D41)</f>
+        <v>16.9</v>
       </c>
     </row>
   </sheetData>
@@ -8849,8 +8846,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8903,7 +8900,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8917,7 +8914,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8931,7 +8928,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -8959,7 +8956,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -8973,7 +8970,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -8987,7 +8984,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -9029,7 +9026,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -9043,7 +9040,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -9057,7 +9054,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -9094,7 +9091,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9119,7 +9116,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <f>AVERAGE(D2:D17)</f>
-        <v>15.625</v>
+        <v>15.6875</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9133,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9152,7 +9149,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -9166,7 +9163,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -9180,7 +9177,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -9208,7 +9205,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -9242,7 +9239,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D23:D29)</f>
-        <v>14.2857142857143</v>
+        <v>14.4285714285714</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9256,12 +9253,12 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -9365,7 +9362,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.1428571428571</v>
+        <v>15.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9374,7 +9371,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D17,D23:D29,D35:D41)</f>
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
     </row>
   </sheetData>
@@ -9388,8 +9385,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9479,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9507,7 +9504,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9526,7 +9523,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -9577,7 +9574,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9591,21 +9588,21 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9619,14 +9616,22 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
@@ -9635,63 +9640,55 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>15</v>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>AVERAGE(D2:D17)</f>
+        <v>18.125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -9705,7 +9702,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -9733,7 +9730,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -9742,12 +9739,12 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -9780,7 +9777,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D22:D29)</f>
+        <f>AVERAGE(D23:D29)</f>
         <v>16</v>
       </c>
     </row>
@@ -9795,7 +9792,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9814,7 +9811,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -9842,7 +9839,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -9904,7 +9901,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>15.8571428571429</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9912,8 +9909,8 @@
         <v>35</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D16,D22:D29,D35:D41)</f>
-        <v>16.8666666666667</v>
+        <f>AVERAGE(D2:D17,D23:D29,D35:D41)</f>
+        <v>17.1333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -10150,7 +10147,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -10186,7 +10183,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
@@ -10204,8 +10201,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10300,7 +10297,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10322,7 +10319,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>19.1428571428571</v>
+        <v>19.2857142857143</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -10334,7 +10331,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10367,7 +10364,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10389,23 +10386,23 @@
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C14:C17)</f>
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -10416,7 +10413,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -10427,7 +10424,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -10438,7 +10435,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
@@ -10466,7 +10463,7 @@
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C23:C27)</f>
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10474,11 +10471,11 @@
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C8,C14:C17,C23:C27)</f>
-        <v>17.75</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -10493,7 +10490,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10533,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10555,7 +10552,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10588,7 +10585,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10599,13 +10596,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
@@ -10613,31 +10616,25 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16.625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18</v>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>17.2222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -10648,7 +10645,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -10659,18 +10656,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -10697,13 +10694,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C15:C19)</f>
-        <v>15.2</v>
+        <f>AVERAGE(C16:C19)</f>
+        <v>14.75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -10714,7 +10711,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -10750,11 +10747,11 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C19,C25:C26)</f>
-        <v>15.8666666666667</v>
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -10792,7 +10789,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10803,7 +10800,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -10814,7 +10811,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -10825,7 +10822,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -10836,7 +10833,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -10847,7 +10844,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -10858,7 +10855,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -10869,7 +10866,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -10880,7 +10877,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -10924,7 +10921,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -10935,7 +10932,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -10946,7 +10943,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -10979,7 +10976,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -10990,7 +10987,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -11026,7 +11023,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13320" windowHeight="13500" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +7757,7 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -8301,8 +8301,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8782,7 +8782,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8821,7 +8821,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>15.3333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8832,7 +8832,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D14,D20:D33,D39:D41)</f>
-        <v>16.9</v>
+        <v>16.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -9386,7 +9386,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD50"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9848,7 +9848,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -9901,7 +9901,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D35:D41)</f>
-        <v>16</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D17,D23:D29,D35:D41)</f>
-        <v>17.1333333333333</v>
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
@@ -9925,7 +9925,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -10201,7 +10201,7 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -10490,7 +10490,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10717,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>16.2</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="466">
   <si>
     <t>名称</t>
   </si>
@@ -167,9 +167,6 @@
     <t>飓风术</t>
   </si>
   <si>
-    <t>执剑道者</t>
-  </si>
-  <si>
     <t>连击</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
     <t>风铃道人</t>
   </si>
   <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
     <t>驱魔道人</t>
   </si>
   <si>
@@ -188,7 +188,7 @@
     <t>墨轩隐士</t>
   </si>
   <si>
-    <t>万物之灵</t>
+    <t>蟠桃会</t>
   </si>
   <si>
     <t>九天玄女·轩</t>
@@ -236,9 +236,6 @@
     <t>樱花·艾希尔</t>
   </si>
   <si>
-    <t>执剑道人</t>
-  </si>
-  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>(29/29)：【洞察1】、登场:吹回随机敌军。</t>
   </si>
   <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
     <t>(0/60)：【洞察1】、回合结束:获得手牌:仙桃-lv20。</t>
   </si>
   <si>
@@ -477,9 +471,6 @@
   </si>
   <si>
     <t>(7/60)：【洞察1】、法力上限+1、回合结束:复制场上另一单位，到你手上。</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
   </si>
   <si>
     <t>(法术)：【洞察1】、抓3张牌，英雄生命+50、随机一个友军+9/+9。</t>
@@ -2421,8 +2412,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2526,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2621,7 +2612,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.1818181818182</v>
+        <v>19.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2946,7 +2937,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.9</v>
+        <v>17.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +2967,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2988,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -2996,7 +2987,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3008,29 +2999,29 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -3042,15 +3033,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3059,12 +3050,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3076,15 +3067,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3093,15 +3084,15 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -3110,12 +3101,12 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -3127,12 +3118,12 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -3144,15 +3135,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -3161,15 +3152,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -3178,12 +3169,12 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -3195,15 +3186,15 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -3212,12 +3203,12 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -3229,15 +3220,15 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -3246,12 +3237,12 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -3263,12 +3254,12 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -3280,12 +3271,12 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -3297,12 +3288,12 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -3314,29 +3305,29 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -3348,12 +3339,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3365,15 +3356,15 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -3382,29 +3373,29 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -3416,12 +3407,12 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -3433,12 +3424,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -3450,15 +3441,15 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
@@ -3467,12 +3458,12 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -3484,15 +3475,15 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -3501,12 +3492,12 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3518,15 +3509,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -3535,12 +3526,12 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -3552,12 +3543,12 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3569,12 +3560,12 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -3586,15 +3577,15 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>29</v>
@@ -3603,12 +3594,12 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
@@ -3620,12 +3611,12 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -3637,12 +3628,12 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
@@ -3654,15 +3645,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -3671,15 +3662,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -3688,15 +3679,15 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -3705,15 +3696,15 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
@@ -3722,12 +3713,12 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -3739,12 +3730,12 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -3756,15 +3747,15 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -3773,15 +3764,15 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
@@ -3790,12 +3781,12 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -3807,12 +3798,12 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -3824,32 +3815,32 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
         <v>151</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -3858,12 +3849,12 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
@@ -3875,15 +3866,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -3892,12 +3883,12 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -3909,12 +3900,12 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
         <v>58</v>
@@ -3926,15 +3917,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
@@ -3943,15 +3934,15 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
@@ -3960,12 +3951,12 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
@@ -3977,12 +3968,12 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
@@ -3994,15 +3985,15 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>16</v>
@@ -4011,15 +4002,15 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
@@ -4028,12 +4019,12 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
@@ -4045,15 +4036,15 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -4062,16 +4053,16 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" t="s">
         <v>173</v>
       </c>
-      <c r="B74" t="s">
-        <v>176</v>
-      </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
@@ -4079,15 +4070,15 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -4096,15 +4087,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -4113,15 +4104,15 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
@@ -4130,15 +4121,15 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
@@ -4147,15 +4138,15 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -4164,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
         <v>186</v>
       </c>
-      <c r="B82" t="s">
-        <v>189</v>
-      </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
@@ -4181,15 +4172,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -4198,15 +4189,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -4215,15 +4206,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -4232,15 +4223,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -4249,15 +4240,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -4266,15 +4257,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -4283,15 +4274,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -4300,15 +4291,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -4317,15 +4308,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -4334,15 +4325,15 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -4351,15 +4342,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
@@ -4368,15 +4359,15 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -4385,15 +4376,15 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
@@ -4402,15 +4393,15 @@
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
@@ -4419,15 +4410,15 @@
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -4436,16 +4427,16 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
         <v>219</v>
       </c>
-      <c r="B100" t="s">
-        <v>222</v>
-      </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
       </c>
@@ -4453,15 +4444,15 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4470,15 +4461,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -4487,15 +4478,15 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
@@ -4504,15 +4495,15 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -4521,15 +4512,15 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
@@ -4538,12 +4529,12 @@
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -4552,690 +4543,690 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E110" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" t="s">
+        <v>234</v>
+      </c>
+      <c r="E112" t="s">
         <v>237</v>
-      </c>
-      <c r="E112" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" t="s">
         <v>242</v>
-      </c>
-      <c r="E114" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E116" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E120" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E124" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E125" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E127" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E128" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E133" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E134" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E135" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E136" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E137" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E138" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E139" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E140" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E141" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E142" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E143" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E144" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E145" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B146" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E146" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B147" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E147" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E148" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E149" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B150" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5255,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5276,32 +5267,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -5310,15 +5301,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -5327,15 +5318,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -5344,15 +5335,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -5361,15 +5352,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -5378,12 +5369,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -5395,15 +5386,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -5412,15 +5403,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -5429,15 +5420,15 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -5446,15 +5437,15 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -5463,15 +5454,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -5480,15 +5471,15 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -5497,15 +5488,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -5514,15 +5505,15 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -5531,15 +5522,15 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -5548,15 +5539,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -5565,15 +5556,15 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
@@ -5582,15 +5573,15 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
@@ -5599,15 +5590,15 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -5616,15 +5607,15 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -5633,15 +5624,15 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -5650,15 +5641,15 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
@@ -5667,12 +5658,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -5684,15 +5675,15 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>29</v>
@@ -5701,12 +5692,12 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
@@ -5718,15 +5709,15 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>29</v>
@@ -5735,15 +5726,15 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -5752,15 +5743,15 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -5769,15 +5760,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -5786,15 +5777,15 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
@@ -5803,15 +5794,15 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
@@ -5820,15 +5811,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -5837,12 +5828,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5854,15 +5845,15 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
@@ -5871,15 +5862,15 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>29</v>
@@ -5888,15 +5879,15 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>29</v>
@@ -5905,15 +5896,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -5922,15 +5913,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -5939,15 +5930,15 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
@@ -5956,15 +5947,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>16</v>
@@ -5973,15 +5964,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>16</v>
@@ -5990,15 +5981,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
@@ -6007,12 +5998,12 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -6024,15 +6015,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>29</v>
@@ -6041,15 +6032,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -6058,15 +6049,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" t="s">
         <v>390</v>
-      </c>
-      <c r="B54" t="s">
-        <v>393</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>29</v>
@@ -6075,15 +6066,15 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -6092,15 +6083,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -6109,15 +6100,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
@@ -6126,15 +6117,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>16</v>
@@ -6143,15 +6134,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
@@ -6160,15 +6151,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
@@ -6177,15 +6168,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>29</v>
@@ -6194,15 +6185,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>29</v>
@@ -6211,15 +6202,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>29</v>
@@ -6228,15 +6219,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -6245,15 +6236,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>29</v>
@@ -6262,15 +6253,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -6279,15 +6270,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -6296,15 +6287,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
@@ -6313,15 +6304,15 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
@@ -6330,15 +6321,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
@@ -6347,15 +6338,15 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>29</v>
@@ -6364,15 +6355,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>29</v>
@@ -6381,7 +6372,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6415,33 +6406,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>430</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>431</v>
-      </c>
-      <c r="E1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -6454,15 +6445,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6475,10 +6466,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6486,7 +6477,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -6501,10 +6492,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -6519,10 +6510,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -6537,10 +6528,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6553,7 +6544,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6561,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -6576,10 +6567,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -6594,10 +6585,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -6612,10 +6603,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -6630,10 +6621,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -6646,15 +6637,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -6669,10 +6660,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -6687,10 +6678,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -6705,10 +6696,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -6721,15 +6712,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -6747,7 +6738,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -6765,7 +6756,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -6780,10 +6771,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -6798,10 +6789,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -6819,7 +6810,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -6834,10 +6825,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -6852,10 +6843,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -6868,15 +6859,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -6889,15 +6880,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -6910,15 +6901,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -6931,15 +6922,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -6952,15 +6943,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -6975,10 +6966,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -6991,15 +6982,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -7014,10 +7005,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -7030,15 +7021,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -7051,15 +7042,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -7072,7 +7063,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7080,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -7093,15 +7084,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7116,10 +7107,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -7137,7 +7128,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -7150,7 +7141,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7158,7 +7149,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -7171,7 +7162,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7179,7 +7170,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -7192,15 +7183,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -7213,18 +7204,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -7237,15 +7228,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -7263,7 +7254,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -7281,7 +7272,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -7299,7 +7290,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -7312,15 +7303,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -7333,15 +7324,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -7356,10 +7347,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -7374,10 +7365,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -7390,15 +7381,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -7413,10 +7404,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -7454,16 +7445,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" t="s">
         <v>465</v>
-      </c>
-      <c r="B1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7758,7 +7749,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7839,7 +7830,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -7848,26 +7839,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -7881,7 +7872,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -7895,13 +7886,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -7918,22 +7909,14 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>16</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -7942,27 +7925,35 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>19.1818181818182</v>
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -7971,26 +7962,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -7999,12 +7990,12 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -8013,7 +8004,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8032,16 +8023,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
         <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8069,26 +8060,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -8097,22 +8088,23 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
@@ -8165,8 +8157,8 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f>AVERAGE(D18:D30)</f>
-        <v>17.3846153846154</v>
+        <f>AVERAGE(D17:D30)</f>
+        <v>17.2142857142857</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8285,8 +8277,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
-        <v>17.9</v>
+        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
+        <v>17.8</v>
       </c>
     </row>
   </sheetData>
@@ -8301,8 +8293,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8378,7 +8370,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8439,7 +8431,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -8453,7 +8445,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -8462,7 +8454,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8473,7 +8465,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>17</v>
@@ -8481,7 +8473,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -8490,22 +8482,14 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>16</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -8514,41 +8498,49 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>17.7692307692308</v>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>17.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -8557,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8641,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8689,31 +8681,31 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" ht="14" customHeight="1" spans="1:6">
+      <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
         <v>15</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>12</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -8753,8 +8745,8 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>AVERAGE(D20:D33)</f>
-        <v>16.4285714285714</v>
+        <f>AVERAGE(D19:D33)</f>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8831,8 +8823,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D33,D39:D41)</f>
-        <v>16.9666666666667</v>
+        <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
+        <v>16.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9385,8 +9377,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9523,7 +9515,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -9537,7 +9529,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -9560,7 +9552,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9571,7 +9563,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>17</v>
@@ -9579,7 +9571,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -9588,21 +9580,21 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9616,22 +9608,14 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
@@ -9640,41 +9624,49 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <f>AVERAGE(D2:D17)</f>
-        <v>18.125</v>
+      <c r="D19" s="1">
+        <f>AVERAGE(D2:D16)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -9683,7 +9675,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9697,7 +9689,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9750,7 +9742,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>12</v>
@@ -9777,8 +9769,8 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <f>AVERAGE(D23:D29)</f>
-        <v>16</v>
+        <f>AVERAGE(D22:D29)</f>
+        <v>15.875</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -9909,8 +9901,8 @@
         <v>35</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D17,D23:D29,D35:D41)</f>
-        <v>17.2</v>
+        <f>AVERAGE(D2:D16,D22:D29,D35:D41)</f>
+        <v>17.0333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9925,8 +9917,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9977,7 +9969,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10010,7 +10002,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10147,7 +10139,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -10183,11 +10175,11 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>17.6</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10391,7 +10383,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -10402,7 +10394,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -10413,7 +10405,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -10424,7 +10416,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -10435,7 +10427,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
@@ -10471,7 +10463,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C8,C14:C17,C23:C27)</f>
@@ -10487,10 +10479,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10574,7 +10566,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10582,7 +10574,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>17</v>
@@ -10590,25 +10582,19 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
@@ -10616,20 +10602,26 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>17.2222222222222</v>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10640,7 +10632,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10666,15 +10658,9 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -10682,20 +10668,26 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
-        <v>14.75</v>
+      <c r="C21" s="2">
+        <f>AVERAGE(C15:C18)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -10706,19 +10698,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
@@ -10726,32 +10712,27 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
+      <c r="C28" s="3">
+        <f>AVERAGE(C24:C25)</f>
         <v>15.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>16.3333333333333</v>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE(C2:C9,C15:C18,C24:C25)</f>
+        <v>16.2857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -10976,7 +10957,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -10987,7 +10968,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -11023,7 +11004,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
     <sheet name="伊萝莲" sheetId="1" r:id="rId2"/>
     <sheet name="洛" sheetId="11" r:id="rId3"/>
-    <sheet name="亚芬戴克斯" sheetId="21" r:id="rId4"/>
+    <sheet name="朱贝" sheetId="22" r:id="rId4"/>
     <sheet name="梅" sheetId="3" r:id="rId5"/>
-    <sheet name="隐秘" sheetId="6" r:id="rId6"/>
-    <sheet name="帝国" sheetId="5" r:id="rId7"/>
-    <sheet name="禅意" sheetId="7" r:id="rId8"/>
-    <sheet name="港口" sheetId="20" r:id="rId9"/>
-    <sheet name="洞察表" sheetId="14" r:id="rId10"/>
-    <sheet name="护甲表" sheetId="19" r:id="rId11"/>
-    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId12"/>
-    <sheet name="卡等需求" sheetId="17" r:id="rId13"/>
+    <sheet name="亚芬戴克斯" sheetId="21" r:id="rId6"/>
+    <sheet name="隐秘" sheetId="6" r:id="rId7"/>
+    <sheet name="帝国" sheetId="5" r:id="rId8"/>
+    <sheet name="禅意" sheetId="7" r:id="rId9"/>
+    <sheet name="港口" sheetId="20" r:id="rId10"/>
+    <sheet name="洞察表" sheetId="14" r:id="rId11"/>
+    <sheet name="护甲表" sheetId="19" r:id="rId12"/>
+    <sheet name="到18级还差多少张卡" sheetId="16" r:id="rId13"/>
+    <sheet name="卡等需求" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="468">
   <si>
     <t>名称</t>
   </si>
@@ -77,6 +78,9 @@
     <t>全数否定</t>
   </si>
   <si>
+    <t>虚化术</t>
+  </si>
+  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -189,6 +193,9 @@
   </si>
   <si>
     <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
   </si>
   <si>
     <t>九天玄女·轩</t>
@@ -2413,7 +2420,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2480,7 +2487,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2494,7 +2501,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2503,26 +2510,26 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2536,7 +2543,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2550,7 +2557,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2559,12 +2566,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2578,7 +2585,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2604,23 +2611,23 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.2727272727273</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2631,10 +2638,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2645,10 +2652,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -2659,10 +2666,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2673,10 +2680,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2687,10 +2694,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -2701,10 +2708,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2715,10 +2722,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2729,10 +2736,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -2743,10 +2750,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -2757,10 +2764,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2771,10 +2778,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2785,10 +2792,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -2799,10 +2806,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -2825,10 +2832,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
@@ -2838,10 +2845,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -2852,10 +2859,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -2866,10 +2873,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -2880,10 +2887,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -2894,10 +2901,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -2920,10 +2927,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -2933,11 +2940,11 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.9333333333333</v>
+        <v>17.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2948,6 +2955,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.7583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>12.8888888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C16:C19)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>12.5333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E150"/>
@@ -2967,7 +3250,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2979,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -2987,7 +3270,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2999,15 +3282,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3016,12 +3299,12 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -3033,15 +3316,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3050,12 +3333,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -3067,15 +3350,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3084,15 +3367,15 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -3101,15 +3384,15 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -3118,202 +3401,202 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -3322,12 +3605,12 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -3339,12 +3622,12 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -3356,15 +3639,15 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -3373,15 +3656,15 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -3390,219 +3673,219 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -3611,15 +3894,15 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -3628,15 +3911,15 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -3645,15 +3928,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -3662,15 +3945,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -3679,15 +3962,15 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -3696,117 +3979,117 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -3815,15 +4098,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -3832,15 +4115,15 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -3849,15 +4132,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -3866,15 +4149,15 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -3883,15 +4166,15 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -3900,15 +4183,15 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -3917,134 +4200,134 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -4053,15 +4336,15 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -4070,15 +4353,15 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -4087,15 +4370,15 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -4104,49 +4387,49 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -4155,15 +4438,15 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -4172,15 +4455,15 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -4189,15 +4472,15 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -4206,15 +4489,15 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -4223,15 +4506,15 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -4240,15 +4523,15 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -4257,15 +4540,15 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -4274,15 +4557,15 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -4291,15 +4574,15 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -4308,15 +4591,15 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -4325,15 +4608,15 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -4342,15 +4625,15 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
@@ -4359,66 +4642,66 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -4427,15 +4710,15 @@
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
@@ -4444,15 +4727,15 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4461,15 +4744,15 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -4478,63 +4761,63 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
@@ -4543,690 +4826,690 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" t="s">
-        <v>234</v>
-      </c>
       <c r="E112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>239</v>
-      </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E118" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E119" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E126" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E130" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E131" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E133" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B134" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E136" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E137" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E138" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E139" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E140" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E142" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E143" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E144" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E146" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E147" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E148" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E149" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E150" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E78"/>
@@ -5255,7 +5538,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5267,32 +5550,32 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -5301,15 +5584,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -5318,15 +5601,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -5335,15 +5618,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -5352,15 +5635,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -5369,372 +5652,372 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -5743,15 +6026,15 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -5760,15 +6043,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -5777,134 +6060,134 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -5913,15 +6196,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -5930,117 +6213,117 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -6049,32 +6332,32 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -6083,15 +6366,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -6100,134 +6383,134 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -6236,32 +6519,32 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -6270,109 +6553,109 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +6664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G56"/>
@@ -6406,33 +6689,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -6445,15 +6728,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6466,10 +6749,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6477,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -6492,10 +6775,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -6510,10 +6793,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -6528,10 +6811,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6544,7 +6827,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6552,7 +6835,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -6567,10 +6850,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -6585,10 +6868,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -6603,10 +6886,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -6621,10 +6904,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -6637,15 +6920,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -6660,10 +6943,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -6678,10 +6961,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -6696,10 +6979,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -6712,15 +6995,15 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -6735,10 +7018,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -6753,10 +7036,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -6771,10 +7054,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -6789,10 +7072,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -6807,10 +7090,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -6825,10 +7108,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -6843,10 +7126,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -6859,15 +7142,15 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -6880,15 +7163,15 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -6901,15 +7184,15 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -6922,15 +7205,15 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -6943,15 +7226,15 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -6966,10 +7249,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -6982,15 +7265,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -7005,10 +7288,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -7021,15 +7304,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -7042,15 +7325,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -7063,7 +7346,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7071,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -7084,15 +7367,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7107,10 +7390,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -7125,10 +7408,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -7141,15 +7424,15 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -7162,15 +7445,15 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -7183,15 +7466,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -7204,18 +7487,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G45" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -7228,15 +7511,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -7251,10 +7534,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -7269,10 +7552,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -7287,10 +7570,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -7303,15 +7586,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -7324,15 +7607,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -7347,10 +7630,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -7365,10 +7648,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -7381,15 +7664,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -7404,10 +7687,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -7426,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D21"/>
@@ -7445,16 +7728,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7748,8 +8031,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7816,7 +8099,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -7886,7 +8169,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -7900,7 +8183,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -7926,10 +8209,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -7939,10 +8222,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -7953,10 +8236,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -7967,10 +8250,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -7981,10 +8264,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -7995,10 +8278,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -8009,10 +8292,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -8023,10 +8306,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -8037,10 +8320,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -8051,10 +8334,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -8065,10 +8348,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -8079,10 +8362,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -8093,10 +8376,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -8108,10 +8391,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
@@ -8123,10 +8406,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>7</v>
@@ -8150,10 +8433,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -8163,10 +8446,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
@@ -8177,10 +8460,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -8191,10 +8474,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -8205,10 +8488,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
@@ -8219,10 +8502,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -8233,10 +8516,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -8259,10 +8542,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -8272,7 +8555,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8293,8 +8576,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8333,7 +8616,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -8347,7 +8630,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8356,12 +8639,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8370,12 +8653,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -8384,12 +8667,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -8403,21 +8686,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -8431,7 +8714,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -8440,12 +8723,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -8454,12 +8737,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -8468,22 +8751,14 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>16</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -8492,58 +8767,66 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>17.6666666666667</v>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.8181818181818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -8554,10 +8837,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -8568,24 +8851,24 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
         <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -8596,125 +8879,126 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" ht="14" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
         <v>13</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" ht="14" customHeight="1" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>15</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
@@ -8738,23 +9022,23 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>AVERAGE(D19:D33)</f>
-        <v>16.3333333333333</v>
+        <f>AVERAGE(D18:D33)</f>
+        <v>16.3125</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -8765,10 +9049,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
@@ -8779,10 +9063,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -8805,10 +9089,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -8818,12 +9102,12 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D33,D39:D41)</f>
+        <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
         <v>16.8333333333333</v>
       </c>
     </row>
@@ -8834,6 +9118,1098 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.8181818181818</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" ht="14" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>AVERAGE(D18:D33)</f>
+        <v>16.3125</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D39:D41)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
+        <v>16.8333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>AVERAGE(D2:D15)</f>
+        <v>18.3571428571429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D21:D29)</f>
+        <v>15.8888888888889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D35:D41)</f>
+        <v>16.2857142857143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(D2:D15,D21:D29,D35:D41)</f>
+        <v>17.1333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D47"/>
@@ -8892,7 +10268,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8906,7 +10282,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8920,7 +10296,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -8948,7 +10324,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -8962,7 +10338,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -8976,7 +10352,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -9018,7 +10394,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -9032,7 +10408,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -9046,7 +10422,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -9060,7 +10436,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -9074,7 +10450,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -9100,10 +10476,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -9113,10 +10489,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -9127,10 +10503,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -9141,10 +10517,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -9155,10 +10531,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -9169,10 +10545,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -9183,10 +10559,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -9197,10 +10573,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -9223,10 +10599,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -9236,10 +10612,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -9250,10 +10626,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
@@ -9264,10 +10640,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -9278,10 +10654,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
@@ -9292,10 +10668,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -9306,10 +10682,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3">
         <v>6</v>
@@ -9320,10 +10696,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3">
         <v>8</v>
@@ -9346,10 +10722,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
@@ -9359,7 +10735,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D17,D23:D29,D35:D41)</f>
@@ -9372,553 +10748,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>AVERAGE(D2:D16)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D22:D29)</f>
-        <v>15.875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4</v>
-      </c>
-      <c r="D38" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6</v>
-      </c>
-      <c r="D40" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>16.2857142857143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47">
-        <f>AVERAGE(D2:D16,D22:D29,D35:D41)</f>
-        <v>17.0333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9952,35 +10788,35 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9995,19 +10831,19 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -10018,7 +10854,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -10029,7 +10865,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -10040,7 +10876,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -10051,7 +10887,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -10062,7 +10898,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -10073,7 +10909,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -10084,7 +10920,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -10095,7 +10931,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -10106,7 +10942,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -10127,10 +10963,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
@@ -10139,7 +10975,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -10160,10 +10996,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C26:C26)</f>
@@ -10172,14 +11008,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>17.6666666666667</v>
+        <v>17.4666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10188,7 +11024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D33"/>
@@ -10272,7 +11108,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -10283,7 +11119,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -10304,10 +11140,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
@@ -10317,7 +11153,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -10328,7 +11164,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -10339,7 +11175,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -10350,7 +11186,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -10371,10 +11207,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <f>AVERAGE(C14:C17)</f>
@@ -10383,7 +11219,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -10394,7 +11230,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -10405,7 +11241,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -10416,7 +11252,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -10427,7 +11263,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3">
         <v>8</v>
@@ -10448,10 +11284,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C23:C27)</f>
@@ -10460,10 +11296,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C8,C14:C17,C23:C27)</f>
@@ -10476,13 +11312,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10505,7 +11341,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -10516,7 +11352,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10527,7 +11363,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -10538,7 +11374,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -10549,7 +11385,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -10560,7 +11396,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -10571,25 +11407,19 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
@@ -10597,39 +11427,45 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16.875</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>17.4285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>18</v>
@@ -10637,30 +11473,36 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
@@ -10668,43 +11510,43 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3"/>
@@ -10712,303 +11554,32 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="3">
-        <f>AVERAGE(C24:C25)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C25)</f>
-        <v>16.2857142857143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="13.7583333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>12.8888888888889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C16:C19)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>12</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
-        <v>12.5333333333333</v>
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2419,7 +2419,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8577,7 +8577,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8653,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8776,7 +8776,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.8181818181818</v>
+        <v>17.9090909090909</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9108,7 +9108,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.8333333333333</v>
+        <v>16.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -9122,8 +9122,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9322,11 +9322,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.8181818181818</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
+        <v>17.9090909090909</v>
+      </c>
+    </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>18</v>
@@ -9581,8 +9579,6 @@
         <v>16.3125</v>
       </c>
     </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>52</v>
@@ -9650,8 +9646,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>36</v>
@@ -9660,7 +9654,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.8333333333333</v>
+        <v>16.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -9674,8 +9668,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9765,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9916,7 +9910,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>18.3571428571429</v>
+        <v>18.4285714285714</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10199,7 +10193,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D29,D35:D41)</f>
-        <v>17.1333333333333</v>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11317,8 +11311,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11358,7 +11352,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11435,7 +11429,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.4285714285714</v>
+        <v>17.5714285714286</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11579,7 +11573,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>16.2</v>
+        <v>16.2666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="480">
   <si>
     <t>名称</t>
   </si>
@@ -318,6 +318,12 @@
     <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>(20/28)：【洞察1】、洞察时:自身+5/+5，英雄获得生命（等同自身攻击）。</t>
+  </si>
+  <si>
     <t>精英射手</t>
   </si>
   <si>
@@ -351,6 +357,12 @@
     <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
   </si>
   <si>
+    <t>皇家射手</t>
+  </si>
+  <si>
+    <t>(40/20)：【先攻】、【洞察1】、回合开始:召唤25/12塔楼弓手-lv18（次数上限：3）。</t>
+  </si>
+  <si>
     <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
   </si>
   <si>
@@ -375,6 +387,12 @@
     <t>隐秘</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+30。</t>
+  </si>
+  <si>
     <t>方尖魔碑</t>
   </si>
   <si>
@@ -408,6 +426,12 @@
     <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
   </si>
   <si>
+    <t>神秘学教授</t>
+  </si>
+  <si>
+    <t>(13/33)：每当一个敌军死亡:获得【洞悉之眼-lv20】（每次对战仅可触发3次）。</t>
+  </si>
+  <si>
     <t>学仆-猛禽型</t>
   </si>
   <si>
@@ -690,6 +714,12 @@
     <t>(0/77)：回合结束：若本回合受到过伤害，抽一张牌，英雄生命+18，【洞察1】。</t>
   </si>
   <si>
+    <t>高原保卫战</t>
+  </si>
+  <si>
+    <t>(法术)：召唤28/36高原守卫-lv20，随机友军+6/+13，全场生物受到1点伤害。</t>
+  </si>
+  <si>
     <t>象牙少女</t>
   </si>
   <si>
@@ -733,6 +763,12 @@
   </si>
   <si>
     <t>(50/15)：【洞察1】、【隐形】、【穿透】、【魔防8】。</t>
+  </si>
+  <si>
+    <t>严冬修行</t>
+  </si>
+  <si>
+    <t>(法术)：冰封敌方区域，召唤21/39严冬苦行僧-lv20、随机敌军-18/-18。</t>
   </si>
   <si>
     <t>冰河世纪</t>
@@ -2419,7 +2455,7 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3233,10 +3269,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3381,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>93</v>
@@ -3392,16 +3428,16 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3409,16 +3445,16 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3426,13 +3462,13 @@
         <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>97</v>
@@ -3460,16 +3496,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3477,7 +3513,7 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -3494,16 +3530,16 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3511,16 +3547,16 @@
         <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3528,16 +3564,16 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3545,16 +3581,16 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3562,16 +3598,16 @@
         <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3579,585 +3615,582 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>110</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>136</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
-        <v>149</v>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -4166,242 +4199,242 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
+        <v>165</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>177</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
         <v>181</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>17</v>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
         <v>182</v>
@@ -4409,92 +4442,92 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>17</v>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>5</v>
+        <v>189</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" t="s">
         <v>192</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B85" t="s">
         <v>194</v>
@@ -4503,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>195</v>
@@ -4511,7 +4544,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
         <v>196</v>
@@ -4520,7 +4553,7 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E86" t="s">
         <v>197</v>
@@ -4528,7 +4561,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
         <v>198</v>
@@ -4537,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>199</v>
@@ -4545,7 +4578,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
         <v>200</v>
@@ -4554,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>201</v>
@@ -4562,7 +4595,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
         <v>202</v>
@@ -4571,7 +4604,7 @@
         <v>5</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>203</v>
@@ -4579,7 +4612,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
         <v>204</v>
@@ -4588,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90" t="s">
         <v>205</v>
@@ -4596,7 +4629,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s">
         <v>206</v>
@@ -4605,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E91" t="s">
         <v>207</v>
@@ -4613,7 +4646,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
         <v>208</v>
@@ -4622,7 +4655,7 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" t="s">
         <v>209</v>
@@ -4630,7 +4663,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
         <v>210</v>
@@ -4639,7 +4672,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
         <v>211</v>
@@ -4647,16 +4680,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>17</v>
+      <c r="C94" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94" t="s">
         <v>213</v>
@@ -4664,16 +4697,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>17</v>
+      <c r="C95" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" t="s">
         <v>215</v>
@@ -4681,118 +4714,118 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
         <v>216</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>17</v>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>5</v>
+        <v>224</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>5</v>
+        <v>226</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>218</v>
-      </c>
-      <c r="B102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" t="s">
         <v>227</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>17</v>
+      <c r="C104" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
         <v>230</v>
@@ -4800,186 +4833,186 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B105" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>17</v>
+      <c r="C105" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E105" t="s">
         <v>232</v>
       </c>
     </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>240</v>
+      </c>
+    </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>233</v>
+        <v>241</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D111" t="s">
-        <v>236</v>
+      <c r="D111">
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>236</v>
-      </c>
-      <c r="E112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>241</v>
-      </c>
-      <c r="E113" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" t="s">
-        <v>241</v>
-      </c>
-      <c r="E115" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" t="s">
         <v>249</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" t="s">
-        <v>236</v>
-      </c>
-      <c r="E117" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>248</v>
+      </c>
+      <c r="E118" t="s">
         <v>251</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" t="s">
-        <v>236</v>
-      </c>
-      <c r="E118" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
         <v>253</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" t="s">
-        <v>241</v>
       </c>
       <c r="E119" t="s">
         <v>254</v>
@@ -4987,16 +5020,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>17</v>
+      <c r="C120" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E120" t="s">
         <v>256</v>
@@ -5004,7 +5037,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s">
         <v>257</v>
@@ -5013,7 +5046,7 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E121" t="s">
         <v>258</v>
@@ -5021,16 +5054,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>30</v>
+      <c r="C122" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E122" t="s">
         <v>260</v>
@@ -5038,16 +5071,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
         <v>261</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>30</v>
+      <c r="C123" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E123" t="s">
         <v>262</v>
@@ -5055,16 +5088,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
         <v>263</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>5</v>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E124" t="s">
         <v>264</v>
@@ -5072,7 +5105,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
         <v>265</v>
@@ -5081,7 +5114,7 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E125" t="s">
         <v>266</v>
@@ -5089,16 +5122,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>30</v>
+      <c r="C126" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E126" t="s">
         <v>268</v>
@@ -5106,7 +5139,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
         <v>269</v>
@@ -5115,7 +5148,7 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E127" t="s">
         <v>270</v>
@@ -5123,16 +5156,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>17</v>
+      <c r="C128" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E128" t="s">
         <v>272</v>
@@ -5140,16 +5173,16 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B129" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>5</v>
+      <c r="C129" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E129" t="s">
         <v>274</v>
@@ -5157,7 +5190,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
         <v>275</v>
@@ -5166,7 +5199,7 @@
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E130" t="s">
         <v>276</v>
@@ -5174,7 +5207,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
         <v>277</v>
@@ -5183,7 +5216,7 @@
         <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E131" t="s">
         <v>278</v>
@@ -5191,7 +5224,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B132" t="s">
         <v>279</v>
@@ -5200,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E132" t="s">
         <v>280</v>
@@ -5208,7 +5241,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
         <v>281</v>
@@ -5217,7 +5250,7 @@
         <v>17</v>
       </c>
       <c r="D133" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E133" t="s">
         <v>282</v>
@@ -5225,7 +5258,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
         <v>283</v>
@@ -5234,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E134" t="s">
         <v>284</v>
@@ -5242,16 +5275,16 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>30</v>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E135" t="s">
         <v>286</v>
@@ -5259,16 +5292,16 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
         <v>287</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>17</v>
+      <c r="C136" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E136" t="s">
         <v>288</v>
@@ -5276,7 +5309,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
         <v>289</v>
@@ -5285,7 +5318,7 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E137" t="s">
         <v>290</v>
@@ -5293,16 +5326,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>17</v>
+      <c r="C138" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E138" t="s">
         <v>292</v>
@@ -5310,16 +5343,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
         <v>293</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>5</v>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E139" t="s">
         <v>294</v>
@@ -5327,16 +5360,16 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>5</v>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E140" t="s">
         <v>296</v>
@@ -5344,16 +5377,16 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B141" t="s">
         <v>297</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>17</v>
+      <c r="C141" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D141" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E141" t="s">
         <v>298</v>
@@ -5361,16 +5394,16 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
         <v>299</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>30</v>
+      <c r="C142" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E142" t="s">
         <v>300</v>
@@ -5378,16 +5411,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>5</v>
+      <c r="C143" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E143" t="s">
         <v>302</v>
@@ -5395,16 +5428,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>5</v>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E144" t="s">
         <v>304</v>
@@ -5412,7 +5445,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B145" t="s">
         <v>305</v>
@@ -5421,7 +5454,7 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E145" t="s">
         <v>306</v>
@@ -5429,16 +5462,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B146" t="s">
         <v>307</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>17</v>
+      <c r="C146" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E146" t="s">
         <v>308</v>
@@ -5446,16 +5479,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B147" t="s">
         <v>309</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>5</v>
+      <c r="C147" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E147" t="s">
         <v>310</v>
@@ -5463,16 +5496,16 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
         <v>311</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>17</v>
+      <c r="C148" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D148" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E148" t="s">
         <v>312</v>
@@ -5480,16 +5513,16 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B149" t="s">
         <v>313</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>17</v>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E149" t="s">
         <v>314</v>
@@ -5497,19 +5530,121 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B150" t="s">
         <v>315</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
+      <c r="C150" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E150" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>193</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E151" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>193</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>253</v>
+      </c>
+      <c r="E153" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>228</v>
+      </c>
+      <c r="B154" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>253</v>
+      </c>
+      <c r="E154" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>253</v>
+      </c>
+      <c r="E155" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>228</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>253</v>
+      </c>
+      <c r="E156" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5558,16 +5693,16 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5575,7 +5710,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -5584,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5592,7 +5727,7 @@
         <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -5601,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5609,7 +5744,7 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -5618,7 +5753,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5626,7 +5761,7 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -5635,7 +5770,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5643,7 +5778,7 @@
         <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -5652,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5669,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5677,7 +5812,7 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -5686,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5694,7 +5829,7 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -5703,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5711,7 +5846,7 @@
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -5720,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5728,7 +5863,7 @@
         <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -5737,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5745,7 +5880,7 @@
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
@@ -5754,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5762,7 +5897,7 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -5771,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5779,7 +5914,7 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -5788,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5796,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -5805,7 +5940,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5813,7 +5948,7 @@
         <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -5822,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5830,7 +5965,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
@@ -5839,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5847,7 +5982,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
@@ -5856,7 +5991,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5864,7 +5999,7 @@
         <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
@@ -5873,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5881,7 +6016,7 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -5890,7 +6025,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5898,7 +6033,7 @@
         <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -5907,7 +6042,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5915,7 +6050,7 @@
         <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -5924,7 +6059,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5932,7 +6067,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>30</v>
@@ -5941,7 +6076,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5958,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5966,7 +6101,7 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>30</v>
@@ -5975,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5992,7 +6127,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6000,7 +6135,7 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>30</v>
@@ -6009,15 +6144,15 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -6026,15 +6161,15 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -6043,15 +6178,15 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -6060,15 +6195,15 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
@@ -6077,15 +6212,15 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
@@ -6094,15 +6229,15 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
@@ -6111,12 +6246,12 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
@@ -6128,15 +6263,15 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
@@ -6145,15 +6280,15 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>30</v>
@@ -6162,15 +6297,15 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>30</v>
@@ -6179,15 +6314,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>5</v>
@@ -6196,15 +6331,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -6213,15 +6348,15 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
@@ -6230,15 +6365,15 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
@@ -6247,15 +6382,15 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
@@ -6264,15 +6399,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
@@ -6281,12 +6416,12 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -6298,15 +6433,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
@@ -6315,15 +6450,15 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -6332,15 +6467,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>30</v>
@@ -6349,15 +6484,15 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -6366,15 +6501,15 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -6383,15 +6518,15 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
@@ -6400,15 +6535,15 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
@@ -6417,15 +6552,15 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:5">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
@@ -6434,15 +6569,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
@@ -6451,15 +6586,15 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" customFormat="1" spans="1:5">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>30</v>
@@ -6468,15 +6603,15 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" customFormat="1" spans="1:5">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>30</v>
@@ -6485,15 +6620,15 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:5">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>30</v>
@@ -6502,15 +6637,15 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -6519,15 +6654,15 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>30</v>
@@ -6536,15 +6671,15 @@
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -6553,15 +6688,15 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
@@ -6570,15 +6705,15 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
@@ -6587,15 +6722,15 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -6604,15 +6739,15 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
@@ -6621,15 +6756,15 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>30</v>
@@ -6638,15 +6773,15 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>30</v>
@@ -6655,7 +6790,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6689,30 +6824,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>82</v>
@@ -6728,12 +6863,12 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>82</v>
@@ -6749,10 +6884,10 @@
         <v>2684</v>
       </c>
       <c r="F3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6793,7 +6928,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>82</v>
@@ -6811,7 +6946,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
@@ -6827,7 +6962,7 @@
         <v>2640</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6850,7 +6985,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
@@ -6868,7 +7003,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>82</v>
@@ -6886,7 +7021,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -6904,7 +7039,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>82</v>
@@ -6920,12 +7055,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
@@ -6943,7 +7078,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>82</v>
@@ -6961,7 +7096,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>82</v>
@@ -6979,7 +7114,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>82</v>
@@ -6995,12 +7130,12 @@
         <v>955</v>
       </c>
       <c r="F16" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>82</v>
@@ -7054,7 +7189,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>82</v>
@@ -7072,7 +7207,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>82</v>
@@ -7108,7 +7243,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>82</v>
@@ -7142,12 +7277,12 @@
         <v>552</v>
       </c>
       <c r="F24" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>82</v>
@@ -7163,7 +7298,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7184,7 +7319,7 @@
         <v>726</v>
       </c>
       <c r="F26" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7205,7 +7340,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7226,12 +7361,12 @@
         <v>629</v>
       </c>
       <c r="F28" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>82</v>
@@ -7249,10 +7384,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1">
         <v>18</v>
@@ -7265,15 +7400,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1">
         <v>16</v>
@@ -7288,10 +7423,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1">
         <v>17</v>
@@ -7304,15 +7439,15 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1">
         <v>13</v>
@@ -7325,15 +7460,15 @@
         <v>1648</v>
       </c>
       <c r="F37" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1">
         <v>13</v>
@@ -7346,7 +7481,7 @@
         <v>1856</v>
       </c>
       <c r="F38" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7354,7 +7489,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1">
         <v>18</v>
@@ -7367,15 +7502,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1">
         <v>6</v>
@@ -7390,10 +7525,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
@@ -7411,7 +7546,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C42" s="2">
         <v>14</v>
@@ -7424,7 +7559,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7432,7 +7567,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C43" s="2">
         <v>16</v>
@@ -7445,7 +7580,7 @@
         <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7453,7 +7588,7 @@
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2">
         <v>14</v>
@@ -7466,15 +7601,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2">
         <v>17</v>
@@ -7487,18 +7622,18 @@
         <v>279</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G45" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2">
         <v>17</v>
@@ -7511,15 +7646,15 @@
         <v>320</v>
       </c>
       <c r="F46" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -7537,7 +7672,7 @@
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
@@ -7555,7 +7690,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -7573,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -7586,15 +7721,15 @@
         <v>320</v>
       </c>
       <c r="F50" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -7607,15 +7742,15 @@
         <v>953</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -7630,10 +7765,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -7651,7 +7786,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54" s="3">
         <v>12</v>
@@ -7664,15 +7799,15 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C55" s="3">
         <v>6</v>
@@ -7687,10 +7822,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -7728,16 +7863,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B1" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C1" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="480">
   <si>
     <t>名称</t>
   </si>
@@ -3271,8 +3271,8 @@
   <sheetPr/>
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3814,7 +3814,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" t="s">
         <v>128</v>
       </c>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -3271,8 +3271,8 @@
   <sheetPr/>
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8714,8 +8714,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8805,7 +8805,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8914,7 +8914,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.9090909090909</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9082,7 +9082,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -9168,7 +9168,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.3125</v>
+        <v>16.375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9246,7 +9246,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.8666666666667</v>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9260,8 +9260,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9351,7 +9351,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9460,7 +9460,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.9090909090909</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9628,7 +9628,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -9714,7 +9714,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.3125</v>
+        <v>16.375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9792,7 +9792,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.8666666666667</v>
+        <v>16.9333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -9806,8 +9806,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9911,7 +9911,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10048,7 +10048,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>18.4285714285714</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10146,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -10199,7 +10199,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <f>AVERAGE(D21:D29)</f>
-        <v>15.8888888888889</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D29,D35:D41)</f>
-        <v>17.1666666666667</v>
+        <v>17.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -11450,7 +11450,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11501,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.5714285714286</v>
+        <v>17.7142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11611,7 +11611,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>15</v>
+        <v>15.1666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>16.2666666666667</v>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2876,7 +2876,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D18:D31)</f>
-        <v>17.2142857142857</v>
+        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.8333333333333</v>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8170,7 +8170,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8579,7 +8579,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D17:D30)</f>
-        <v>17.2142857142857</v>
+        <v>17.2857142857143</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8699,7 +8699,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
-        <v>17.8</v>
+        <v>17.8333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -8714,8 +8714,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8914,7 +8914,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18</v>
+        <v>18.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8928,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9168,7 +9168,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.375</v>
+        <v>16.4375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9246,7 +9246,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.9333333333333</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9260,8 +9260,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9309,7 +9309,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9460,7 +9460,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18</v>
+        <v>18.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9474,7 +9474,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9714,7 +9714,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.375</v>
+        <v>16.4375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9792,7 +9792,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.9333333333333</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -9806,8 +9806,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9869,7 +9869,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10048,7 +10048,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>18.5</v>
+        <v>18.5714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D29,D35:D41)</f>
-        <v>17.2333333333333</v>
+        <v>17.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -10885,8 +10885,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10981,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>17.4666666666667</v>
+        <v>17.5333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -11450,7 +11450,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11479,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.7142857142857</v>
+        <v>17.8571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>16.4</v>
+        <v>16.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2781,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2876,7 +2876,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <f>AVERAGE(D18:D31)</f>
-        <v>17.2857142857143</v>
+        <v>17.3571428571429</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.8666666666667</v>
+        <v>17.9</v>
       </c>
     </row>
   </sheetData>
@@ -8170,7 +8170,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8481,7 +8481,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8579,7 +8579,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <f>AVERAGE(D17:D30)</f>
-        <v>17.2857142857143</v>
+        <v>17.3571428571429</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8699,7 +8699,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
-        <v>17.8333333333333</v>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -8714,8 +8714,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8791,7 +8791,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8861,7 +8861,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8914,7 +8914,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.0909090909091</v>
+        <v>18.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9026,7 +9026,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9168,7 +9168,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.4375</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9246,7 +9246,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>17</v>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -9260,8 +9260,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -9328,7 +9328,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -9337,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9407,7 +9407,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9460,7 +9460,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.0909090909091</v>
+        <v>18.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9572,7 +9572,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9714,7 +9714,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.4375</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9792,7 +9792,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>17</v>
+        <v>17.1</v>
       </c>
     </row>
   </sheetData>
@@ -9806,8 +9806,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9897,7 +9897,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9981,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10048,7 +10048,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>AVERAGE(D2:D15)</f>
-        <v>18.5714285714286</v>
+        <v>18.7142857142857</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D15,D21:D29,D35:D41)</f>
-        <v>17.2666666666667</v>
+        <v>17.3333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -10885,8 +10885,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11047,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>17.5333333333333</v>
+        <v>17.6</v>
       </c>
     </row>
   </sheetData>
@@ -11449,7 +11449,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -11490,7 +11490,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11534,7 +11534,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>17.8571428571429</v>
+        <v>18.1428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>16.4666666666667</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/zzz_cardList.xlsx
+++ b/src/utils/sxsyzlzq/zzz_cardList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="13050" windowHeight="10695" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="480">
   <si>
     <t>名称</t>
   </si>
@@ -54,12 +54,15 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>洞悉之眼</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>蓝色</t>
-  </si>
-  <si>
     <t>学仆-观测型</t>
   </si>
   <si>
@@ -78,7 +81,7 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>虚化术</t>
+    <t>田园守望者</t>
   </si>
   <si>
     <t>光明惩戒</t>
@@ -90,394 +93,391 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>隐形术</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>破魔系教授</t>
+  </si>
+  <si>
+    <t>克隆术</t>
+  </si>
+  <si>
+    <t>学仆-脉冲型</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
     <t>四芒军旗</t>
   </si>
   <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>隐形术</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>破魔系教授</t>
-  </si>
-  <si>
-    <t>克隆术</t>
-  </si>
-  <si>
-    <t>学仆-脉冲型</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
     <t>春花使者·卡洛琳</t>
   </si>
   <si>
     <t>武圣·云长</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>树木之怒</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
+    <t>飓风术</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>萌化术</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>心灵黑洞</t>
+  </si>
+  <si>
+    <t>暗潮涌动</t>
+  </si>
+  <si>
+    <t>黑夜突袭</t>
+  </si>
+  <si>
+    <t>狡诈学徒</t>
+  </si>
+  <si>
+    <t>热血矿工</t>
+  </si>
+  <si>
+    <t>酗酒醉汉</t>
+  </si>
+  <si>
+    <t>不法交易</t>
+  </si>
+  <si>
+    <t>红海猎魔人</t>
+  </si>
+  <si>
+    <t>海神赐福</t>
+  </si>
+  <si>
+    <t>黑水伏击</t>
+  </si>
+  <si>
+    <t>黑金诈术师</t>
+  </si>
+  <si>
+    <t>沙滩派对·鲍莉</t>
+  </si>
+  <si>
+    <t>樱花·艾希尔</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡洛琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
+  </si>
+  <si>
+    <t>海燕·鲍莉</t>
+  </si>
+  <si>
+    <t>赤影·艾希尔</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>描述（20级数值）</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>(22/18)：【洞察1】、【协战8】。</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>(25/30)：【洞察1】、【回命】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
+  </si>
+  <si>
+    <t>大型弩车</t>
+  </si>
+  <si>
+    <t>(0/60)：【洞察1】、【协战25】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
+  </si>
+  <si>
+    <t>塔楼弓手</t>
+  </si>
+  <si>
+    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
+  </si>
+  <si>
+    <t>(20/28)：【洞察1】、洞察时:自身+5/+5，英雄获得生命（等同自身攻击）。</t>
+  </si>
+  <si>
+    <t>精英射手</t>
+  </si>
+  <si>
+    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
+  </si>
+  <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
+  </si>
+  <si>
+    <t>召集护卫</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
+  </si>
+  <si>
+    <t>皇家射手</t>
+  </si>
+  <si>
+    <t>(40/20)：【先攻】、【洞察1】、回合开始:召唤25/12塔楼弓手-lv18（次数上限：3）。</t>
+  </si>
+  <si>
+    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
+  </si>
+  <si>
+    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
+  </si>
+  <si>
+    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
+  </si>
+  <si>
+    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
+  </si>
+  <si>
+    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
+  </si>
+  <si>
+    <t>隐秘</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、英雄生命+30。</t>
+  </si>
+  <si>
+    <t>方尖魔碑</t>
+  </si>
+  <si>
+    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
+  </si>
+  <si>
+    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
+  </si>
+  <si>
+    <t>学仆-渗透型</t>
+  </si>
+  <si>
+    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
+  </si>
+  <si>
+    <t>请示隐秘者</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
+  </si>
+  <si>
+    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
+  </si>
+  <si>
+    <t>神秘学教授</t>
+  </si>
+  <si>
+    <t>(13/33)：每当一个敌军死亡:获得【洞悉之眼-lv20】（每次对战仅可触发3次）。</t>
+  </si>
+  <si>
+    <t>学仆-猛禽型</t>
+  </si>
+  <si>
+    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
+  </si>
+  <si>
+    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
+  </si>
+  <si>
+    <t>白首魔根</t>
+  </si>
+  <si>
+    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
+  </si>
+  <si>
+    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
+  </si>
+  <si>
+    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
+  </si>
+  <si>
+    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
+  </si>
+  <si>
+    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
+  </si>
+  <si>
+    <t>滑板少年·迪宁</t>
+  </si>
+  <si>
+    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
+  </si>
+  <si>
+    <t>禅意</t>
+  </si>
+  <si>
+    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
+  </si>
+  <si>
+    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
   </si>
   <si>
     <t>锁妖塔守卫</t>
-  </si>
-  <si>
-    <t>飓风术</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>心灵黑洞</t>
-  </si>
-  <si>
-    <t>暗潮涌动</t>
-  </si>
-  <si>
-    <t>黑夜突袭</t>
-  </si>
-  <si>
-    <t>狡诈学徒</t>
-  </si>
-  <si>
-    <t>热血矿工</t>
-  </si>
-  <si>
-    <t>酗酒醉汉</t>
-  </si>
-  <si>
-    <t>不法交易</t>
-  </si>
-  <si>
-    <t>红海猎魔人</t>
-  </si>
-  <si>
-    <t>海神赐福</t>
-  </si>
-  <si>
-    <t>黑水伏击</t>
-  </si>
-  <si>
-    <t>黑金诈术师</t>
-  </si>
-  <si>
-    <t>沙滩派对·鲍莉</t>
-  </si>
-  <si>
-    <t>樱花·艾希尔</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡洛琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>神机玄女·轩</t>
-  </si>
-  <si>
-    <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>禅意卡等：</t>
-  </si>
-  <si>
-    <t>海燕·鲍莉</t>
-  </si>
-  <si>
-    <t>赤影·艾希尔</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>描述（20级数值）</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>(22/18)：【洞察1】、【协战8】。</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
-    <t>(25/30)：【洞察1】、【回命】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+66、抓一张牌、获得《真理石残片》。</t>
-  </si>
-  <si>
-    <t>大型弩车</t>
-  </si>
-  <si>
-    <t>(0/60)：【洞察1】、【协战25】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、召唤3个12/12民兵-lv17，75%概率再召唤一个。</t>
-  </si>
-  <si>
-    <t>塔楼弓手</t>
-  </si>
-  <si>
-    <t>(30/15)：【先攻】、洞察时:自身+6/+4、死亡:【洞察1】。</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>(20/28)：【洞察1】、洞察时:自身+5/+5，英雄获得生命（等同自身攻击）。</t>
-  </si>
-  <si>
-    <t>精英射手</t>
-  </si>
-  <si>
-    <t>(35/22)：【洞察1】、【先攻】、【协战9】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排所有敌军受到150点伤害、50%概率获得《真理碎片》。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察1】、命中英雄:召唤16/8警卫-lv15。</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>(0/85)：【守军】、【磐龙】、【护甲8】、回合结束:【洞察1】，若场上有冰封，自身生命+15。</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标友军+27/+27、并获得【护甲14】。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、将横排敌军移回玩家手上、友军横排召唤21/9警卫-lv18。</t>
-  </si>
-  <si>
-    <t>召集护卫</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、在目标位置和随机位置，召唤3/60圣堂门卫-lv20、护甲友军攻击+12，获得【磐龙】1回合。</t>
-  </si>
-  <si>
-    <t>皇家射手</t>
-  </si>
-  <si>
-    <t>(40/20)：【先攻】、【洞察1】、回合开始:召唤25/12塔楼弓手-lv18（次数上限：3）。</t>
-  </si>
-  <si>
-    <t>(40/80)：【回命】、【洞察3】、登场:消灭对面横排首位新进场敌军。</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>(30/54)：【洞察1】、【护甲8】、洞察时：全体友军+6/+6。</t>
-  </si>
-  <si>
-    <t>(20/32)：【洞察2】、攻击前:所有友军+6/+6，魔防+3。（皮肤：命中时：另一友军+1/+1。）</t>
-  </si>
-  <si>
-    <t>(36/36)：【回命】、【神佑】、【护甲15】。（皮肤：命中时：【洞察1】，50几率英雄生命额外+10。）</t>
-  </si>
-  <si>
-    <t>(0/20)：【魔防20】、同横排其他单位不会攻击（无视神佑和魔免）、回合结束:【洞察1】、另一友军+7/+15。（皮肤：登场：其他全体友军，攻击+3，本回合护甲+X（X等同露娜等级）。）</t>
-  </si>
-  <si>
-    <t>(20/70)：登场:英雄生命+70、英雄获得生命:回复效果加倍，自身+3/+13，其他友军+4/+4。（皮肤：【洞察1】、洞察时：自身魔防+2，其他友军攻击+1。）</t>
-  </si>
-  <si>
-    <t>隐秘</t>
-  </si>
-  <si>
-    <t>洞悉之眼</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、英雄生命+30。</t>
-  </si>
-  <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
-    <t>(0/40)：【守军】、敌方法力上限-1、回合结束:70%几率【洞察1】。</t>
-  </si>
-  <si>
-    <t>(22/32)：洞察时：自身+4/+4、死亡：【洞察1】，英雄恢复生命（等同攻击力）。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、横排敌军攻击-33。</t>
-  </si>
-  <si>
-    <t>学仆-渗透型</t>
-  </si>
-  <si>
-    <t>(35/35)：【洞察1】、【穿透】、【护甲8】。</t>
-  </si>
-  <si>
-    <t>请示隐秘者</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、抽2张牌、随机友军生命+66、充能:多抽一张牌。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标单位+23/+23，获得【隐形】。</t>
-  </si>
-  <si>
-    <t>(21/27)：【洞察1】、登场:沉默随机敌军、命中时:65%几率【洞察1】、回合结束:35%几率沉默随机敌军。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、复制目标单位到手上，英雄生命+40。</t>
-  </si>
-  <si>
-    <t>神秘学教授</t>
-  </si>
-  <si>
-    <t>(13/33)：每当一个敌军死亡:获得【洞悉之眼-lv20】（每次对战仅可触发3次）。</t>
-  </si>
-  <si>
-    <t>学仆-猛禽型</t>
-  </si>
-  <si>
-    <t>(27/15)：【先攻】、命中时：【洞察1】、洞察时：全体先攻友军攻击+9。</t>
-  </si>
-  <si>
-    <t>(16/30)：【洞察1】、洞察时：自身+3/+8，射击英雄。</t>
-  </si>
-  <si>
-    <t>白首魔根</t>
-  </si>
-  <si>
-    <t>(17/67)：【洞察1】、【魔免】、回合结束:自身攻击加倍。</t>
-  </si>
-  <si>
-    <t>(0/54)：【洞察1】、【魔防6】、法力上限+2、回合开始:随机敌军-x/-x(x为你的法力)。</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>(38/38)：【磐龙】、【护甲15】、洞察时：自身+3/+6，护甲+3。</t>
-  </si>
-  <si>
-    <t>(20/35)：【洞察1】、【魔防20】、洞察时：抽一张牌。</t>
-  </si>
-  <si>
-    <t>(50/100)：【洞察1】、【磐龙】、【穿透】、【护甲15】、【魔防15】、洞察时：获得《渗透型》lv20、护甲友军死亡：自身+8/+24。</t>
-  </si>
-  <si>
-    <t>(29/25)：法力上限+3，你的法术卡使用后，移回手上、死亡:自身回手，75%概率获得沉默术-lv11。（皮肤：【洞察1】、洞察时：英雄生命+3。）</t>
-  </si>
-  <si>
-    <t>滑板少年·迪宁</t>
-  </si>
-  <si>
-    <t>(25/25)：【魔防15】、【先攻】、回合开始：全体先攻友军+4/+4、获得【连击】1回合。（皮肤：登场：【洞察1】、全体先攻友军获得【隐形】和【神佑】1回合。）</t>
-  </si>
-  <si>
-    <t>禅意</t>
-  </si>
-  <si>
-    <t>(14/15)：【洞察1】、【传承10】、法力上限+1。</t>
-  </si>
-  <si>
-    <t>(法术)：【洞察1】、目标敌军吹回手上、英雄生命+36。</t>
   </si>
   <si>
     <t>(30/30)：【洞察1】、【法力封锁1】。</t>
@@ -2455,8 +2455,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2487,15 +2487,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2515,10 +2515,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2557,10 +2557,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2613,15 +2613,15 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2630,14 +2630,22 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -2646,38 +2654,30 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>16</v>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>AVERAGE(D2:D13)</f>
+        <v>18.4166666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -2705,7 +2705,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2719,7 +2719,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2733,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -2747,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2761,7 +2761,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2775,13 +2775,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2789,7 +2789,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -2803,7 +2803,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2817,7 +2817,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -2831,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -2845,7 +2845,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -2868,15 +2868,15 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <f>AVERAGE(D18:D31)</f>
-        <v>17.3571428571429</v>
+        <f>AVERAGE(D19:D31)</f>
+        <v>17.5384615384615</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2963,7 +2963,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -2979,8 +2979,8 @@
         <v>36</v>
       </c>
       <c r="D47">
-        <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.9</v>
+        <f>AVERAGE(D2:D13,D19:D31,D37:D41)</f>
+        <v>17.8</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>35</v>
@@ -3253,7 +3253,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
@@ -3286,7 +3286,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="3:3">
@@ -3306,10 +3306,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -3318,15 +3318,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -3335,15 +3335,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -3352,15 +3352,15 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -3369,15 +3369,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -3386,15 +3386,15 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -3403,15 +3403,15 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -3459,13 +3459,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -3476,13 +3476,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -3510,13 +3510,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3544,13 +3544,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3578,13 +3578,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -3666,7 +3666,7 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3683,16 +3683,16 @@
         <v>114</v>
       </c>
       <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>117</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3700,7 +3700,7 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -3709,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3717,7 +3717,7 @@
         <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3734,7 +3734,7 @@
         <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3751,16 +3751,16 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
         <v>123</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3768,16 +3768,16 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3788,13 +3788,13 @@
         <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3805,13 +3805,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3819,16 +3819,16 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>128</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3836,16 +3836,16 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3856,13 +3856,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3870,16 +3870,16 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3890,13 +3890,13 @@
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3904,16 +3904,16 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3924,13 +3924,13 @@
         <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3941,13 +3941,13 @@
         <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3964,7 +3964,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3972,7 +3972,7 @@
         <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>30</v>
@@ -3981,12 +3981,12 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -3998,12 +3998,12 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -4015,15 +4015,15 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>148</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -4088,13 +4088,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4105,13 +4105,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4122,13 +4122,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
         <v>155</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>30</v>
@@ -4193,7 +4193,7 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -4244,7 +4244,7 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
@@ -4278,7 +4278,7 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -4295,7 +4295,7 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
@@ -4315,7 +4315,7 @@
         <v>169</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4332,7 +4332,7 @@
         <v>171</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4346,10 +4346,10 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4363,10 +4363,10 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4383,7 +4383,7 @@
         <v>175</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4400,7 +4400,7 @@
         <v>177</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4414,7 +4414,7 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>30</v>
@@ -4502,7 +4502,7 @@
         <v>189</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -4519,7 +4519,7 @@
         <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -4757,7 +4757,7 @@
         <v>220</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4774,7 +4774,7 @@
         <v>222</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -4791,7 +4791,7 @@
         <v>224</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -4808,7 +4808,7 @@
         <v>226</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -4893,7 +4893,7 @@
         <v>237</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>239</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -4927,7 +4927,7 @@
         <v>241</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4944,7 +4944,7 @@
         <v>243</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
         <v>0</v>
@@ -4972,13 +4972,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
         <v>247</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
         <v>248</v>
@@ -4989,13 +4989,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
         <v>250</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
         <v>248</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
         <v>252</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
         <v>255</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
         <v>257</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
         <v>253</v>
@@ -5057,13 +5057,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
         <v>259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
         <v>253</v>
@@ -5080,7 +5080,7 @@
         <v>261</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
         <v>248</v>
@@ -5097,7 +5097,7 @@
         <v>263</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
         <v>248</v>
@@ -5114,7 +5114,7 @@
         <v>265</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
         <v>253</v>
@@ -5131,7 +5131,7 @@
         <v>267</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
         <v>253</v>
@@ -5148,7 +5148,7 @@
         <v>269</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
         <v>253</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
         <v>275</v>
@@ -5210,13 +5210,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s">
         <v>277</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
         <v>248</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>279</v>
@@ -5244,13 +5244,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
         <v>281</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
         <v>253</v>
@@ -5261,13 +5261,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
         <v>283</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
         <v>253</v>
@@ -5318,7 +5318,7 @@
         <v>289</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
         <v>248</v>
@@ -5352,7 +5352,7 @@
         <v>293</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
         <v>253</v>
@@ -5369,7 +5369,7 @@
         <v>295</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
         <v>253</v>
@@ -5403,7 +5403,7 @@
         <v>299</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
         <v>248</v>
@@ -5420,7 +5420,7 @@
         <v>301</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
         <v>248</v>
@@ -5437,7 +5437,7 @@
         <v>303</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D144" t="s">
         <v>253</v>
@@ -5488,7 +5488,7 @@
         <v>309</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
         <v>248</v>
@@ -5573,7 +5573,7 @@
         <v>319</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
         <v>253</v>
@@ -5607,7 +5607,7 @@
         <v>323</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
         <v>253</v>
@@ -5624,7 +5624,7 @@
         <v>325</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
         <v>253</v>
@@ -5641,7 +5641,7 @@
         <v>327</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
         <v>253</v>
@@ -5676,7 +5676,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5688,12 +5688,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>329</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>332</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>334</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>336</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>338</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>340</v>
@@ -5795,13 +5795,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5812,13 +5812,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>343</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5829,13 +5829,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>345</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -5846,13 +5846,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>347</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -5863,13 +5863,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>349</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -5897,13 +5897,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5914,13 +5914,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>351</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -5931,13 +5931,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -5948,13 +5948,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>353</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -5965,13 +5965,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>355</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -5982,13 +5982,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>357</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -6016,13 +6016,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>359</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -6033,13 +6033,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>361</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -6050,13 +6050,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>363</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>365</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>367</v>
@@ -6118,10 +6118,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>30</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>370</v>
@@ -6155,7 +6155,7 @@
         <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -6164,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6209,7 +6209,7 @@
         <v>376</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -6223,16 +6223,16 @@
         <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6243,7 +6243,7 @@
         <v>378</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -6260,13 +6260,13 @@
         <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>380</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s">
         <v>386</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
         <v>388</v>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" t="s">
         <v>390</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -6373,13 +6373,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
         <v>392</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -6390,13 +6390,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
         <v>394</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -6407,13 +6407,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
         <v>396</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>30</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
         <v>399</v>
@@ -6532,7 +6532,7 @@
         <v>410</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -6549,7 +6549,7 @@
         <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -6566,7 +6566,7 @@
         <v>412</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -6583,7 +6583,7 @@
         <v>414</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -6702,7 +6702,7 @@
         <v>428</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -6719,7 +6719,7 @@
         <v>430</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -6736,7 +6736,7 @@
         <v>432</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -6753,7 +6753,7 @@
         <v>434</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -6830,7 +6830,7 @@
         <v>440</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>441</v>
@@ -6853,7 +6853,7 @@
         <v>446</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>18</v>
@@ -6874,7 +6874,7 @@
         <v>448</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -6895,10 +6895,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>17</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
@@ -6934,7 +6934,7 @@
         <v>451</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>18</v>
@@ -6952,7 +6952,7 @@
         <v>452</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -6970,10 +6970,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
@@ -6991,7 +6991,7 @@
         <v>454</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
@@ -7009,7 +7009,7 @@
         <v>455</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1">
         <v>16</v>
@@ -7027,7 +7027,7 @@
         <v>334</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -7045,7 +7045,7 @@
         <v>456</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -7066,7 +7066,7 @@
         <v>457</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -7084,7 +7084,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2">
         <v>17</v>
@@ -7102,7 +7102,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2">
         <v>15</v>
@@ -7120,7 +7120,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -7141,7 +7141,7 @@
         <v>108</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -7159,7 +7159,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -7174,10 +7174,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -7195,7 +7195,7 @@
         <v>343</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -7213,7 +7213,7 @@
         <v>349</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -7231,7 +7231,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2">
         <v>7</v>
@@ -7249,7 +7249,7 @@
         <v>355</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>13</v>
@@ -7288,7 +7288,7 @@
         <v>459</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3">
         <v>13</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3">
         <v>14</v>
@@ -7372,7 +7372,7 @@
         <v>461</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -7426,7 +7426,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>114</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>114</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>114</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>114</v>
@@ -8170,7 +8170,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -8218,12 +8218,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -8313,15 +8313,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -8330,14 +8330,22 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -8346,38 +8354,30 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>16</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -8388,44 +8388,44 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
         <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8433,7 +8433,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -8444,16 +8444,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8461,7 +8461,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -8475,24 +8475,24 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <v>19</v>
@@ -8500,45 +8500,44 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2">
-        <v>15</v>
-      </c>
-      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -8547,7 +8546,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>7</v>
@@ -8571,15 +8570,15 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <f>AVERAGE(D17:D30)</f>
-        <v>17.3571428571429</v>
+        <f>AVERAGE(D18:D30)</f>
+        <v>17.4615384615385</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8598,7 +8597,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -8654,7 +8653,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -8680,7 +8679,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>35</v>
@@ -8698,7 +8697,7 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D30,D36:D41)</f>
+        <f>AVERAGE(D2:D12,D18:D30,D36:D41)</f>
         <v>17.8666666666667</v>
       </c>
     </row>
@@ -8714,8 +8713,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8740,21 +8739,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -8777,12 +8776,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -8791,12 +8790,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -8805,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8819,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8838,7 +8837,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -8866,31 +8865,23 @@
     </row>
     <row r="11" spans="1:4">
       